--- a/libs/ui/src/lib/assets/templates/import-movie-template-admin.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-movie-template-admin.xlsx
@@ -24,27 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="518">
-  <si>
-    <t xml:space="preserve">Film Library Metadata</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="519">
+  <si>
+    <t xml:space="preserve">Movies Import (Metadata)</t>
   </si>
   <si>
     <t xml:space="preserve">Instructions:</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Yellow cells are mandatory information. Blue cells are complementary information. Green cells are for links or files.</t>
+    <t xml:space="preserve">1) Yellow cells are mandatory information. Blue cells are complementary information. Green cells are for links or files. Purple cells ar for internal reference.</t>
   </si>
   <si>
     <t xml:space="preserve">2) If you have multiple answers for one cell, use semicolon as separator (;)</t>
   </si>
   <si>
-    <t xml:space="preserve">3) The information in parentheses indicate the format to comply with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) When a list of choice is provided on top of a column, please use it to fill in the cells in that column. (That is why there is a second tab to this Excel. Please do not mind this "Pre-defined lists" tab when you fill in your film information)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5) When a word is in square brackets ([country] for example), it means that it needs to fit a list of choice pre-defined (in the "Pre-defined lists" tab).</t>
+    <t xml:space="preserve">3) The information in parenthesis indicateS the format to comply with.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) When a list of choice is provided on top of a column, please use it to fill in the cells in that column. (That is why there is a second tab to this Excel. Please do not modify the "Pre-defined lists" tab when you fill in your film information)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) When a word is in square brackets ([country] for example), it means that it needs to fit the corresponding pre-defined list of choice (in the "Pre-defined lists" tab).</t>
   </si>
   <si>
     <t xml:space="preserve">MAIN INFORMATION</t>
@@ -65,10 +65,13 @@
     <t xml:space="preserve">PROMOTIONAL ELEMENTS</t>
   </si>
   <si>
-    <t xml:space="preserve">FACULTATIF POUR CASCADE8 ADMIN</t>
+    <t xml:space="preserve">ADMIN AREA</t>
   </si>
   <si>
     <t xml:space="preserve">List of available Content type below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of available Production status below</t>
   </si>
   <si>
     <t xml:space="preserve">List of available Territories below</t>
@@ -127,40 +130,8 @@
 (list of choice)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Director(s)
-(First Name, Surname, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Filmography</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">Director(s)
+(First Name, Surname, Filmography)</t>
   </si>
   <si>
     <t xml:space="preserve">Countries of Origin
@@ -216,35 +187,14 @@
 (First Name, Last Name, [role])</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Budget </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">range
+    <t xml:space="preserve">Budget range
 (list of choices)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Worldwide Box office (unit, number)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Box office (country, unit , number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worldwide box-office (unit, number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National box-office ([country], unit, number)</t>
   </si>
   <si>
     <t xml:space="preserve">Quotas
@@ -273,59 +223,16 @@
 (list of choice)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Available </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">version</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(s)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(language, 
-[original, ] [dubbed,] [subtitle,] [caption, ]</t>
-    </r>
+    <t xml:space="preserve">Available version(s)
+([language], 
+original/dubbed/subtitle/caption)</t>
   </si>
   <si>
     <t xml:space="preserve">Poster
 (image URL)</t>
   </si>
   <si>
-    <t xml:space="preserve">Image bannière (rectangulaire) 
+    <t xml:space="preserve">Banner image (landscape mode)
 (image URL)</t>
   </si>
   <si>
@@ -1710,7 +1617,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1734,11 +1641,25 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1746,31 +1667,30 @@
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFE2EFD9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1782,25 +1702,32 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <i val="true"/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE2EFD9"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFED7D31"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1813,12 +1740,30 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B183"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1834,8 +1779,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFEEA7B"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -1846,14 +1797,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00864B"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -1929,16 +1874,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left/>
       <right/>
-      <top style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right/>
-      <top/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -2005,139 +1950,131 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2145,19 +2082,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2169,7 +2114,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2201,9 +2146,9 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF00864B"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF8E7CC3"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFE2EFD9"/>
@@ -2211,7 +2156,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0B5394"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFCFE2F3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2223,7 +2168,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFEEA7B"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -2233,11 +2178,11 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF6AA84F"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2260,7 +2205,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269720</xdr:colOff>
+      <xdr:colOff>1269360</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>317160</xdr:rowOff>
     </xdr:to>
@@ -2272,7 +2217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851920" cy="12947040"/>
+          <a:ext cx="11851560" cy="12947040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2305,7 +2250,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269720</xdr:colOff>
+      <xdr:colOff>1269360</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>317160</xdr:rowOff>
     </xdr:to>
@@ -2317,7 +2262,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851920" cy="12947040"/>
+          <a:ext cx="11851560" cy="12947040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2350,7 +2295,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269720</xdr:colOff>
+      <xdr:colOff>1269360</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>317160</xdr:rowOff>
     </xdr:to>
@@ -2362,7 +2307,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851920" cy="12947040"/>
+          <a:ext cx="11851560" cy="12947040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2394,17 +2339,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW1048576"/>
+  <dimension ref="A1:AR1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="topRight" activeCell="AL1" activeCellId="0" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V45" activeCellId="0" sqref="15:45"/>
+      <selection pane="bottomRight" activeCell="AR14" activeCellId="0" sqref="A1:AR14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.83"/>
@@ -2427,438 +2372,758 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="42" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="42" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="1019" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N1" s="2"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="9"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="9"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="9"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="9"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="9"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="AF9" s="9"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N10" s="2"/>
-      <c r="AE10" s="9"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19" t="s">
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19" t="s">
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19" t="s">
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19" t="s">
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="20" t="s">
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="21" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="G12" s="21" t="s">
+      <c r="E12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="H12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="I12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="J12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="S12" s="21" t="s">
+      <c r="K12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="T12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="V12" s="22" t="s">
+      <c r="U12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="X12" s="21" t="s">
+      <c r="V12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Y12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB12" s="22" t="s">
+      <c r="W12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AC12" s="22" t="s">
+      <c r="Y12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="22" t="s">
+      <c r="AC12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AE12" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="AD12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="N13" s="2"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="23"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="F14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="G14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="H14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="I14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="J14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="K14" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="L14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="M14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="29" t="s">
+      <c r="N14" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="O14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="P14" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="R14" s="29" t="s">
+      <c r="Q14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="S14" s="33" t="s">
+      <c r="R14" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="T14" s="33" t="s">
+      <c r="S14" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="U14" s="32" t="s">
+      <c r="T14" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="V14" s="33" t="s">
+      <c r="U14" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="W14" s="33" t="s">
+      <c r="V14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="X14" s="32" t="s">
+      <c r="W14" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="Y14" s="32" t="s">
+      <c r="X14" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="Z14" s="33" t="s">
+      <c r="Y14" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AA14" s="32" t="s">
+      <c r="Z14" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AB14" s="32" t="s">
+      <c r="AA14" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AC14" s="32" t="s">
+      <c r="AB14" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AD14" s="32" t="s">
+      <c r="AC14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AE14" s="32" t="s">
+      <c r="AD14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AF14" s="34" t="s">
+      <c r="AE14" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AG14" s="35" t="s">
+      <c r="AF14" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AH14" s="36" t="s">
+      <c r="AG14" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI14" s="36" t="s">
+      <c r="AH14" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="AJ14" s="35" t="s">
+      <c r="AI14" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AK14" s="35" t="s">
+      <c r="AJ14" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="AL14" s="35" t="s">
+      <c r="AK14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AM14" s="35" t="s">
+      <c r="AL14" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="AN14" s="35" t="s">
+      <c r="AM14" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AO14" s="37" t="s">
+      <c r="AN14" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AP14" s="37" t="s">
+      <c r="AO14" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AQ14" s="37" t="s">
+      <c r="AP14" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AR14" s="37" t="s">
+      <c r="AQ14" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
+      <c r="AR14" s="38" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3855,7 +4120,7 @@
     <mergeCell ref="U11:Z11"/>
     <mergeCell ref="AA11:AE11"/>
     <mergeCell ref="AF11:AN11"/>
-    <mergeCell ref="AO11:AW11"/>
+    <mergeCell ref="AO11:AR11"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3876,7 +4141,7 @@
   <dimension ref="A1:N257"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="15:45"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="A1:AR14 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3891,406 +4156,406 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L2" s="42" t="n">
         <v>1.33</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L3" s="42" t="n">
         <v>1.37</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L4" s="42" t="n">
         <v>1.66</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K5" s="42"/>
       <c r="L5" s="42" t="n">
         <v>1.77</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="42" t="n">
         <v>1.85</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N7" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N8" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
@@ -4299,23 +4564,23 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12" s="42"/>
@@ -4324,23 +4589,23 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
@@ -4349,23 +4614,23 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
@@ -4374,23 +4639,23 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
@@ -4399,16 +4664,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -4422,14 +4687,14 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -4443,14 +4708,14 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -4464,14 +4729,14 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
@@ -4485,14 +4750,14 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
@@ -4508,10 +4773,10 @@
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
@@ -4527,10 +4792,10 @@
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -4546,11 +4811,11 @@
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
@@ -4566,11 +4831,11 @@
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
@@ -4586,11 +4851,11 @@
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -4606,11 +4871,11 @@
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -4626,11 +4891,11 @@
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -4646,11 +4911,11 @@
       <c r="A28" s="42"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -4666,11 +4931,11 @@
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -4686,11 +4951,11 @@
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -4706,11 +4971,11 @@
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -4726,11 +4991,11 @@
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -4746,11 +5011,11 @@
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -4766,11 +5031,11 @@
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -4786,11 +5051,11 @@
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
@@ -4806,11 +5071,11 @@
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -4826,11 +5091,11 @@
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -4846,11 +5111,11 @@
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="42" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -4866,11 +5131,11 @@
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -4886,11 +5151,11 @@
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
@@ -4906,11 +5171,11 @@
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="42" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
@@ -4926,11 +5191,11 @@
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -4946,11 +5211,11 @@
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D43" s="41"/>
       <c r="E43" s="42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -4966,11 +5231,11 @@
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="42" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
@@ -4986,11 +5251,11 @@
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
@@ -5006,11 +5271,11 @@
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
@@ -5026,11 +5291,11 @@
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -5046,11 +5311,11 @@
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -5066,11 +5331,11 @@
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -5086,11 +5351,11 @@
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -5106,11 +5371,11 @@
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -5126,11 +5391,11 @@
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
@@ -5146,11 +5411,11 @@
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -5166,11 +5431,11 @@
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D54" s="41"/>
       <c r="E54" s="42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -5186,11 +5451,11 @@
       <c r="A55" s="42"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -5206,11 +5471,11 @@
       <c r="A56" s="42"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -5226,11 +5491,11 @@
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -5246,11 +5511,11 @@
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D58" s="41"/>
       <c r="E58" s="42" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
@@ -5266,11 +5531,11 @@
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
@@ -5286,11 +5551,11 @@
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
@@ -5306,11 +5571,11 @@
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -5326,11 +5591,11 @@
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="42" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
@@ -5346,11 +5611,11 @@
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
@@ -5366,11 +5631,11 @@
       <c r="A64" s="42"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
@@ -5386,11 +5651,11 @@
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D65" s="41"/>
       <c r="E65" s="42" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
@@ -5406,11 +5671,11 @@
       <c r="A66" s="42"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="42" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
@@ -5426,11 +5691,11 @@
       <c r="A67" s="42"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="42" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
@@ -5446,11 +5711,11 @@
       <c r="A68" s="42"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
@@ -5466,11 +5731,11 @@
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
@@ -5486,11 +5751,11 @@
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D70" s="41"/>
       <c r="E70" s="42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
@@ -5506,11 +5771,11 @@
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
@@ -5526,11 +5791,11 @@
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="42" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D72" s="41"/>
       <c r="E72" s="42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
@@ -5546,11 +5811,11 @@
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D73" s="41"/>
       <c r="E73" s="42" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
@@ -5566,11 +5831,11 @@
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D74" s="41"/>
       <c r="E74" s="42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
@@ -5586,11 +5851,11 @@
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D75" s="41"/>
       <c r="E75" s="42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
@@ -5606,11 +5871,11 @@
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D76" s="41"/>
       <c r="E76" s="42" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
@@ -5626,11 +5891,11 @@
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D77" s="41"/>
       <c r="E77" s="42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
@@ -5646,11 +5911,11 @@
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D78" s="41"/>
       <c r="E78" s="42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
@@ -5666,11 +5931,11 @@
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="42" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
@@ -5686,11 +5951,11 @@
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
       <c r="C80" s="42" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="42" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
@@ -5706,11 +5971,11 @@
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
@@ -5726,11 +5991,11 @@
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
       <c r="C82" s="42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D82" s="41"/>
       <c r="E82" s="42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
@@ -5746,11 +6011,11 @@
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
@@ -5766,11 +6031,11 @@
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="42" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
@@ -5786,11 +6051,11 @@
       <c r="A85" s="42"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
@@ -5806,7 +6071,7 @@
       <c r="A86" s="42"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="42"/>
@@ -5824,7 +6089,7 @@
       <c r="A87" s="42"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="42"/>
@@ -5842,7 +6107,7 @@
       <c r="A88" s="42"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="42"/>
@@ -5860,7 +6125,7 @@
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D89" s="41"/>
       <c r="E89" s="42"/>
@@ -5878,7 +6143,7 @@
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D90" s="41"/>
       <c r="E90" s="42"/>
@@ -5896,7 +6161,7 @@
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="42"/>
@@ -5914,7 +6179,7 @@
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D92" s="41"/>
       <c r="E92" s="42"/>
@@ -5932,7 +6197,7 @@
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D93" s="41"/>
       <c r="E93" s="42"/>
@@ -5950,7 +6215,7 @@
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D94" s="41"/>
       <c r="E94" s="42"/>
@@ -5968,7 +6233,7 @@
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D95" s="41"/>
       <c r="E95" s="42"/>
@@ -5986,7 +6251,7 @@
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D96" s="41"/>
       <c r="E96" s="42"/>
@@ -6004,7 +6269,7 @@
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D97" s="41"/>
       <c r="E97" s="42"/>
@@ -6022,7 +6287,7 @@
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D98" s="41"/>
       <c r="E98" s="42"/>
@@ -6040,7 +6305,7 @@
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="42" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="42"/>
@@ -6058,7 +6323,7 @@
       <c r="A100" s="42"/>
       <c r="B100" s="42"/>
       <c r="C100" s="42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D100" s="41"/>
       <c r="E100" s="42"/>
@@ -6076,7 +6341,7 @@
       <c r="A101" s="42"/>
       <c r="B101" s="42"/>
       <c r="C101" s="42" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D101" s="41"/>
       <c r="E101" s="42"/>
@@ -6094,7 +6359,7 @@
       <c r="A102" s="42"/>
       <c r="B102" s="42"/>
       <c r="C102" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D102" s="41"/>
       <c r="E102" s="42"/>
@@ -6112,7 +6377,7 @@
       <c r="A103" s="42"/>
       <c r="B103" s="42"/>
       <c r="C103" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D103" s="41"/>
       <c r="E103" s="42"/>
@@ -6130,7 +6395,7 @@
       <c r="A104" s="42"/>
       <c r="B104" s="42"/>
       <c r="C104" s="42" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D104" s="41"/>
       <c r="E104" s="42"/>
@@ -6148,7 +6413,7 @@
       <c r="A105" s="42"/>
       <c r="B105" s="42"/>
       <c r="C105" s="42" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D105" s="41"/>
       <c r="E105" s="42"/>
@@ -6166,7 +6431,7 @@
       <c r="A106" s="42"/>
       <c r="B106" s="42"/>
       <c r="C106" s="42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D106" s="41"/>
       <c r="E106" s="42"/>
@@ -6184,7 +6449,7 @@
       <c r="A107" s="42"/>
       <c r="B107" s="42"/>
       <c r="C107" s="42" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D107" s="41"/>
       <c r="E107" s="42"/>
@@ -6202,7 +6467,7 @@
       <c r="A108" s="42"/>
       <c r="B108" s="42"/>
       <c r="C108" s="42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D108" s="41"/>
       <c r="E108" s="42"/>
@@ -6220,7 +6485,7 @@
       <c r="A109" s="42"/>
       <c r="B109" s="42"/>
       <c r="C109" s="42" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D109" s="41"/>
       <c r="E109" s="42"/>
@@ -6238,7 +6503,7 @@
       <c r="A110" s="42"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D110" s="41"/>
       <c r="E110" s="42"/>
@@ -6256,7 +6521,7 @@
       <c r="A111" s="42"/>
       <c r="B111" s="42"/>
       <c r="C111" s="42" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D111" s="41"/>
       <c r="E111" s="42"/>
@@ -6274,7 +6539,7 @@
       <c r="A112" s="42"/>
       <c r="B112" s="42"/>
       <c r="C112" s="42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D112" s="41"/>
       <c r="E112" s="42"/>
@@ -6292,7 +6557,7 @@
       <c r="A113" s="42"/>
       <c r="B113" s="42"/>
       <c r="C113" s="42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D113" s="41"/>
       <c r="E113" s="42"/>
@@ -6310,7 +6575,7 @@
       <c r="A114" s="42"/>
       <c r="B114" s="42"/>
       <c r="C114" s="42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D114" s="41"/>
       <c r="E114" s="42"/>
@@ -6328,7 +6593,7 @@
       <c r="A115" s="42"/>
       <c r="B115" s="42"/>
       <c r="C115" s="42" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D115" s="41"/>
       <c r="E115" s="42"/>
@@ -6346,7 +6611,7 @@
       <c r="A116" s="42"/>
       <c r="B116" s="42"/>
       <c r="C116" s="42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D116" s="41"/>
       <c r="E116" s="42"/>
@@ -6364,7 +6629,7 @@
       <c r="A117" s="42"/>
       <c r="B117" s="42"/>
       <c r="C117" s="42" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="42"/>
@@ -6382,7 +6647,7 @@
       <c r="A118" s="42"/>
       <c r="B118" s="42"/>
       <c r="C118" s="42" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D118" s="41"/>
       <c r="E118" s="42"/>
@@ -6400,7 +6665,7 @@
       <c r="A119" s="42"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D119" s="41"/>
       <c r="E119" s="42"/>
@@ -6418,7 +6683,7 @@
       <c r="A120" s="42"/>
       <c r="B120" s="42"/>
       <c r="C120" s="42" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D120" s="41"/>
       <c r="E120" s="42"/>
@@ -6436,7 +6701,7 @@
       <c r="A121" s="42"/>
       <c r="B121" s="42"/>
       <c r="C121" s="42" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D121" s="41"/>
       <c r="E121" s="42"/>
@@ -6454,7 +6719,7 @@
       <c r="A122" s="42"/>
       <c r="B122" s="42"/>
       <c r="C122" s="42" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D122" s="41"/>
       <c r="E122" s="42"/>
@@ -6472,7 +6737,7 @@
       <c r="A123" s="42"/>
       <c r="B123" s="42"/>
       <c r="C123" s="42" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D123" s="41"/>
       <c r="E123" s="42"/>
@@ -6490,7 +6755,7 @@
       <c r="A124" s="42"/>
       <c r="B124" s="42"/>
       <c r="C124" s="42" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D124" s="41"/>
       <c r="E124" s="42"/>
@@ -6508,7 +6773,7 @@
       <c r="A125" s="42"/>
       <c r="B125" s="42"/>
       <c r="C125" s="42" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D125" s="41"/>
       <c r="E125" s="42"/>
@@ -6526,7 +6791,7 @@
       <c r="A126" s="42"/>
       <c r="B126" s="42"/>
       <c r="C126" s="42" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D126" s="41"/>
       <c r="E126" s="42"/>
@@ -6544,7 +6809,7 @@
       <c r="A127" s="42"/>
       <c r="B127" s="42"/>
       <c r="C127" s="42" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D127" s="41"/>
       <c r="E127" s="42"/>
@@ -6562,7 +6827,7 @@
       <c r="A128" s="42"/>
       <c r="B128" s="42"/>
       <c r="C128" s="42" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D128" s="41"/>
       <c r="E128" s="42"/>
@@ -6580,7 +6845,7 @@
       <c r="A129" s="42"/>
       <c r="B129" s="42"/>
       <c r="C129" s="42" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D129" s="41"/>
       <c r="E129" s="42"/>
@@ -6598,7 +6863,7 @@
       <c r="A130" s="42"/>
       <c r="B130" s="42"/>
       <c r="C130" s="42" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D130" s="41"/>
       <c r="E130" s="42"/>
@@ -6616,7 +6881,7 @@
       <c r="A131" s="42"/>
       <c r="B131" s="42"/>
       <c r="C131" s="42" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D131" s="41"/>
       <c r="E131" s="42"/>
@@ -6634,7 +6899,7 @@
       <c r="A132" s="42"/>
       <c r="B132" s="42"/>
       <c r="C132" s="42" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D132" s="41"/>
       <c r="E132" s="42"/>
@@ -6652,7 +6917,7 @@
       <c r="A133" s="42"/>
       <c r="B133" s="42"/>
       <c r="C133" s="42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D133" s="41"/>
       <c r="E133" s="42"/>
@@ -6670,7 +6935,7 @@
       <c r="A134" s="42"/>
       <c r="B134" s="42"/>
       <c r="C134" s="42" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D134" s="41"/>
       <c r="E134" s="42"/>
@@ -6688,7 +6953,7 @@
       <c r="A135" s="42"/>
       <c r="B135" s="42"/>
       <c r="C135" s="42" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D135" s="41"/>
       <c r="E135" s="42"/>
@@ -6706,7 +6971,7 @@
       <c r="A136" s="42"/>
       <c r="B136" s="42"/>
       <c r="C136" s="42" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D136" s="41"/>
       <c r="E136" s="42"/>
@@ -6724,7 +6989,7 @@
       <c r="A137" s="42"/>
       <c r="B137" s="42"/>
       <c r="C137" s="42" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D137" s="41"/>
       <c r="E137" s="42"/>
@@ -6742,7 +7007,7 @@
       <c r="A138" s="42"/>
       <c r="B138" s="42"/>
       <c r="C138" s="42" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D138" s="41"/>
       <c r="E138" s="42"/>
@@ -6760,7 +7025,7 @@
       <c r="A139" s="42"/>
       <c r="B139" s="42"/>
       <c r="C139" s="42" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D139" s="41"/>
       <c r="E139" s="42"/>
@@ -6778,7 +7043,7 @@
       <c r="A140" s="42"/>
       <c r="B140" s="42"/>
       <c r="C140" s="42" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D140" s="41"/>
       <c r="E140" s="42"/>
@@ -6796,7 +7061,7 @@
       <c r="A141" s="42"/>
       <c r="B141" s="42"/>
       <c r="C141" s="42" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D141" s="41"/>
       <c r="E141" s="42"/>
@@ -6814,7 +7079,7 @@
       <c r="A142" s="42"/>
       <c r="B142" s="42"/>
       <c r="C142" s="42" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D142" s="41"/>
       <c r="E142" s="42"/>
@@ -6832,7 +7097,7 @@
       <c r="A143" s="42"/>
       <c r="B143" s="42"/>
       <c r="C143" s="42" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D143" s="41"/>
       <c r="E143" s="42"/>
@@ -6850,7 +7115,7 @@
       <c r="A144" s="42"/>
       <c r="B144" s="42"/>
       <c r="C144" s="42" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D144" s="41"/>
       <c r="E144" s="42"/>
@@ -6868,7 +7133,7 @@
       <c r="A145" s="42"/>
       <c r="B145" s="42"/>
       <c r="C145" s="42" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D145" s="41"/>
       <c r="E145" s="42"/>
@@ -6886,7 +7151,7 @@
       <c r="A146" s="42"/>
       <c r="B146" s="42"/>
       <c r="C146" s="42" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D146" s="41"/>
       <c r="E146" s="42"/>
@@ -6904,7 +7169,7 @@
       <c r="A147" s="42"/>
       <c r="B147" s="42"/>
       <c r="C147" s="42" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D147" s="41"/>
       <c r="E147" s="42"/>
@@ -6922,7 +7187,7 @@
       <c r="A148" s="42"/>
       <c r="B148" s="42"/>
       <c r="C148" s="42" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D148" s="41"/>
       <c r="E148" s="42"/>
@@ -6940,7 +7205,7 @@
       <c r="A149" s="42"/>
       <c r="B149" s="42"/>
       <c r="C149" s="42" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D149" s="41"/>
       <c r="E149" s="42"/>
@@ -6958,7 +7223,7 @@
       <c r="A150" s="42"/>
       <c r="B150" s="42"/>
       <c r="C150" s="42" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D150" s="41"/>
       <c r="E150" s="42"/>
@@ -6976,7 +7241,7 @@
       <c r="A151" s="42"/>
       <c r="B151" s="42"/>
       <c r="C151" s="42" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D151" s="41"/>
       <c r="E151" s="42"/>
@@ -6994,7 +7259,7 @@
       <c r="A152" s="42"/>
       <c r="B152" s="42"/>
       <c r="C152" s="42" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D152" s="41"/>
       <c r="E152" s="42"/>
@@ -7012,7 +7277,7 @@
       <c r="A153" s="42"/>
       <c r="B153" s="42"/>
       <c r="C153" s="42" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D153" s="41"/>
       <c r="E153" s="42"/>
@@ -7030,7 +7295,7 @@
       <c r="A154" s="42"/>
       <c r="B154" s="42"/>
       <c r="C154" s="42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D154" s="41"/>
       <c r="E154" s="42"/>
@@ -7048,7 +7313,7 @@
       <c r="A155" s="42"/>
       <c r="B155" s="42"/>
       <c r="C155" s="42" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D155" s="41"/>
       <c r="E155" s="42"/>
@@ -7066,7 +7331,7 @@
       <c r="A156" s="42"/>
       <c r="B156" s="42"/>
       <c r="C156" s="42" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D156" s="41"/>
       <c r="E156" s="42"/>
@@ -7084,7 +7349,7 @@
       <c r="A157" s="42"/>
       <c r="B157" s="42"/>
       <c r="C157" s="42" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D157" s="41"/>
       <c r="E157" s="42"/>
@@ -7102,7 +7367,7 @@
       <c r="A158" s="42"/>
       <c r="B158" s="42"/>
       <c r="C158" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D158" s="41"/>
       <c r="E158" s="42"/>
@@ -7120,7 +7385,7 @@
       <c r="A159" s="42"/>
       <c r="B159" s="42"/>
       <c r="C159" s="42" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D159" s="41"/>
       <c r="E159" s="42"/>
@@ -7138,7 +7403,7 @@
       <c r="A160" s="42"/>
       <c r="B160" s="42"/>
       <c r="C160" s="42" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D160" s="41"/>
       <c r="E160" s="42"/>
@@ -7156,7 +7421,7 @@
       <c r="A161" s="42"/>
       <c r="B161" s="42"/>
       <c r="C161" s="42" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D161" s="41"/>
       <c r="E161" s="42"/>
@@ -7174,7 +7439,7 @@
       <c r="A162" s="42"/>
       <c r="B162" s="42"/>
       <c r="C162" s="42" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D162" s="41"/>
       <c r="E162" s="42"/>
@@ -7192,7 +7457,7 @@
       <c r="A163" s="42"/>
       <c r="B163" s="42"/>
       <c r="C163" s="42" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D163" s="41"/>
       <c r="E163" s="42"/>
@@ -7210,7 +7475,7 @@
       <c r="A164" s="42"/>
       <c r="B164" s="42"/>
       <c r="C164" s="42" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D164" s="41"/>
       <c r="E164" s="42"/>
@@ -7228,7 +7493,7 @@
       <c r="A165" s="42"/>
       <c r="B165" s="42"/>
       <c r="C165" s="42" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D165" s="41"/>
       <c r="E165" s="42"/>
@@ -7246,7 +7511,7 @@
       <c r="A166" s="42"/>
       <c r="B166" s="42"/>
       <c r="C166" s="42" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D166" s="41"/>
       <c r="E166" s="42"/>
@@ -7264,7 +7529,7 @@
       <c r="A167" s="42"/>
       <c r="B167" s="42"/>
       <c r="C167" s="42" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D167" s="41"/>
       <c r="E167" s="42"/>
@@ -7282,7 +7547,7 @@
       <c r="A168" s="42"/>
       <c r="B168" s="42"/>
       <c r="C168" s="42" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D168" s="41"/>
       <c r="E168" s="42"/>
@@ -7300,7 +7565,7 @@
       <c r="A169" s="42"/>
       <c r="B169" s="42"/>
       <c r="C169" s="42" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D169" s="41"/>
       <c r="E169" s="42"/>
@@ -7318,7 +7583,7 @@
       <c r="A170" s="42"/>
       <c r="B170" s="42"/>
       <c r="C170" s="42" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D170" s="41"/>
       <c r="E170" s="42"/>
@@ -7336,7 +7601,7 @@
       <c r="A171" s="42"/>
       <c r="B171" s="42"/>
       <c r="C171" s="42" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D171" s="41"/>
       <c r="E171" s="42"/>
@@ -7354,7 +7619,7 @@
       <c r="A172" s="42"/>
       <c r="B172" s="42"/>
       <c r="C172" s="42" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D172" s="41"/>
       <c r="E172" s="42"/>
@@ -7372,7 +7637,7 @@
       <c r="A173" s="42"/>
       <c r="B173" s="42"/>
       <c r="C173" s="42" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D173" s="41"/>
       <c r="E173" s="42"/>
@@ -7390,7 +7655,7 @@
       <c r="A174" s="42"/>
       <c r="B174" s="42"/>
       <c r="C174" s="42" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D174" s="41"/>
       <c r="E174" s="42"/>
@@ -7408,7 +7673,7 @@
       <c r="A175" s="42"/>
       <c r="B175" s="42"/>
       <c r="C175" s="42" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D175" s="41"/>
       <c r="E175" s="42"/>
@@ -7426,7 +7691,7 @@
       <c r="A176" s="42"/>
       <c r="B176" s="42"/>
       <c r="C176" s="42" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D176" s="41"/>
       <c r="E176" s="42"/>
@@ -7444,7 +7709,7 @@
       <c r="A177" s="42"/>
       <c r="B177" s="42"/>
       <c r="C177" s="42" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D177" s="41"/>
       <c r="E177" s="42"/>
@@ -7462,7 +7727,7 @@
       <c r="A178" s="42"/>
       <c r="B178" s="42"/>
       <c r="C178" s="42" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D178" s="41"/>
       <c r="E178" s="42"/>
@@ -7480,7 +7745,7 @@
       <c r="A179" s="42"/>
       <c r="B179" s="42"/>
       <c r="C179" s="42" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D179" s="41"/>
       <c r="E179" s="42"/>
@@ -7498,7 +7763,7 @@
       <c r="A180" s="42"/>
       <c r="B180" s="42"/>
       <c r="C180" s="42" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="42"/>
@@ -7516,7 +7781,7 @@
       <c r="A181" s="42"/>
       <c r="B181" s="42"/>
       <c r="C181" s="42" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="42"/>
@@ -7534,7 +7799,7 @@
       <c r="A182" s="42"/>
       <c r="B182" s="42"/>
       <c r="C182" s="42" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D182" s="41"/>
       <c r="E182" s="42"/>
@@ -7552,7 +7817,7 @@
       <c r="A183" s="42"/>
       <c r="B183" s="42"/>
       <c r="C183" s="42" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D183" s="41"/>
       <c r="E183" s="42"/>
@@ -7570,7 +7835,7 @@
       <c r="A184" s="42"/>
       <c r="B184" s="42"/>
       <c r="C184" s="42" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D184" s="41"/>
       <c r="E184" s="42"/>
@@ -7588,7 +7853,7 @@
       <c r="A185" s="42"/>
       <c r="B185" s="42"/>
       <c r="C185" s="42" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D185" s="41"/>
       <c r="E185" s="42"/>
@@ -7606,7 +7871,7 @@
       <c r="A186" s="42"/>
       <c r="B186" s="42"/>
       <c r="C186" s="42" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D186" s="41"/>
       <c r="E186" s="42"/>
@@ -7624,7 +7889,7 @@
       <c r="A187" s="42"/>
       <c r="B187" s="42"/>
       <c r="C187" s="42" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D187" s="41"/>
       <c r="E187" s="42"/>
@@ -7642,7 +7907,7 @@
       <c r="A188" s="42"/>
       <c r="B188" s="42"/>
       <c r="C188" s="42" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D188" s="41"/>
       <c r="E188" s="42"/>
@@ -7660,7 +7925,7 @@
       <c r="A189" s="42"/>
       <c r="B189" s="42"/>
       <c r="C189" s="42" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D189" s="41"/>
       <c r="E189" s="42"/>
@@ -7678,7 +7943,7 @@
       <c r="A190" s="42"/>
       <c r="B190" s="42"/>
       <c r="C190" s="42" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D190" s="41"/>
       <c r="E190" s="42"/>
@@ -7696,7 +7961,7 @@
       <c r="A191" s="42"/>
       <c r="B191" s="42"/>
       <c r="C191" s="42" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D191" s="41"/>
       <c r="E191" s="42"/>
@@ -7714,7 +7979,7 @@
       <c r="A192" s="42"/>
       <c r="B192" s="42"/>
       <c r="C192" s="42" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D192" s="41"/>
       <c r="E192" s="42"/>
@@ -7732,7 +7997,7 @@
       <c r="A193" s="42"/>
       <c r="B193" s="42"/>
       <c r="C193" s="42" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D193" s="41"/>
       <c r="E193" s="42"/>
@@ -7750,7 +8015,7 @@
       <c r="A194" s="42"/>
       <c r="B194" s="42"/>
       <c r="C194" s="42" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D194" s="41"/>
       <c r="E194" s="42"/>
@@ -7768,7 +8033,7 @@
       <c r="A195" s="42"/>
       <c r="B195" s="42"/>
       <c r="C195" s="42" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D195" s="41"/>
       <c r="E195" s="42"/>
@@ -7786,7 +8051,7 @@
       <c r="A196" s="42"/>
       <c r="B196" s="42"/>
       <c r="C196" s="42" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D196" s="41"/>
       <c r="E196" s="42"/>
@@ -7804,7 +8069,7 @@
       <c r="A197" s="42"/>
       <c r="B197" s="42"/>
       <c r="C197" s="42" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D197" s="41"/>
       <c r="E197" s="42"/>
@@ -7822,7 +8087,7 @@
       <c r="A198" s="42"/>
       <c r="B198" s="42"/>
       <c r="C198" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D198" s="41"/>
       <c r="E198" s="42"/>
@@ -7840,7 +8105,7 @@
       <c r="A199" s="42"/>
       <c r="B199" s="42"/>
       <c r="C199" s="42" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D199" s="41"/>
       <c r="E199" s="42"/>
@@ -7858,7 +8123,7 @@
       <c r="A200" s="42"/>
       <c r="B200" s="42"/>
       <c r="C200" s="42" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D200" s="41"/>
       <c r="E200" s="42"/>
@@ -7876,7 +8141,7 @@
       <c r="A201" s="42"/>
       <c r="B201" s="42"/>
       <c r="C201" s="42" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D201" s="41"/>
       <c r="E201" s="42"/>
@@ -7894,7 +8159,7 @@
       <c r="A202" s="42"/>
       <c r="B202" s="42"/>
       <c r="C202" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D202" s="41"/>
       <c r="E202" s="42"/>
@@ -7912,7 +8177,7 @@
       <c r="A203" s="42"/>
       <c r="B203" s="42"/>
       <c r="C203" s="42" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D203" s="41"/>
       <c r="E203" s="42"/>
@@ -7930,7 +8195,7 @@
       <c r="A204" s="42"/>
       <c r="B204" s="42"/>
       <c r="C204" s="42" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D204" s="41"/>
       <c r="E204" s="42"/>
@@ -7948,7 +8213,7 @@
       <c r="A205" s="42"/>
       <c r="B205" s="42"/>
       <c r="C205" s="42" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D205" s="41"/>
       <c r="E205" s="42"/>
@@ -7966,7 +8231,7 @@
       <c r="A206" s="42"/>
       <c r="B206" s="42"/>
       <c r="C206" s="42" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D206" s="41"/>
       <c r="E206" s="42"/>
@@ -7984,7 +8249,7 @@
       <c r="A207" s="42"/>
       <c r="B207" s="42"/>
       <c r="C207" s="42" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D207" s="41"/>
       <c r="E207" s="42"/>
@@ -8002,7 +8267,7 @@
       <c r="A208" s="42"/>
       <c r="B208" s="42"/>
       <c r="C208" s="42" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D208" s="41"/>
       <c r="E208" s="42"/>
@@ -8020,7 +8285,7 @@
       <c r="A209" s="42"/>
       <c r="B209" s="42"/>
       <c r="C209" s="42" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D209" s="41"/>
       <c r="E209" s="42"/>
@@ -8038,7 +8303,7 @@
       <c r="A210" s="42"/>
       <c r="B210" s="42"/>
       <c r="C210" s="42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D210" s="41"/>
       <c r="E210" s="42"/>
@@ -8056,7 +8321,7 @@
       <c r="A211" s="42"/>
       <c r="B211" s="42"/>
       <c r="C211" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D211" s="41"/>
       <c r="E211" s="42"/>
@@ -8074,7 +8339,7 @@
       <c r="A212" s="42"/>
       <c r="B212" s="42"/>
       <c r="C212" s="42" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D212" s="41"/>
       <c r="E212" s="42"/>
@@ -8092,7 +8357,7 @@
       <c r="A213" s="42"/>
       <c r="B213" s="42"/>
       <c r="C213" s="42" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D213" s="41"/>
       <c r="E213" s="42"/>
@@ -8110,7 +8375,7 @@
       <c r="A214" s="42"/>
       <c r="B214" s="42"/>
       <c r="C214" s="42" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D214" s="41"/>
       <c r="E214" s="42"/>
@@ -8128,7 +8393,7 @@
       <c r="A215" s="42"/>
       <c r="B215" s="42"/>
       <c r="C215" s="42" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D215" s="41"/>
       <c r="E215" s="42"/>
@@ -8146,7 +8411,7 @@
       <c r="A216" s="42"/>
       <c r="B216" s="42"/>
       <c r="C216" s="42" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D216" s="41"/>
       <c r="E216" s="42"/>
@@ -8164,7 +8429,7 @@
       <c r="A217" s="42"/>
       <c r="B217" s="42"/>
       <c r="C217" s="42" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D217" s="41"/>
       <c r="E217" s="42"/>
@@ -8182,7 +8447,7 @@
       <c r="A218" s="42"/>
       <c r="B218" s="42"/>
       <c r="C218" s="42" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D218" s="41"/>
       <c r="E218" s="42"/>
@@ -8200,7 +8465,7 @@
       <c r="A219" s="42"/>
       <c r="B219" s="42"/>
       <c r="C219" s="42" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D219" s="41"/>
       <c r="E219" s="42"/>
@@ -8218,7 +8483,7 @@
       <c r="A220" s="42"/>
       <c r="B220" s="42"/>
       <c r="C220" s="42" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D220" s="41"/>
       <c r="E220" s="42"/>
@@ -8236,7 +8501,7 @@
       <c r="A221" s="42"/>
       <c r="B221" s="42"/>
       <c r="C221" s="42" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D221" s="41"/>
       <c r="E221" s="42"/>
@@ -8254,7 +8519,7 @@
       <c r="A222" s="42"/>
       <c r="B222" s="42"/>
       <c r="C222" s="42" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D222" s="41"/>
       <c r="E222" s="42"/>
@@ -8272,7 +8537,7 @@
       <c r="A223" s="42"/>
       <c r="B223" s="42"/>
       <c r="C223" s="42" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D223" s="41"/>
       <c r="E223" s="42"/>
@@ -8290,7 +8555,7 @@
       <c r="A224" s="42"/>
       <c r="B224" s="42"/>
       <c r="C224" s="42" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D224" s="41"/>
       <c r="E224" s="42"/>
@@ -8308,7 +8573,7 @@
       <c r="A225" s="42"/>
       <c r="B225" s="42"/>
       <c r="C225" s="42" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D225" s="41"/>
       <c r="E225" s="42"/>
@@ -8326,7 +8591,7 @@
       <c r="A226" s="42"/>
       <c r="B226" s="42"/>
       <c r="C226" s="42" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D226" s="41"/>
       <c r="E226" s="42"/>
@@ -8344,7 +8609,7 @@
       <c r="A227" s="42"/>
       <c r="B227" s="42"/>
       <c r="C227" s="42" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D227" s="41"/>
       <c r="E227" s="42"/>
@@ -8362,7 +8627,7 @@
       <c r="A228" s="42"/>
       <c r="B228" s="42"/>
       <c r="C228" s="42" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D228" s="41"/>
       <c r="E228" s="42"/>
@@ -8380,7 +8645,7 @@
       <c r="A229" s="42"/>
       <c r="B229" s="42"/>
       <c r="C229" s="42" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D229" s="41"/>
       <c r="E229" s="42"/>
@@ -8398,7 +8663,7 @@
       <c r="A230" s="42"/>
       <c r="B230" s="42"/>
       <c r="C230" s="42" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D230" s="41"/>
       <c r="E230" s="42"/>
@@ -8416,7 +8681,7 @@
       <c r="A231" s="42"/>
       <c r="B231" s="42"/>
       <c r="C231" s="42" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D231" s="41"/>
       <c r="E231" s="42"/>
@@ -8434,7 +8699,7 @@
       <c r="A232" s="42"/>
       <c r="B232" s="42"/>
       <c r="C232" s="42" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D232" s="41"/>
       <c r="E232" s="42"/>
@@ -8452,7 +8717,7 @@
       <c r="A233" s="42"/>
       <c r="B233" s="42"/>
       <c r="C233" s="42" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D233" s="41"/>
       <c r="E233" s="42"/>
@@ -8470,7 +8735,7 @@
       <c r="A234" s="42"/>
       <c r="B234" s="42"/>
       <c r="C234" s="42" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D234" s="41"/>
       <c r="E234" s="42"/>
@@ -8488,7 +8753,7 @@
       <c r="A235" s="42"/>
       <c r="B235" s="42"/>
       <c r="C235" s="42" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D235" s="41"/>
       <c r="E235" s="42"/>
@@ -8506,7 +8771,7 @@
       <c r="A236" s="42"/>
       <c r="B236" s="42"/>
       <c r="C236" s="42" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D236" s="41"/>
       <c r="E236" s="42"/>
@@ -8524,7 +8789,7 @@
       <c r="A237" s="42"/>
       <c r="B237" s="42"/>
       <c r="C237" s="42" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D237" s="41"/>
       <c r="E237" s="42"/>
@@ -8542,7 +8807,7 @@
       <c r="A238" s="42"/>
       <c r="B238" s="42"/>
       <c r="C238" s="42" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D238" s="41"/>
       <c r="E238" s="42"/>
@@ -8560,7 +8825,7 @@
       <c r="A239" s="42"/>
       <c r="B239" s="42"/>
       <c r="C239" s="42" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D239" s="41"/>
       <c r="E239" s="42"/>
@@ -8578,7 +8843,7 @@
       <c r="A240" s="42"/>
       <c r="B240" s="42"/>
       <c r="C240" s="42" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D240" s="41"/>
       <c r="E240" s="42"/>
@@ -8596,7 +8861,7 @@
       <c r="A241" s="42"/>
       <c r="B241" s="42"/>
       <c r="C241" s="42" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D241" s="41"/>
       <c r="E241" s="42"/>
@@ -8614,7 +8879,7 @@
       <c r="A242" s="42"/>
       <c r="B242" s="42"/>
       <c r="C242" s="42" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D242" s="41"/>
       <c r="E242" s="42"/>
@@ -8632,7 +8897,7 @@
       <c r="A243" s="42"/>
       <c r="B243" s="42"/>
       <c r="C243" s="42" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D243" s="41"/>
       <c r="E243" s="42"/>
@@ -8650,7 +8915,7 @@
       <c r="A244" s="42"/>
       <c r="B244" s="42"/>
       <c r="C244" s="42" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D244" s="41"/>
       <c r="E244" s="42"/>
@@ -8668,7 +8933,7 @@
       <c r="A245" s="42"/>
       <c r="B245" s="42"/>
       <c r="C245" s="42" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D245" s="41"/>
       <c r="E245" s="42"/>
@@ -8686,7 +8951,7 @@
       <c r="A246" s="42"/>
       <c r="B246" s="42"/>
       <c r="C246" s="42" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D246" s="41"/>
       <c r="E246" s="42"/>
@@ -8704,7 +8969,7 @@
       <c r="A247" s="42"/>
       <c r="B247" s="42"/>
       <c r="C247" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D247" s="41"/>
       <c r="E247" s="42"/>
@@ -8722,7 +8987,7 @@
       <c r="A248" s="42"/>
       <c r="B248" s="42"/>
       <c r="C248" s="42" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D248" s="41"/>
       <c r="E248" s="42"/>
@@ -8740,7 +9005,7 @@
       <c r="A249" s="42"/>
       <c r="B249" s="42"/>
       <c r="C249" s="42" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D249" s="41"/>
       <c r="E249" s="42"/>
@@ -8758,7 +9023,7 @@
       <c r="A250" s="42"/>
       <c r="B250" s="42"/>
       <c r="C250" s="42" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D250" s="41"/>
       <c r="E250" s="42"/>
@@ -8776,7 +9041,7 @@
       <c r="A251" s="42"/>
       <c r="B251" s="42"/>
       <c r="C251" s="42" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D251" s="41"/>
       <c r="E251" s="42"/>
@@ -8794,7 +9059,7 @@
       <c r="A252" s="42"/>
       <c r="B252" s="42"/>
       <c r="C252" s="42" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D252" s="41"/>
       <c r="E252" s="42"/>
@@ -8812,7 +9077,7 @@
       <c r="A253" s="42"/>
       <c r="B253" s="42"/>
       <c r="C253" s="42" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D253" s="41"/>
       <c r="E253" s="42"/>
@@ -8830,7 +9095,7 @@
       <c r="A254" s="42"/>
       <c r="B254" s="42"/>
       <c r="C254" s="42" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D254" s="41"/>
       <c r="E254" s="42"/>
@@ -8848,7 +9113,7 @@
       <c r="A255" s="42"/>
       <c r="B255" s="44"/>
       <c r="C255" s="44" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D255" s="41"/>
       <c r="E255" s="42"/>
@@ -8866,7 +9131,7 @@
       <c r="A256" s="42"/>
       <c r="B256" s="44"/>
       <c r="C256" s="44" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D256" s="41"/>
       <c r="E256" s="42"/>

--- a/libs/ui/src/lib/assets/templates/import-movie-template-admin.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-movie-template-admin.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="520">
   <si>
     <t xml:space="preserve">Movies Import (Metadata)</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">Teaser link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved territories (lite – festival)</t>
   </si>
   <si>
     <t xml:space="preserve">Scoring</t>
@@ -2205,9 +2208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269360</xdr:colOff>
+      <xdr:colOff>1269000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>317160</xdr:rowOff>
+      <xdr:rowOff>316800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2217,7 +2220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851560" cy="12947040"/>
+          <a:ext cx="11851200" cy="12946680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2250,9 +2253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269360</xdr:colOff>
+      <xdr:colOff>1269000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>317160</xdr:rowOff>
+      <xdr:rowOff>316800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2262,7 +2265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851560" cy="12947040"/>
+          <a:ext cx="11851200" cy="12946680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2295,9 +2298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269360</xdr:colOff>
+      <xdr:colOff>1269000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>317160</xdr:rowOff>
+      <xdr:rowOff>316800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2307,7 +2310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851560" cy="12947040"/>
+          <a:ext cx="11851200" cy="12946680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2339,14 +2342,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR1048576"/>
+  <dimension ref="A1:AS1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="AL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AL1" activeCellId="0" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AR14" activeCellId="0" sqref="A1:AR14"/>
+      <selection pane="bottomRight" activeCell="AN17" activeCellId="0" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2870,6 +2873,7 @@
       <c r="AP11" s="25"/>
       <c r="AQ11" s="25"/>
       <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -3123,6 +3127,9 @@
       </c>
       <c r="AR14" s="38" t="s">
         <v>72</v>
+      </c>
+      <c r="AS14" s="38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4120,7 +4127,7 @@
     <mergeCell ref="U11:Z11"/>
     <mergeCell ref="AA11:AE11"/>
     <mergeCell ref="AF11:AN11"/>
-    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AO11:AS11"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4141,7 +4148,7 @@
   <dimension ref="A1:N257"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="A1:AR14 E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4156,406 +4163,406 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L2" s="42" t="n">
         <v>1.33</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L3" s="42" t="n">
         <v>1.37</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L4" s="42" t="n">
         <v>1.66</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K5" s="42"/>
       <c r="L5" s="42" t="n">
         <v>1.77</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="42" t="n">
         <v>1.85</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N7" s="42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N8" s="42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
@@ -4564,23 +4571,23 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12" s="42"/>
@@ -4589,23 +4596,23 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
@@ -4614,23 +4621,23 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
@@ -4639,23 +4646,23 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
@@ -4664,16 +4671,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -4687,14 +4694,14 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -4708,14 +4715,14 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -4729,14 +4736,14 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
@@ -4750,14 +4757,14 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
@@ -4773,10 +4780,10 @@
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
@@ -4792,10 +4799,10 @@
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -4811,11 +4818,11 @@
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
@@ -4831,11 +4838,11 @@
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
@@ -4851,11 +4858,11 @@
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -4871,11 +4878,11 @@
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -4891,11 +4898,11 @@
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -4911,11 +4918,11 @@
       <c r="A28" s="42"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -4931,11 +4938,11 @@
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -4951,11 +4958,11 @@
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -4971,11 +4978,11 @@
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -4991,11 +4998,11 @@
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -5011,11 +5018,11 @@
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -5031,11 +5038,11 @@
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -5051,11 +5058,11 @@
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
@@ -5071,11 +5078,11 @@
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -5091,11 +5098,11 @@
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="42" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -5111,11 +5118,11 @@
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -5131,11 +5138,11 @@
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="42" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -5151,11 +5158,11 @@
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
@@ -5171,11 +5178,11 @@
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="42" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
@@ -5191,11 +5198,11 @@
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -5211,11 +5218,11 @@
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D43" s="41"/>
       <c r="E43" s="42" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -5231,11 +5238,11 @@
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
@@ -5251,11 +5258,11 @@
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="42" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
@@ -5271,11 +5278,11 @@
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
@@ -5291,11 +5298,11 @@
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -5311,11 +5318,11 @@
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -5331,11 +5338,11 @@
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -5351,11 +5358,11 @@
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -5371,11 +5378,11 @@
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -5391,11 +5398,11 @@
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
@@ -5411,11 +5418,11 @@
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -5431,11 +5438,11 @@
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D54" s="41"/>
       <c r="E54" s="42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -5451,11 +5458,11 @@
       <c r="A55" s="42"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -5471,11 +5478,11 @@
       <c r="A56" s="42"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -5491,11 +5498,11 @@
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -5511,11 +5518,11 @@
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D58" s="41"/>
       <c r="E58" s="42" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
@@ -5531,11 +5538,11 @@
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
@@ -5551,11 +5558,11 @@
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
@@ -5571,11 +5578,11 @@
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -5591,11 +5598,11 @@
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
@@ -5611,11 +5618,11 @@
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="42" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
@@ -5631,11 +5638,11 @@
       <c r="A64" s="42"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="42" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
@@ -5651,11 +5658,11 @@
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D65" s="41"/>
       <c r="E65" s="42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
@@ -5671,11 +5678,11 @@
       <c r="A66" s="42"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
@@ -5691,11 +5698,11 @@
       <c r="A67" s="42"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="42" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
@@ -5711,11 +5718,11 @@
       <c r="A68" s="42"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
@@ -5731,11 +5738,11 @@
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
@@ -5751,11 +5758,11 @@
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D70" s="41"/>
       <c r="E70" s="42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
@@ -5771,11 +5778,11 @@
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="42" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
@@ -5791,11 +5798,11 @@
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D72" s="41"/>
       <c r="E72" s="42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
@@ -5811,11 +5818,11 @@
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D73" s="41"/>
       <c r="E73" s="42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
@@ -5831,11 +5838,11 @@
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D74" s="41"/>
       <c r="E74" s="42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
@@ -5851,11 +5858,11 @@
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D75" s="41"/>
       <c r="E75" s="42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
@@ -5871,11 +5878,11 @@
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D76" s="41"/>
       <c r="E76" s="42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
@@ -5891,11 +5898,11 @@
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D77" s="41"/>
       <c r="E77" s="42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
@@ -5911,11 +5918,11 @@
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D78" s="41"/>
       <c r="E78" s="42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
@@ -5931,11 +5938,11 @@
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="42" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="42" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
@@ -5951,11 +5958,11 @@
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
       <c r="C80" s="42" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
@@ -5971,11 +5978,11 @@
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
@@ -5991,11 +5998,11 @@
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
       <c r="C82" s="42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D82" s="41"/>
       <c r="E82" s="42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
@@ -6011,11 +6018,11 @@
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
@@ -6031,11 +6038,11 @@
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="42" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="42" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
@@ -6051,11 +6058,11 @@
       <c r="A85" s="42"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
@@ -6071,7 +6078,7 @@
       <c r="A86" s="42"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="42"/>
@@ -6089,7 +6096,7 @@
       <c r="A87" s="42"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="42"/>
@@ -6107,7 +6114,7 @@
       <c r="A88" s="42"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="42"/>
@@ -6125,7 +6132,7 @@
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D89" s="41"/>
       <c r="E89" s="42"/>
@@ -6143,7 +6150,7 @@
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D90" s="41"/>
       <c r="E90" s="42"/>
@@ -6161,7 +6168,7 @@
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="42"/>
@@ -6179,7 +6186,7 @@
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D92" s="41"/>
       <c r="E92" s="42"/>
@@ -6197,7 +6204,7 @@
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D93" s="41"/>
       <c r="E93" s="42"/>
@@ -6215,7 +6222,7 @@
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D94" s="41"/>
       <c r="E94" s="42"/>
@@ -6233,7 +6240,7 @@
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D95" s="41"/>
       <c r="E95" s="42"/>
@@ -6251,7 +6258,7 @@
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D96" s="41"/>
       <c r="E96" s="42"/>
@@ -6269,7 +6276,7 @@
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D97" s="41"/>
       <c r="E97" s="42"/>
@@ -6287,7 +6294,7 @@
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D98" s="41"/>
       <c r="E98" s="42"/>
@@ -6305,7 +6312,7 @@
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="42"/>
@@ -6323,7 +6330,7 @@
       <c r="A100" s="42"/>
       <c r="B100" s="42"/>
       <c r="C100" s="42" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D100" s="41"/>
       <c r="E100" s="42"/>
@@ -6341,7 +6348,7 @@
       <c r="A101" s="42"/>
       <c r="B101" s="42"/>
       <c r="C101" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D101" s="41"/>
       <c r="E101" s="42"/>
@@ -6359,7 +6366,7 @@
       <c r="A102" s="42"/>
       <c r="B102" s="42"/>
       <c r="C102" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D102" s="41"/>
       <c r="E102" s="42"/>
@@ -6377,7 +6384,7 @@
       <c r="A103" s="42"/>
       <c r="B103" s="42"/>
       <c r="C103" s="42" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D103" s="41"/>
       <c r="E103" s="42"/>
@@ -6395,7 +6402,7 @@
       <c r="A104" s="42"/>
       <c r="B104" s="42"/>
       <c r="C104" s="42" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D104" s="41"/>
       <c r="E104" s="42"/>
@@ -6413,7 +6420,7 @@
       <c r="A105" s="42"/>
       <c r="B105" s="42"/>
       <c r="C105" s="42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D105" s="41"/>
       <c r="E105" s="42"/>
@@ -6431,7 +6438,7 @@
       <c r="A106" s="42"/>
       <c r="B106" s="42"/>
       <c r="C106" s="42" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D106" s="41"/>
       <c r="E106" s="42"/>
@@ -6449,7 +6456,7 @@
       <c r="A107" s="42"/>
       <c r="B107" s="42"/>
       <c r="C107" s="42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D107" s="41"/>
       <c r="E107" s="42"/>
@@ -6467,7 +6474,7 @@
       <c r="A108" s="42"/>
       <c r="B108" s="42"/>
       <c r="C108" s="42" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D108" s="41"/>
       <c r="E108" s="42"/>
@@ -6485,7 +6492,7 @@
       <c r="A109" s="42"/>
       <c r="B109" s="42"/>
       <c r="C109" s="42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D109" s="41"/>
       <c r="E109" s="42"/>
@@ -6503,7 +6510,7 @@
       <c r="A110" s="42"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D110" s="41"/>
       <c r="E110" s="42"/>
@@ -6521,7 +6528,7 @@
       <c r="A111" s="42"/>
       <c r="B111" s="42"/>
       <c r="C111" s="42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D111" s="41"/>
       <c r="E111" s="42"/>
@@ -6539,7 +6546,7 @@
       <c r="A112" s="42"/>
       <c r="B112" s="42"/>
       <c r="C112" s="42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D112" s="41"/>
       <c r="E112" s="42"/>
@@ -6557,7 +6564,7 @@
       <c r="A113" s="42"/>
       <c r="B113" s="42"/>
       <c r="C113" s="42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D113" s="41"/>
       <c r="E113" s="42"/>
@@ -6575,7 +6582,7 @@
       <c r="A114" s="42"/>
       <c r="B114" s="42"/>
       <c r="C114" s="42" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D114" s="41"/>
       <c r="E114" s="42"/>
@@ -6593,7 +6600,7 @@
       <c r="A115" s="42"/>
       <c r="B115" s="42"/>
       <c r="C115" s="42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D115" s="41"/>
       <c r="E115" s="42"/>
@@ -6611,7 +6618,7 @@
       <c r="A116" s="42"/>
       <c r="B116" s="42"/>
       <c r="C116" s="42" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D116" s="41"/>
       <c r="E116" s="42"/>
@@ -6629,7 +6636,7 @@
       <c r="A117" s="42"/>
       <c r="B117" s="42"/>
       <c r="C117" s="42" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="42"/>
@@ -6647,7 +6654,7 @@
       <c r="A118" s="42"/>
       <c r="B118" s="42"/>
       <c r="C118" s="42" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D118" s="41"/>
       <c r="E118" s="42"/>
@@ -6665,7 +6672,7 @@
       <c r="A119" s="42"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D119" s="41"/>
       <c r="E119" s="42"/>
@@ -6683,7 +6690,7 @@
       <c r="A120" s="42"/>
       <c r="B120" s="42"/>
       <c r="C120" s="42" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D120" s="41"/>
       <c r="E120" s="42"/>
@@ -6701,7 +6708,7 @@
       <c r="A121" s="42"/>
       <c r="B121" s="42"/>
       <c r="C121" s="42" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D121" s="41"/>
       <c r="E121" s="42"/>
@@ -6719,7 +6726,7 @@
       <c r="A122" s="42"/>
       <c r="B122" s="42"/>
       <c r="C122" s="42" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D122" s="41"/>
       <c r="E122" s="42"/>
@@ -6737,7 +6744,7 @@
       <c r="A123" s="42"/>
       <c r="B123" s="42"/>
       <c r="C123" s="42" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D123" s="41"/>
       <c r="E123" s="42"/>
@@ -6755,7 +6762,7 @@
       <c r="A124" s="42"/>
       <c r="B124" s="42"/>
       <c r="C124" s="42" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D124" s="41"/>
       <c r="E124" s="42"/>
@@ -6773,7 +6780,7 @@
       <c r="A125" s="42"/>
       <c r="B125" s="42"/>
       <c r="C125" s="42" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D125" s="41"/>
       <c r="E125" s="42"/>
@@ -6791,7 +6798,7 @@
       <c r="A126" s="42"/>
       <c r="B126" s="42"/>
       <c r="C126" s="42" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D126" s="41"/>
       <c r="E126" s="42"/>
@@ -6809,7 +6816,7 @@
       <c r="A127" s="42"/>
       <c r="B127" s="42"/>
       <c r="C127" s="42" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D127" s="41"/>
       <c r="E127" s="42"/>
@@ -6827,7 +6834,7 @@
       <c r="A128" s="42"/>
       <c r="B128" s="42"/>
       <c r="C128" s="42" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D128" s="41"/>
       <c r="E128" s="42"/>
@@ -6845,7 +6852,7 @@
       <c r="A129" s="42"/>
       <c r="B129" s="42"/>
       <c r="C129" s="42" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D129" s="41"/>
       <c r="E129" s="42"/>
@@ -6863,7 +6870,7 @@
       <c r="A130" s="42"/>
       <c r="B130" s="42"/>
       <c r="C130" s="42" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D130" s="41"/>
       <c r="E130" s="42"/>
@@ -6881,7 +6888,7 @@
       <c r="A131" s="42"/>
       <c r="B131" s="42"/>
       <c r="C131" s="42" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D131" s="41"/>
       <c r="E131" s="42"/>
@@ -6899,7 +6906,7 @@
       <c r="A132" s="42"/>
       <c r="B132" s="42"/>
       <c r="C132" s="42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D132" s="41"/>
       <c r="E132" s="42"/>
@@ -6917,7 +6924,7 @@
       <c r="A133" s="42"/>
       <c r="B133" s="42"/>
       <c r="C133" s="42" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D133" s="41"/>
       <c r="E133" s="42"/>
@@ -6935,7 +6942,7 @@
       <c r="A134" s="42"/>
       <c r="B134" s="42"/>
       <c r="C134" s="42" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D134" s="41"/>
       <c r="E134" s="42"/>
@@ -6953,7 +6960,7 @@
       <c r="A135" s="42"/>
       <c r="B135" s="42"/>
       <c r="C135" s="42" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D135" s="41"/>
       <c r="E135" s="42"/>
@@ -6971,7 +6978,7 @@
       <c r="A136" s="42"/>
       <c r="B136" s="42"/>
       <c r="C136" s="42" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D136" s="41"/>
       <c r="E136" s="42"/>
@@ -6989,7 +6996,7 @@
       <c r="A137" s="42"/>
       <c r="B137" s="42"/>
       <c r="C137" s="42" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D137" s="41"/>
       <c r="E137" s="42"/>
@@ -7007,7 +7014,7 @@
       <c r="A138" s="42"/>
       <c r="B138" s="42"/>
       <c r="C138" s="42" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D138" s="41"/>
       <c r="E138" s="42"/>
@@ -7025,7 +7032,7 @@
       <c r="A139" s="42"/>
       <c r="B139" s="42"/>
       <c r="C139" s="42" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D139" s="41"/>
       <c r="E139" s="42"/>
@@ -7043,7 +7050,7 @@
       <c r="A140" s="42"/>
       <c r="B140" s="42"/>
       <c r="C140" s="42" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D140" s="41"/>
       <c r="E140" s="42"/>
@@ -7061,7 +7068,7 @@
       <c r="A141" s="42"/>
       <c r="B141" s="42"/>
       <c r="C141" s="42" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D141" s="41"/>
       <c r="E141" s="42"/>
@@ -7079,7 +7086,7 @@
       <c r="A142" s="42"/>
       <c r="B142" s="42"/>
       <c r="C142" s="42" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D142" s="41"/>
       <c r="E142" s="42"/>
@@ -7097,7 +7104,7 @@
       <c r="A143" s="42"/>
       <c r="B143" s="42"/>
       <c r="C143" s="42" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D143" s="41"/>
       <c r="E143" s="42"/>
@@ -7115,7 +7122,7 @@
       <c r="A144" s="42"/>
       <c r="B144" s="42"/>
       <c r="C144" s="42" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D144" s="41"/>
       <c r="E144" s="42"/>
@@ -7133,7 +7140,7 @@
       <c r="A145" s="42"/>
       <c r="B145" s="42"/>
       <c r="C145" s="42" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D145" s="41"/>
       <c r="E145" s="42"/>
@@ -7151,7 +7158,7 @@
       <c r="A146" s="42"/>
       <c r="B146" s="42"/>
       <c r="C146" s="42" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D146" s="41"/>
       <c r="E146" s="42"/>
@@ -7169,7 +7176,7 @@
       <c r="A147" s="42"/>
       <c r="B147" s="42"/>
       <c r="C147" s="42" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D147" s="41"/>
       <c r="E147" s="42"/>
@@ -7187,7 +7194,7 @@
       <c r="A148" s="42"/>
       <c r="B148" s="42"/>
       <c r="C148" s="42" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D148" s="41"/>
       <c r="E148" s="42"/>
@@ -7205,7 +7212,7 @@
       <c r="A149" s="42"/>
       <c r="B149" s="42"/>
       <c r="C149" s="42" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D149" s="41"/>
       <c r="E149" s="42"/>
@@ -7223,7 +7230,7 @@
       <c r="A150" s="42"/>
       <c r="B150" s="42"/>
       <c r="C150" s="42" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D150" s="41"/>
       <c r="E150" s="42"/>
@@ -7241,7 +7248,7 @@
       <c r="A151" s="42"/>
       <c r="B151" s="42"/>
       <c r="C151" s="42" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D151" s="41"/>
       <c r="E151" s="42"/>
@@ -7259,7 +7266,7 @@
       <c r="A152" s="42"/>
       <c r="B152" s="42"/>
       <c r="C152" s="42" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D152" s="41"/>
       <c r="E152" s="42"/>
@@ -7277,7 +7284,7 @@
       <c r="A153" s="42"/>
       <c r="B153" s="42"/>
       <c r="C153" s="42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D153" s="41"/>
       <c r="E153" s="42"/>
@@ -7295,7 +7302,7 @@
       <c r="A154" s="42"/>
       <c r="B154" s="42"/>
       <c r="C154" s="42" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D154" s="41"/>
       <c r="E154" s="42"/>
@@ -7313,7 +7320,7 @@
       <c r="A155" s="42"/>
       <c r="B155" s="42"/>
       <c r="C155" s="42" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D155" s="41"/>
       <c r="E155" s="42"/>
@@ -7331,7 +7338,7 @@
       <c r="A156" s="42"/>
       <c r="B156" s="42"/>
       <c r="C156" s="42" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D156" s="41"/>
       <c r="E156" s="42"/>
@@ -7349,7 +7356,7 @@
       <c r="A157" s="42"/>
       <c r="B157" s="42"/>
       <c r="C157" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D157" s="41"/>
       <c r="E157" s="42"/>
@@ -7367,7 +7374,7 @@
       <c r="A158" s="42"/>
       <c r="B158" s="42"/>
       <c r="C158" s="42" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D158" s="41"/>
       <c r="E158" s="42"/>
@@ -7385,7 +7392,7 @@
       <c r="A159" s="42"/>
       <c r="B159" s="42"/>
       <c r="C159" s="42" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D159" s="41"/>
       <c r="E159" s="42"/>
@@ -7403,7 +7410,7 @@
       <c r="A160" s="42"/>
       <c r="B160" s="42"/>
       <c r="C160" s="42" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D160" s="41"/>
       <c r="E160" s="42"/>
@@ -7421,7 +7428,7 @@
       <c r="A161" s="42"/>
       <c r="B161" s="42"/>
       <c r="C161" s="42" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D161" s="41"/>
       <c r="E161" s="42"/>
@@ -7439,7 +7446,7 @@
       <c r="A162" s="42"/>
       <c r="B162" s="42"/>
       <c r="C162" s="42" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D162" s="41"/>
       <c r="E162" s="42"/>
@@ -7457,7 +7464,7 @@
       <c r="A163" s="42"/>
       <c r="B163" s="42"/>
       <c r="C163" s="42" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D163" s="41"/>
       <c r="E163" s="42"/>
@@ -7475,7 +7482,7 @@
       <c r="A164" s="42"/>
       <c r="B164" s="42"/>
       <c r="C164" s="42" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D164" s="41"/>
       <c r="E164" s="42"/>
@@ -7493,7 +7500,7 @@
       <c r="A165" s="42"/>
       <c r="B165" s="42"/>
       <c r="C165" s="42" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D165" s="41"/>
       <c r="E165" s="42"/>
@@ -7511,7 +7518,7 @@
       <c r="A166" s="42"/>
       <c r="B166" s="42"/>
       <c r="C166" s="42" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D166" s="41"/>
       <c r="E166" s="42"/>
@@ -7529,7 +7536,7 @@
       <c r="A167" s="42"/>
       <c r="B167" s="42"/>
       <c r="C167" s="42" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D167" s="41"/>
       <c r="E167" s="42"/>
@@ -7547,7 +7554,7 @@
       <c r="A168" s="42"/>
       <c r="B168" s="42"/>
       <c r="C168" s="42" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D168" s="41"/>
       <c r="E168" s="42"/>
@@ -7565,7 +7572,7 @@
       <c r="A169" s="42"/>
       <c r="B169" s="42"/>
       <c r="C169" s="42" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D169" s="41"/>
       <c r="E169" s="42"/>
@@ -7583,7 +7590,7 @@
       <c r="A170" s="42"/>
       <c r="B170" s="42"/>
       <c r="C170" s="42" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D170" s="41"/>
       <c r="E170" s="42"/>
@@ -7601,7 +7608,7 @@
       <c r="A171" s="42"/>
       <c r="B171" s="42"/>
       <c r="C171" s="42" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D171" s="41"/>
       <c r="E171" s="42"/>
@@ -7619,7 +7626,7 @@
       <c r="A172" s="42"/>
       <c r="B172" s="42"/>
       <c r="C172" s="42" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D172" s="41"/>
       <c r="E172" s="42"/>
@@ -7637,7 +7644,7 @@
       <c r="A173" s="42"/>
       <c r="B173" s="42"/>
       <c r="C173" s="42" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D173" s="41"/>
       <c r="E173" s="42"/>
@@ -7655,7 +7662,7 @@
       <c r="A174" s="42"/>
       <c r="B174" s="42"/>
       <c r="C174" s="42" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D174" s="41"/>
       <c r="E174" s="42"/>
@@ -7673,7 +7680,7 @@
       <c r="A175" s="42"/>
       <c r="B175" s="42"/>
       <c r="C175" s="42" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D175" s="41"/>
       <c r="E175" s="42"/>
@@ -7691,7 +7698,7 @@
       <c r="A176" s="42"/>
       <c r="B176" s="42"/>
       <c r="C176" s="42" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D176" s="41"/>
       <c r="E176" s="42"/>
@@ -7709,7 +7716,7 @@
       <c r="A177" s="42"/>
       <c r="B177" s="42"/>
       <c r="C177" s="42" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D177" s="41"/>
       <c r="E177" s="42"/>
@@ -7727,7 +7734,7 @@
       <c r="A178" s="42"/>
       <c r="B178" s="42"/>
       <c r="C178" s="42" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D178" s="41"/>
       <c r="E178" s="42"/>
@@ -7745,7 +7752,7 @@
       <c r="A179" s="42"/>
       <c r="B179" s="42"/>
       <c r="C179" s="42" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D179" s="41"/>
       <c r="E179" s="42"/>
@@ -7763,7 +7770,7 @@
       <c r="A180" s="42"/>
       <c r="B180" s="42"/>
       <c r="C180" s="42" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="42"/>
@@ -7781,7 +7788,7 @@
       <c r="A181" s="42"/>
       <c r="B181" s="42"/>
       <c r="C181" s="42" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="42"/>
@@ -7799,7 +7806,7 @@
       <c r="A182" s="42"/>
       <c r="B182" s="42"/>
       <c r="C182" s="42" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D182" s="41"/>
       <c r="E182" s="42"/>
@@ -7817,7 +7824,7 @@
       <c r="A183" s="42"/>
       <c r="B183" s="42"/>
       <c r="C183" s="42" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D183" s="41"/>
       <c r="E183" s="42"/>
@@ -7835,7 +7842,7 @@
       <c r="A184" s="42"/>
       <c r="B184" s="42"/>
       <c r="C184" s="42" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D184" s="41"/>
       <c r="E184" s="42"/>
@@ -7853,7 +7860,7 @@
       <c r="A185" s="42"/>
       <c r="B185" s="42"/>
       <c r="C185" s="42" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D185" s="41"/>
       <c r="E185" s="42"/>
@@ -7871,7 +7878,7 @@
       <c r="A186" s="42"/>
       <c r="B186" s="42"/>
       <c r="C186" s="42" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D186" s="41"/>
       <c r="E186" s="42"/>
@@ -7889,7 +7896,7 @@
       <c r="A187" s="42"/>
       <c r="B187" s="42"/>
       <c r="C187" s="42" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D187" s="41"/>
       <c r="E187" s="42"/>
@@ -7907,7 +7914,7 @@
       <c r="A188" s="42"/>
       <c r="B188" s="42"/>
       <c r="C188" s="42" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D188" s="41"/>
       <c r="E188" s="42"/>
@@ -7925,7 +7932,7 @@
       <c r="A189" s="42"/>
       <c r="B189" s="42"/>
       <c r="C189" s="42" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D189" s="41"/>
       <c r="E189" s="42"/>
@@ -7943,7 +7950,7 @@
       <c r="A190" s="42"/>
       <c r="B190" s="42"/>
       <c r="C190" s="42" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D190" s="41"/>
       <c r="E190" s="42"/>
@@ -7961,7 +7968,7 @@
       <c r="A191" s="42"/>
       <c r="B191" s="42"/>
       <c r="C191" s="42" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D191" s="41"/>
       <c r="E191" s="42"/>
@@ -7979,7 +7986,7 @@
       <c r="A192" s="42"/>
       <c r="B192" s="42"/>
       <c r="C192" s="42" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D192" s="41"/>
       <c r="E192" s="42"/>
@@ -7997,7 +8004,7 @@
       <c r="A193" s="42"/>
       <c r="B193" s="42"/>
       <c r="C193" s="42" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D193" s="41"/>
       <c r="E193" s="42"/>
@@ -8015,7 +8022,7 @@
       <c r="A194" s="42"/>
       <c r="B194" s="42"/>
       <c r="C194" s="42" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D194" s="41"/>
       <c r="E194" s="42"/>
@@ -8033,7 +8040,7 @@
       <c r="A195" s="42"/>
       <c r="B195" s="42"/>
       <c r="C195" s="42" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D195" s="41"/>
       <c r="E195" s="42"/>
@@ -8051,7 +8058,7 @@
       <c r="A196" s="42"/>
       <c r="B196" s="42"/>
       <c r="C196" s="42" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D196" s="41"/>
       <c r="E196" s="42"/>
@@ -8069,7 +8076,7 @@
       <c r="A197" s="42"/>
       <c r="B197" s="42"/>
       <c r="C197" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D197" s="41"/>
       <c r="E197" s="42"/>
@@ -8087,7 +8094,7 @@
       <c r="A198" s="42"/>
       <c r="B198" s="42"/>
       <c r="C198" s="42" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D198" s="41"/>
       <c r="E198" s="42"/>
@@ -8105,7 +8112,7 @@
       <c r="A199" s="42"/>
       <c r="B199" s="42"/>
       <c r="C199" s="42" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D199" s="41"/>
       <c r="E199" s="42"/>
@@ -8123,7 +8130,7 @@
       <c r="A200" s="42"/>
       <c r="B200" s="42"/>
       <c r="C200" s="42" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D200" s="41"/>
       <c r="E200" s="42"/>
@@ -8141,7 +8148,7 @@
       <c r="A201" s="42"/>
       <c r="B201" s="42"/>
       <c r="C201" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D201" s="41"/>
       <c r="E201" s="42"/>
@@ -8159,7 +8166,7 @@
       <c r="A202" s="42"/>
       <c r="B202" s="42"/>
       <c r="C202" s="42" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D202" s="41"/>
       <c r="E202" s="42"/>
@@ -8177,7 +8184,7 @@
       <c r="A203" s="42"/>
       <c r="B203" s="42"/>
       <c r="C203" s="42" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D203" s="41"/>
       <c r="E203" s="42"/>
@@ -8195,7 +8202,7 @@
       <c r="A204" s="42"/>
       <c r="B204" s="42"/>
       <c r="C204" s="42" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D204" s="41"/>
       <c r="E204" s="42"/>
@@ -8213,7 +8220,7 @@
       <c r="A205" s="42"/>
       <c r="B205" s="42"/>
       <c r="C205" s="42" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D205" s="41"/>
       <c r="E205" s="42"/>
@@ -8231,7 +8238,7 @@
       <c r="A206" s="42"/>
       <c r="B206" s="42"/>
       <c r="C206" s="42" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D206" s="41"/>
       <c r="E206" s="42"/>
@@ -8249,7 +8256,7 @@
       <c r="A207" s="42"/>
       <c r="B207" s="42"/>
       <c r="C207" s="42" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D207" s="41"/>
       <c r="E207" s="42"/>
@@ -8267,7 +8274,7 @@
       <c r="A208" s="42"/>
       <c r="B208" s="42"/>
       <c r="C208" s="42" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D208" s="41"/>
       <c r="E208" s="42"/>
@@ -8285,7 +8292,7 @@
       <c r="A209" s="42"/>
       <c r="B209" s="42"/>
       <c r="C209" s="42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D209" s="41"/>
       <c r="E209" s="42"/>
@@ -8303,7 +8310,7 @@
       <c r="A210" s="42"/>
       <c r="B210" s="42"/>
       <c r="C210" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D210" s="41"/>
       <c r="E210" s="42"/>
@@ -8321,7 +8328,7 @@
       <c r="A211" s="42"/>
       <c r="B211" s="42"/>
       <c r="C211" s="42" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D211" s="41"/>
       <c r="E211" s="42"/>
@@ -8339,7 +8346,7 @@
       <c r="A212" s="42"/>
       <c r="B212" s="42"/>
       <c r="C212" s="42" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D212" s="41"/>
       <c r="E212" s="42"/>
@@ -8357,7 +8364,7 @@
       <c r="A213" s="42"/>
       <c r="B213" s="42"/>
       <c r="C213" s="42" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D213" s="41"/>
       <c r="E213" s="42"/>
@@ -8375,7 +8382,7 @@
       <c r="A214" s="42"/>
       <c r="B214" s="42"/>
       <c r="C214" s="42" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D214" s="41"/>
       <c r="E214" s="42"/>
@@ -8393,7 +8400,7 @@
       <c r="A215" s="42"/>
       <c r="B215" s="42"/>
       <c r="C215" s="42" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D215" s="41"/>
       <c r="E215" s="42"/>
@@ -8411,7 +8418,7 @@
       <c r="A216" s="42"/>
       <c r="B216" s="42"/>
       <c r="C216" s="42" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D216" s="41"/>
       <c r="E216" s="42"/>
@@ -8429,7 +8436,7 @@
       <c r="A217" s="42"/>
       <c r="B217" s="42"/>
       <c r="C217" s="42" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D217" s="41"/>
       <c r="E217" s="42"/>
@@ -8447,7 +8454,7 @@
       <c r="A218" s="42"/>
       <c r="B218" s="42"/>
       <c r="C218" s="42" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D218" s="41"/>
       <c r="E218" s="42"/>
@@ -8465,7 +8472,7 @@
       <c r="A219" s="42"/>
       <c r="B219" s="42"/>
       <c r="C219" s="42" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D219" s="41"/>
       <c r="E219" s="42"/>
@@ -8483,7 +8490,7 @@
       <c r="A220" s="42"/>
       <c r="B220" s="42"/>
       <c r="C220" s="42" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D220" s="41"/>
       <c r="E220" s="42"/>
@@ -8501,7 +8508,7 @@
       <c r="A221" s="42"/>
       <c r="B221" s="42"/>
       <c r="C221" s="42" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D221" s="41"/>
       <c r="E221" s="42"/>
@@ -8519,7 +8526,7 @@
       <c r="A222" s="42"/>
       <c r="B222" s="42"/>
       <c r="C222" s="42" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D222" s="41"/>
       <c r="E222" s="42"/>
@@ -8537,7 +8544,7 @@
       <c r="A223" s="42"/>
       <c r="B223" s="42"/>
       <c r="C223" s="42" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D223" s="41"/>
       <c r="E223" s="42"/>
@@ -8555,7 +8562,7 @@
       <c r="A224" s="42"/>
       <c r="B224" s="42"/>
       <c r="C224" s="42" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D224" s="41"/>
       <c r="E224" s="42"/>
@@ -8573,7 +8580,7 @@
       <c r="A225" s="42"/>
       <c r="B225" s="42"/>
       <c r="C225" s="42" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D225" s="41"/>
       <c r="E225" s="42"/>
@@ -8591,7 +8598,7 @@
       <c r="A226" s="42"/>
       <c r="B226" s="42"/>
       <c r="C226" s="42" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D226" s="41"/>
       <c r="E226" s="42"/>
@@ -8609,7 +8616,7 @@
       <c r="A227" s="42"/>
       <c r="B227" s="42"/>
       <c r="C227" s="42" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D227" s="41"/>
       <c r="E227" s="42"/>
@@ -8627,7 +8634,7 @@
       <c r="A228" s="42"/>
       <c r="B228" s="42"/>
       <c r="C228" s="42" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D228" s="41"/>
       <c r="E228" s="42"/>
@@ -8645,7 +8652,7 @@
       <c r="A229" s="42"/>
       <c r="B229" s="42"/>
       <c r="C229" s="42" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D229" s="41"/>
       <c r="E229" s="42"/>
@@ -8663,7 +8670,7 @@
       <c r="A230" s="42"/>
       <c r="B230" s="42"/>
       <c r="C230" s="42" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D230" s="41"/>
       <c r="E230" s="42"/>
@@ -8681,7 +8688,7 @@
       <c r="A231" s="42"/>
       <c r="B231" s="42"/>
       <c r="C231" s="42" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D231" s="41"/>
       <c r="E231" s="42"/>
@@ -8699,7 +8706,7 @@
       <c r="A232" s="42"/>
       <c r="B232" s="42"/>
       <c r="C232" s="42" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D232" s="41"/>
       <c r="E232" s="42"/>
@@ -8717,7 +8724,7 @@
       <c r="A233" s="42"/>
       <c r="B233" s="42"/>
       <c r="C233" s="42" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D233" s="41"/>
       <c r="E233" s="42"/>
@@ -8735,7 +8742,7 @@
       <c r="A234" s="42"/>
       <c r="B234" s="42"/>
       <c r="C234" s="42" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D234" s="41"/>
       <c r="E234" s="42"/>
@@ -8753,7 +8760,7 @@
       <c r="A235" s="42"/>
       <c r="B235" s="42"/>
       <c r="C235" s="42" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D235" s="41"/>
       <c r="E235" s="42"/>
@@ -8771,7 +8778,7 @@
       <c r="A236" s="42"/>
       <c r="B236" s="42"/>
       <c r="C236" s="42" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D236" s="41"/>
       <c r="E236" s="42"/>
@@ -8789,7 +8796,7 @@
       <c r="A237" s="42"/>
       <c r="B237" s="42"/>
       <c r="C237" s="42" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D237" s="41"/>
       <c r="E237" s="42"/>
@@ -8807,7 +8814,7 @@
       <c r="A238" s="42"/>
       <c r="B238" s="42"/>
       <c r="C238" s="42" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D238" s="41"/>
       <c r="E238" s="42"/>
@@ -8825,7 +8832,7 @@
       <c r="A239" s="42"/>
       <c r="B239" s="42"/>
       <c r="C239" s="42" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D239" s="41"/>
       <c r="E239" s="42"/>
@@ -8843,7 +8850,7 @@
       <c r="A240" s="42"/>
       <c r="B240" s="42"/>
       <c r="C240" s="42" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D240" s="41"/>
       <c r="E240" s="42"/>
@@ -8861,7 +8868,7 @@
       <c r="A241" s="42"/>
       <c r="B241" s="42"/>
       <c r="C241" s="42" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D241" s="41"/>
       <c r="E241" s="42"/>
@@ -8879,7 +8886,7 @@
       <c r="A242" s="42"/>
       <c r="B242" s="42"/>
       <c r="C242" s="42" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D242" s="41"/>
       <c r="E242" s="42"/>
@@ -8897,7 +8904,7 @@
       <c r="A243" s="42"/>
       <c r="B243" s="42"/>
       <c r="C243" s="42" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D243" s="41"/>
       <c r="E243" s="42"/>
@@ -8915,7 +8922,7 @@
       <c r="A244" s="42"/>
       <c r="B244" s="42"/>
       <c r="C244" s="42" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D244" s="41"/>
       <c r="E244" s="42"/>
@@ -8933,7 +8940,7 @@
       <c r="A245" s="42"/>
       <c r="B245" s="42"/>
       <c r="C245" s="42" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D245" s="41"/>
       <c r="E245" s="42"/>
@@ -8951,7 +8958,7 @@
       <c r="A246" s="42"/>
       <c r="B246" s="42"/>
       <c r="C246" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D246" s="41"/>
       <c r="E246" s="42"/>
@@ -8969,7 +8976,7 @@
       <c r="A247" s="42"/>
       <c r="B247" s="42"/>
       <c r="C247" s="42" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D247" s="41"/>
       <c r="E247" s="42"/>
@@ -8987,7 +8994,7 @@
       <c r="A248" s="42"/>
       <c r="B248" s="42"/>
       <c r="C248" s="42" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D248" s="41"/>
       <c r="E248" s="42"/>
@@ -9005,7 +9012,7 @@
       <c r="A249" s="42"/>
       <c r="B249" s="42"/>
       <c r="C249" s="42" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D249" s="41"/>
       <c r="E249" s="42"/>
@@ -9023,7 +9030,7 @@
       <c r="A250" s="42"/>
       <c r="B250" s="42"/>
       <c r="C250" s="42" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D250" s="41"/>
       <c r="E250" s="42"/>
@@ -9041,7 +9048,7 @@
       <c r="A251" s="42"/>
       <c r="B251" s="42"/>
       <c r="C251" s="42" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D251" s="41"/>
       <c r="E251" s="42"/>
@@ -9059,7 +9066,7 @@
       <c r="A252" s="42"/>
       <c r="B252" s="42"/>
       <c r="C252" s="42" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D252" s="41"/>
       <c r="E252" s="42"/>
@@ -9077,7 +9084,7 @@
       <c r="A253" s="42"/>
       <c r="B253" s="42"/>
       <c r="C253" s="42" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D253" s="41"/>
       <c r="E253" s="42"/>
@@ -9095,7 +9102,7 @@
       <c r="A254" s="42"/>
       <c r="B254" s="42"/>
       <c r="C254" s="42" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D254" s="41"/>
       <c r="E254" s="42"/>
@@ -9113,7 +9120,7 @@
       <c r="A255" s="42"/>
       <c r="B255" s="44"/>
       <c r="C255" s="44" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D255" s="41"/>
       <c r="E255" s="42"/>
@@ -9131,7 +9138,7 @@
       <c r="A256" s="42"/>
       <c r="B256" s="44"/>
       <c r="C256" s="44" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D256" s="41"/>
       <c r="E256" s="42"/>

--- a/libs/ui/src/lib/assets/templates/import-movie-template-admin.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-movie-template-admin.xlsx
@@ -24,27 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="518">
-  <si>
-    <t xml:space="preserve">Film Library Metadata</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="520">
+  <si>
+    <t xml:space="preserve">Movies Import (Metadata)</t>
   </si>
   <si>
     <t xml:space="preserve">Instructions:</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Yellow cells are mandatory information. Blue cells are complementary information. Green cells are for links or files.</t>
+    <t xml:space="preserve">1) Yellow cells are mandatory information. Blue cells are complementary information. Green cells are for links or files. Purple cells ar for internal reference.</t>
   </si>
   <si>
     <t xml:space="preserve">2) If you have multiple answers for one cell, use semicolon as separator (;)</t>
   </si>
   <si>
-    <t xml:space="preserve">3) The information in parentheses indicate the format to comply with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) When a list of choice is provided on top of a column, please use it to fill in the cells in that column. (That is why there is a second tab to this Excel. Please do not mind this "Pre-defined lists" tab when you fill in your film information)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5) When a word is in square brackets ([country] for example), it means that it needs to fit a list of choice pre-defined (in the "Pre-defined lists" tab).</t>
+    <t xml:space="preserve">3) The information in parenthesis indicateS the format to comply with.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) When a list of choice is provided on top of a column, please use it to fill in the cells in that column. (That is why there is a second tab to this Excel. Please do not modify the "Pre-defined lists" tab when you fill in your film information)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) When a word is in square brackets ([country] for example), it means that it needs to fit the corresponding pre-defined list of choice (in the "Pre-defined lists" tab).</t>
   </si>
   <si>
     <t xml:space="preserve">MAIN INFORMATION</t>
@@ -65,10 +65,13 @@
     <t xml:space="preserve">PROMOTIONAL ELEMENTS</t>
   </si>
   <si>
-    <t xml:space="preserve">FACULTATIF POUR CASCADE8 ADMIN</t>
+    <t xml:space="preserve">ADMIN AREA</t>
   </si>
   <si>
     <t xml:space="preserve">List of available Content type below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of available Production status below</t>
   </si>
   <si>
     <t xml:space="preserve">List of available Territories below</t>
@@ -127,40 +130,8 @@
 (list of choice)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Director(s)
-(First Name, Surname, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Filmography</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">Director(s)
+(First Name, Surname, Filmography)</t>
   </si>
   <si>
     <t xml:space="preserve">Countries of Origin
@@ -216,35 +187,14 @@
 (First Name, Last Name, [role])</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Budget </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">range
+    <t xml:space="preserve">Budget range
 (list of choices)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Worldwide Box office (unit, number)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Box office (country, unit , number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worldwide box-office (unit, number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National box-office ([country], unit, number)</t>
   </si>
   <si>
     <t xml:space="preserve">Quotas
@@ -273,59 +223,16 @@
 (list of choice)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Available </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">version</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(s)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(language, 
-[original, ] [dubbed,] [subtitle,] [caption, ]</t>
-    </r>
+    <t xml:space="preserve">Available version(s)
+([language], 
+original/dubbed/subtitle/caption)</t>
   </si>
   <si>
     <t xml:space="preserve">Poster
 (image URL)</t>
   </si>
   <si>
-    <t xml:space="preserve">Image bannière (rectangulaire) 
+    <t xml:space="preserve">Banner image (landscape mode)
 (image URL)</t>
   </si>
   <si>
@@ -350,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">Teaser link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved territories (lite – festival)</t>
   </si>
   <si>
     <t xml:space="preserve">Scoring</t>
@@ -1710,7 +1620,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1734,11 +1644,25 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1746,31 +1670,30 @@
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFE2EFD9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1782,25 +1705,32 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <i val="true"/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE2EFD9"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFED7D31"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1813,12 +1743,30 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B183"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1834,8 +1782,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFEEA7B"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -1846,14 +1800,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00864B"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -1929,16 +1877,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left/>
       <right/>
-      <top style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right/>
-      <top/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -2005,139 +1953,131 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2145,19 +2085,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2169,7 +2117,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2201,9 +2149,9 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF00864B"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF8E7CC3"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFE2EFD9"/>
@@ -2211,7 +2159,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0B5394"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFCFE2F3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2223,7 +2171,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFEEA7B"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -2233,11 +2181,11 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF6AA84F"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2260,9 +2208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269720</xdr:colOff>
+      <xdr:colOff>1269000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>317160</xdr:rowOff>
+      <xdr:rowOff>316800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2272,7 +2220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851920" cy="12947040"/>
+          <a:ext cx="11851200" cy="12946680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2305,9 +2253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269720</xdr:colOff>
+      <xdr:colOff>1269000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>317160</xdr:rowOff>
+      <xdr:rowOff>316800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2317,7 +2265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851920" cy="12947040"/>
+          <a:ext cx="11851200" cy="12946680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2350,9 +2298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269720</xdr:colOff>
+      <xdr:colOff>1269000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>317160</xdr:rowOff>
+      <xdr:rowOff>316800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2362,7 +2310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851920" cy="12947040"/>
+          <a:ext cx="11851200" cy="12946680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2394,17 +2342,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW1048576"/>
+  <dimension ref="A1:AS1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="topRight" activeCell="AL1" activeCellId="0" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V45" activeCellId="0" sqref="15:45"/>
+      <selection pane="bottomRight" activeCell="AN17" activeCellId="0" sqref="AN17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.83"/>
@@ -2427,438 +2375,762 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="42" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="42" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="1019" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N1" s="2"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="9"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="9"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="9"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="9"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="9"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="AF9" s="9"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N10" s="2"/>
-      <c r="AE10" s="9"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19" t="s">
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19" t="s">
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19" t="s">
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19" t="s">
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="20" t="s">
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="21" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="G12" s="21" t="s">
+      <c r="E12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="H12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="I12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="J12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="S12" s="21" t="s">
+      <c r="K12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="T12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="V12" s="22" t="s">
+      <c r="U12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="X12" s="21" t="s">
+      <c r="V12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Y12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB12" s="22" t="s">
+      <c r="W12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AC12" s="22" t="s">
+      <c r="Y12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="22" t="s">
+      <c r="AC12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AE12" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="AD12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="N13" s="2"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="23"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="F14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="G14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="H14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="I14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="J14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="K14" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="L14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="M14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="29" t="s">
+      <c r="N14" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="O14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="P14" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="R14" s="29" t="s">
+      <c r="Q14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="S14" s="33" t="s">
+      <c r="R14" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="T14" s="33" t="s">
+      <c r="S14" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="U14" s="32" t="s">
+      <c r="T14" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="V14" s="33" t="s">
+      <c r="U14" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="W14" s="33" t="s">
+      <c r="V14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="X14" s="32" t="s">
+      <c r="W14" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="Y14" s="32" t="s">
+      <c r="X14" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="Z14" s="33" t="s">
+      <c r="Y14" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AA14" s="32" t="s">
+      <c r="Z14" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AB14" s="32" t="s">
+      <c r="AA14" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AC14" s="32" t="s">
+      <c r="AB14" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AD14" s="32" t="s">
+      <c r="AC14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AE14" s="32" t="s">
+      <c r="AD14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AF14" s="34" t="s">
+      <c r="AE14" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AG14" s="35" t="s">
+      <c r="AF14" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AH14" s="36" t="s">
+      <c r="AG14" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI14" s="36" t="s">
+      <c r="AH14" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="AJ14" s="35" t="s">
+      <c r="AI14" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AK14" s="35" t="s">
+      <c r="AJ14" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="AL14" s="35" t="s">
+      <c r="AK14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AM14" s="35" t="s">
+      <c r="AL14" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="AN14" s="35" t="s">
+      <c r="AM14" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AO14" s="37" t="s">
+      <c r="AN14" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AP14" s="37" t="s">
+      <c r="AO14" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AQ14" s="37" t="s">
+      <c r="AP14" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AR14" s="37" t="s">
+      <c r="AQ14" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
+      <c r="AR14" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS14" s="38" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3855,7 +4127,7 @@
     <mergeCell ref="U11:Z11"/>
     <mergeCell ref="AA11:AE11"/>
     <mergeCell ref="AF11:AN11"/>
-    <mergeCell ref="AO11:AW11"/>
+    <mergeCell ref="AO11:AS11"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3876,7 +4148,7 @@
   <dimension ref="A1:N257"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="15:45"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3891,406 +4163,406 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L2" s="42" t="n">
         <v>1.33</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L3" s="42" t="n">
         <v>1.37</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L4" s="42" t="n">
         <v>1.66</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="42"/>
       <c r="L5" s="42" t="n">
         <v>1.77</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="42" t="n">
         <v>1.85</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N8" s="42" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="41" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
@@ -4299,23 +4571,23 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="41" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12" s="42"/>
@@ -4324,23 +4596,23 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
@@ -4349,23 +4621,23 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
@@ -4374,23 +4646,23 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
@@ -4399,16 +4671,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -4422,14 +4694,14 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="41" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -4443,14 +4715,14 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -4464,14 +4736,14 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
@@ -4485,14 +4757,14 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
@@ -4508,10 +4780,10 @@
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
@@ -4527,10 +4799,10 @@
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -4546,11 +4818,11 @@
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
@@ -4566,11 +4838,11 @@
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="42" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
@@ -4586,11 +4858,11 @@
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="42" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -4606,11 +4878,11 @@
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -4626,11 +4898,11 @@
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -4646,11 +4918,11 @@
       <c r="A28" s="42"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -4666,11 +4938,11 @@
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="42" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -4686,11 +4958,11 @@
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="42" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -4706,11 +4978,11 @@
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -4726,11 +4998,11 @@
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="42" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -4746,11 +5018,11 @@
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="42" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -4766,11 +5038,11 @@
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="42" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -4786,11 +5058,11 @@
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="42" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
@@ -4806,11 +5078,11 @@
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -4826,11 +5098,11 @@
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="42" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -4846,11 +5118,11 @@
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="42" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -4866,11 +5138,11 @@
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="42" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -4886,11 +5158,11 @@
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="42" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
@@ -4906,11 +5178,11 @@
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="42" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
@@ -4926,11 +5198,11 @@
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="42" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -4946,11 +5218,11 @@
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D43" s="41"/>
       <c r="E43" s="42" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -4966,11 +5238,11 @@
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="42" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
@@ -4986,11 +5258,11 @@
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="42" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
@@ -5006,11 +5278,11 @@
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="42" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
@@ -5026,11 +5298,11 @@
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="42" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -5046,11 +5318,11 @@
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="42" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -5066,11 +5338,11 @@
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="42" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -5086,11 +5358,11 @@
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="42" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -5106,11 +5378,11 @@
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="42" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -5126,11 +5398,11 @@
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="42" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
@@ -5146,11 +5418,11 @@
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="42" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -5166,11 +5438,11 @@
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D54" s="41"/>
       <c r="E54" s="42" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -5186,11 +5458,11 @@
       <c r="A55" s="42"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="42" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -5206,11 +5478,11 @@
       <c r="A56" s="42"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="42" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -5226,11 +5498,11 @@
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -5246,11 +5518,11 @@
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D58" s="41"/>
       <c r="E58" s="42" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
@@ -5266,11 +5538,11 @@
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="42" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
@@ -5286,11 +5558,11 @@
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="42" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
@@ -5306,11 +5578,11 @@
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="42" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -5326,11 +5598,11 @@
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="42" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
@@ -5346,11 +5618,11 @@
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="42" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
@@ -5366,11 +5638,11 @@
       <c r="A64" s="42"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="42" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
@@ -5386,11 +5658,11 @@
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D65" s="41"/>
       <c r="E65" s="42" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
@@ -5406,11 +5678,11 @@
       <c r="A66" s="42"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="42" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
@@ -5426,11 +5698,11 @@
       <c r="A67" s="42"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="42" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
@@ -5446,11 +5718,11 @@
       <c r="A68" s="42"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="42" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
@@ -5466,11 +5738,11 @@
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="42" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
@@ -5486,11 +5758,11 @@
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D70" s="41"/>
       <c r="E70" s="42" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
@@ -5506,11 +5778,11 @@
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="42" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="42" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
@@ -5526,11 +5798,11 @@
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="42" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D72" s="41"/>
       <c r="E72" s="42" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
@@ -5546,11 +5818,11 @@
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D73" s="41"/>
       <c r="E73" s="42" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
@@ -5566,11 +5838,11 @@
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D74" s="41"/>
       <c r="E74" s="42" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
@@ -5586,11 +5858,11 @@
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D75" s="41"/>
       <c r="E75" s="42" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
@@ -5606,11 +5878,11 @@
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D76" s="41"/>
       <c r="E76" s="42" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
@@ -5626,11 +5898,11 @@
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D77" s="41"/>
       <c r="E77" s="42" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
@@ -5646,11 +5918,11 @@
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D78" s="41"/>
       <c r="E78" s="42" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
@@ -5666,11 +5938,11 @@
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="42" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="42" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
@@ -5686,11 +5958,11 @@
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
       <c r="C80" s="42" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="42" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
@@ -5706,11 +5978,11 @@
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="42" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="42" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
@@ -5726,11 +5998,11 @@
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
       <c r="C82" s="42" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D82" s="41"/>
       <c r="E82" s="42" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
@@ -5746,11 +6018,11 @@
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="42" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
@@ -5766,11 +6038,11 @@
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="42" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
@@ -5786,11 +6058,11 @@
       <c r="A85" s="42"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="42" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
@@ -5806,7 +6078,7 @@
       <c r="A86" s="42"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="42"/>
@@ -5824,7 +6096,7 @@
       <c r="A87" s="42"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="42"/>
@@ -5842,7 +6114,7 @@
       <c r="A88" s="42"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="42"/>
@@ -5860,7 +6132,7 @@
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D89" s="41"/>
       <c r="E89" s="42"/>
@@ -5878,7 +6150,7 @@
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D90" s="41"/>
       <c r="E90" s="42"/>
@@ -5896,7 +6168,7 @@
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="42"/>
@@ -5914,7 +6186,7 @@
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D92" s="41"/>
       <c r="E92" s="42"/>
@@ -5932,7 +6204,7 @@
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D93" s="41"/>
       <c r="E93" s="42"/>
@@ -5950,7 +6222,7 @@
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D94" s="41"/>
       <c r="E94" s="42"/>
@@ -5968,7 +6240,7 @@
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D95" s="41"/>
       <c r="E95" s="42"/>
@@ -5986,7 +6258,7 @@
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D96" s="41"/>
       <c r="E96" s="42"/>
@@ -6004,7 +6276,7 @@
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D97" s="41"/>
       <c r="E97" s="42"/>
@@ -6022,7 +6294,7 @@
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D98" s="41"/>
       <c r="E98" s="42"/>
@@ -6040,7 +6312,7 @@
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="42" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="42"/>
@@ -6058,7 +6330,7 @@
       <c r="A100" s="42"/>
       <c r="B100" s="42"/>
       <c r="C100" s="42" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D100" s="41"/>
       <c r="E100" s="42"/>
@@ -6076,7 +6348,7 @@
       <c r="A101" s="42"/>
       <c r="B101" s="42"/>
       <c r="C101" s="42" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D101" s="41"/>
       <c r="E101" s="42"/>
@@ -6094,7 +6366,7 @@
       <c r="A102" s="42"/>
       <c r="B102" s="42"/>
       <c r="C102" s="42" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D102" s="41"/>
       <c r="E102" s="42"/>
@@ -6112,7 +6384,7 @@
       <c r="A103" s="42"/>
       <c r="B103" s="42"/>
       <c r="C103" s="42" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D103" s="41"/>
       <c r="E103" s="42"/>
@@ -6130,7 +6402,7 @@
       <c r="A104" s="42"/>
       <c r="B104" s="42"/>
       <c r="C104" s="42" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D104" s="41"/>
       <c r="E104" s="42"/>
@@ -6148,7 +6420,7 @@
       <c r="A105" s="42"/>
       <c r="B105" s="42"/>
       <c r="C105" s="42" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D105" s="41"/>
       <c r="E105" s="42"/>
@@ -6166,7 +6438,7 @@
       <c r="A106" s="42"/>
       <c r="B106" s="42"/>
       <c r="C106" s="42" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D106" s="41"/>
       <c r="E106" s="42"/>
@@ -6184,7 +6456,7 @@
       <c r="A107" s="42"/>
       <c r="B107" s="42"/>
       <c r="C107" s="42" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D107" s="41"/>
       <c r="E107" s="42"/>
@@ -6202,7 +6474,7 @@
       <c r="A108" s="42"/>
       <c r="B108" s="42"/>
       <c r="C108" s="42" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D108" s="41"/>
       <c r="E108" s="42"/>
@@ -6220,7 +6492,7 @@
       <c r="A109" s="42"/>
       <c r="B109" s="42"/>
       <c r="C109" s="42" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D109" s="41"/>
       <c r="E109" s="42"/>
@@ -6238,7 +6510,7 @@
       <c r="A110" s="42"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D110" s="41"/>
       <c r="E110" s="42"/>
@@ -6256,7 +6528,7 @@
       <c r="A111" s="42"/>
       <c r="B111" s="42"/>
       <c r="C111" s="42" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D111" s="41"/>
       <c r="E111" s="42"/>
@@ -6274,7 +6546,7 @@
       <c r="A112" s="42"/>
       <c r="B112" s="42"/>
       <c r="C112" s="42" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D112" s="41"/>
       <c r="E112" s="42"/>
@@ -6292,7 +6564,7 @@
       <c r="A113" s="42"/>
       <c r="B113" s="42"/>
       <c r="C113" s="42" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D113" s="41"/>
       <c r="E113" s="42"/>
@@ -6310,7 +6582,7 @@
       <c r="A114" s="42"/>
       <c r="B114" s="42"/>
       <c r="C114" s="42" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D114" s="41"/>
       <c r="E114" s="42"/>
@@ -6328,7 +6600,7 @@
       <c r="A115" s="42"/>
       <c r="B115" s="42"/>
       <c r="C115" s="42" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D115" s="41"/>
       <c r="E115" s="42"/>
@@ -6346,7 +6618,7 @@
       <c r="A116" s="42"/>
       <c r="B116" s="42"/>
       <c r="C116" s="42" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D116" s="41"/>
       <c r="E116" s="42"/>
@@ -6364,7 +6636,7 @@
       <c r="A117" s="42"/>
       <c r="B117" s="42"/>
       <c r="C117" s="42" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="42"/>
@@ -6382,7 +6654,7 @@
       <c r="A118" s="42"/>
       <c r="B118" s="42"/>
       <c r="C118" s="42" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D118" s="41"/>
       <c r="E118" s="42"/>
@@ -6400,7 +6672,7 @@
       <c r="A119" s="42"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D119" s="41"/>
       <c r="E119" s="42"/>
@@ -6418,7 +6690,7 @@
       <c r="A120" s="42"/>
       <c r="B120" s="42"/>
       <c r="C120" s="42" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D120" s="41"/>
       <c r="E120" s="42"/>
@@ -6436,7 +6708,7 @@
       <c r="A121" s="42"/>
       <c r="B121" s="42"/>
       <c r="C121" s="42" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D121" s="41"/>
       <c r="E121" s="42"/>
@@ -6454,7 +6726,7 @@
       <c r="A122" s="42"/>
       <c r="B122" s="42"/>
       <c r="C122" s="42" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D122" s="41"/>
       <c r="E122" s="42"/>
@@ -6472,7 +6744,7 @@
       <c r="A123" s="42"/>
       <c r="B123" s="42"/>
       <c r="C123" s="42" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D123" s="41"/>
       <c r="E123" s="42"/>
@@ -6490,7 +6762,7 @@
       <c r="A124" s="42"/>
       <c r="B124" s="42"/>
       <c r="C124" s="42" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D124" s="41"/>
       <c r="E124" s="42"/>
@@ -6508,7 +6780,7 @@
       <c r="A125" s="42"/>
       <c r="B125" s="42"/>
       <c r="C125" s="42" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D125" s="41"/>
       <c r="E125" s="42"/>
@@ -6526,7 +6798,7 @@
       <c r="A126" s="42"/>
       <c r="B126" s="42"/>
       <c r="C126" s="42" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D126" s="41"/>
       <c r="E126" s="42"/>
@@ -6544,7 +6816,7 @@
       <c r="A127" s="42"/>
       <c r="B127" s="42"/>
       <c r="C127" s="42" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D127" s="41"/>
       <c r="E127" s="42"/>
@@ -6562,7 +6834,7 @@
       <c r="A128" s="42"/>
       <c r="B128" s="42"/>
       <c r="C128" s="42" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D128" s="41"/>
       <c r="E128" s="42"/>
@@ -6580,7 +6852,7 @@
       <c r="A129" s="42"/>
       <c r="B129" s="42"/>
       <c r="C129" s="42" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D129" s="41"/>
       <c r="E129" s="42"/>
@@ -6598,7 +6870,7 @@
       <c r="A130" s="42"/>
       <c r="B130" s="42"/>
       <c r="C130" s="42" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D130" s="41"/>
       <c r="E130" s="42"/>
@@ -6616,7 +6888,7 @@
       <c r="A131" s="42"/>
       <c r="B131" s="42"/>
       <c r="C131" s="42" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D131" s="41"/>
       <c r="E131" s="42"/>
@@ -6634,7 +6906,7 @@
       <c r="A132" s="42"/>
       <c r="B132" s="42"/>
       <c r="C132" s="42" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D132" s="41"/>
       <c r="E132" s="42"/>
@@ -6652,7 +6924,7 @@
       <c r="A133" s="42"/>
       <c r="B133" s="42"/>
       <c r="C133" s="42" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D133" s="41"/>
       <c r="E133" s="42"/>
@@ -6670,7 +6942,7 @@
       <c r="A134" s="42"/>
       <c r="B134" s="42"/>
       <c r="C134" s="42" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D134" s="41"/>
       <c r="E134" s="42"/>
@@ -6688,7 +6960,7 @@
       <c r="A135" s="42"/>
       <c r="B135" s="42"/>
       <c r="C135" s="42" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D135" s="41"/>
       <c r="E135" s="42"/>
@@ -6706,7 +6978,7 @@
       <c r="A136" s="42"/>
       <c r="B136" s="42"/>
       <c r="C136" s="42" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D136" s="41"/>
       <c r="E136" s="42"/>
@@ -6724,7 +6996,7 @@
       <c r="A137" s="42"/>
       <c r="B137" s="42"/>
       <c r="C137" s="42" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D137" s="41"/>
       <c r="E137" s="42"/>
@@ -6742,7 +7014,7 @@
       <c r="A138" s="42"/>
       <c r="B138" s="42"/>
       <c r="C138" s="42" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D138" s="41"/>
       <c r="E138" s="42"/>
@@ -6760,7 +7032,7 @@
       <c r="A139" s="42"/>
       <c r="B139" s="42"/>
       <c r="C139" s="42" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D139" s="41"/>
       <c r="E139" s="42"/>
@@ -6778,7 +7050,7 @@
       <c r="A140" s="42"/>
       <c r="B140" s="42"/>
       <c r="C140" s="42" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D140" s="41"/>
       <c r="E140" s="42"/>
@@ -6796,7 +7068,7 @@
       <c r="A141" s="42"/>
       <c r="B141" s="42"/>
       <c r="C141" s="42" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D141" s="41"/>
       <c r="E141" s="42"/>
@@ -6814,7 +7086,7 @@
       <c r="A142" s="42"/>
       <c r="B142" s="42"/>
       <c r="C142" s="42" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D142" s="41"/>
       <c r="E142" s="42"/>
@@ -6832,7 +7104,7 @@
       <c r="A143" s="42"/>
       <c r="B143" s="42"/>
       <c r="C143" s="42" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D143" s="41"/>
       <c r="E143" s="42"/>
@@ -6850,7 +7122,7 @@
       <c r="A144" s="42"/>
       <c r="B144" s="42"/>
       <c r="C144" s="42" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D144" s="41"/>
       <c r="E144" s="42"/>
@@ -6868,7 +7140,7 @@
       <c r="A145" s="42"/>
       <c r="B145" s="42"/>
       <c r="C145" s="42" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D145" s="41"/>
       <c r="E145" s="42"/>
@@ -6886,7 +7158,7 @@
       <c r="A146" s="42"/>
       <c r="B146" s="42"/>
       <c r="C146" s="42" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D146" s="41"/>
       <c r="E146" s="42"/>
@@ -6904,7 +7176,7 @@
       <c r="A147" s="42"/>
       <c r="B147" s="42"/>
       <c r="C147" s="42" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D147" s="41"/>
       <c r="E147" s="42"/>
@@ -6922,7 +7194,7 @@
       <c r="A148" s="42"/>
       <c r="B148" s="42"/>
       <c r="C148" s="42" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D148" s="41"/>
       <c r="E148" s="42"/>
@@ -6940,7 +7212,7 @@
       <c r="A149" s="42"/>
       <c r="B149" s="42"/>
       <c r="C149" s="42" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D149" s="41"/>
       <c r="E149" s="42"/>
@@ -6958,7 +7230,7 @@
       <c r="A150" s="42"/>
       <c r="B150" s="42"/>
       <c r="C150" s="42" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D150" s="41"/>
       <c r="E150" s="42"/>
@@ -6976,7 +7248,7 @@
       <c r="A151" s="42"/>
       <c r="B151" s="42"/>
       <c r="C151" s="42" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D151" s="41"/>
       <c r="E151" s="42"/>
@@ -6994,7 +7266,7 @@
       <c r="A152" s="42"/>
       <c r="B152" s="42"/>
       <c r="C152" s="42" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D152" s="41"/>
       <c r="E152" s="42"/>
@@ -7012,7 +7284,7 @@
       <c r="A153" s="42"/>
       <c r="B153" s="42"/>
       <c r="C153" s="42" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D153" s="41"/>
       <c r="E153" s="42"/>
@@ -7030,7 +7302,7 @@
       <c r="A154" s="42"/>
       <c r="B154" s="42"/>
       <c r="C154" s="42" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D154" s="41"/>
       <c r="E154" s="42"/>
@@ -7048,7 +7320,7 @@
       <c r="A155" s="42"/>
       <c r="B155" s="42"/>
       <c r="C155" s="42" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D155" s="41"/>
       <c r="E155" s="42"/>
@@ -7066,7 +7338,7 @@
       <c r="A156" s="42"/>
       <c r="B156" s="42"/>
       <c r="C156" s="42" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D156" s="41"/>
       <c r="E156" s="42"/>
@@ -7084,7 +7356,7 @@
       <c r="A157" s="42"/>
       <c r="B157" s="42"/>
       <c r="C157" s="42" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D157" s="41"/>
       <c r="E157" s="42"/>
@@ -7102,7 +7374,7 @@
       <c r="A158" s="42"/>
       <c r="B158" s="42"/>
       <c r="C158" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D158" s="41"/>
       <c r="E158" s="42"/>
@@ -7120,7 +7392,7 @@
       <c r="A159" s="42"/>
       <c r="B159" s="42"/>
       <c r="C159" s="42" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D159" s="41"/>
       <c r="E159" s="42"/>
@@ -7138,7 +7410,7 @@
       <c r="A160" s="42"/>
       <c r="B160" s="42"/>
       <c r="C160" s="42" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D160" s="41"/>
       <c r="E160" s="42"/>
@@ -7156,7 +7428,7 @@
       <c r="A161" s="42"/>
       <c r="B161" s="42"/>
       <c r="C161" s="42" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D161" s="41"/>
       <c r="E161" s="42"/>
@@ -7174,7 +7446,7 @@
       <c r="A162" s="42"/>
       <c r="B162" s="42"/>
       <c r="C162" s="42" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D162" s="41"/>
       <c r="E162" s="42"/>
@@ -7192,7 +7464,7 @@
       <c r="A163" s="42"/>
       <c r="B163" s="42"/>
       <c r="C163" s="42" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D163" s="41"/>
       <c r="E163" s="42"/>
@@ -7210,7 +7482,7 @@
       <c r="A164" s="42"/>
       <c r="B164" s="42"/>
       <c r="C164" s="42" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D164" s="41"/>
       <c r="E164" s="42"/>
@@ -7228,7 +7500,7 @@
       <c r="A165" s="42"/>
       <c r="B165" s="42"/>
       <c r="C165" s="42" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D165" s="41"/>
       <c r="E165" s="42"/>
@@ -7246,7 +7518,7 @@
       <c r="A166" s="42"/>
       <c r="B166" s="42"/>
       <c r="C166" s="42" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D166" s="41"/>
       <c r="E166" s="42"/>
@@ -7264,7 +7536,7 @@
       <c r="A167" s="42"/>
       <c r="B167" s="42"/>
       <c r="C167" s="42" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D167" s="41"/>
       <c r="E167" s="42"/>
@@ -7282,7 +7554,7 @@
       <c r="A168" s="42"/>
       <c r="B168" s="42"/>
       <c r="C168" s="42" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D168" s="41"/>
       <c r="E168" s="42"/>
@@ -7300,7 +7572,7 @@
       <c r="A169" s="42"/>
       <c r="B169" s="42"/>
       <c r="C169" s="42" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D169" s="41"/>
       <c r="E169" s="42"/>
@@ -7318,7 +7590,7 @@
       <c r="A170" s="42"/>
       <c r="B170" s="42"/>
       <c r="C170" s="42" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D170" s="41"/>
       <c r="E170" s="42"/>
@@ -7336,7 +7608,7 @@
       <c r="A171" s="42"/>
       <c r="B171" s="42"/>
       <c r="C171" s="42" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D171" s="41"/>
       <c r="E171" s="42"/>
@@ -7354,7 +7626,7 @@
       <c r="A172" s="42"/>
       <c r="B172" s="42"/>
       <c r="C172" s="42" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D172" s="41"/>
       <c r="E172" s="42"/>
@@ -7372,7 +7644,7 @@
       <c r="A173" s="42"/>
       <c r="B173" s="42"/>
       <c r="C173" s="42" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D173" s="41"/>
       <c r="E173" s="42"/>
@@ -7390,7 +7662,7 @@
       <c r="A174" s="42"/>
       <c r="B174" s="42"/>
       <c r="C174" s="42" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D174" s="41"/>
       <c r="E174" s="42"/>
@@ -7408,7 +7680,7 @@
       <c r="A175" s="42"/>
       <c r="B175" s="42"/>
       <c r="C175" s="42" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D175" s="41"/>
       <c r="E175" s="42"/>
@@ -7426,7 +7698,7 @@
       <c r="A176" s="42"/>
       <c r="B176" s="42"/>
       <c r="C176" s="42" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D176" s="41"/>
       <c r="E176" s="42"/>
@@ -7444,7 +7716,7 @@
       <c r="A177" s="42"/>
       <c r="B177" s="42"/>
       <c r="C177" s="42" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D177" s="41"/>
       <c r="E177" s="42"/>
@@ -7462,7 +7734,7 @@
       <c r="A178" s="42"/>
       <c r="B178" s="42"/>
       <c r="C178" s="42" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D178" s="41"/>
       <c r="E178" s="42"/>
@@ -7480,7 +7752,7 @@
       <c r="A179" s="42"/>
       <c r="B179" s="42"/>
       <c r="C179" s="42" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D179" s="41"/>
       <c r="E179" s="42"/>
@@ -7498,7 +7770,7 @@
       <c r="A180" s="42"/>
       <c r="B180" s="42"/>
       <c r="C180" s="42" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="42"/>
@@ -7516,7 +7788,7 @@
       <c r="A181" s="42"/>
       <c r="B181" s="42"/>
       <c r="C181" s="42" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="42"/>
@@ -7534,7 +7806,7 @@
       <c r="A182" s="42"/>
       <c r="B182" s="42"/>
       <c r="C182" s="42" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D182" s="41"/>
       <c r="E182" s="42"/>
@@ -7552,7 +7824,7 @@
       <c r="A183" s="42"/>
       <c r="B183" s="42"/>
       <c r="C183" s="42" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D183" s="41"/>
       <c r="E183" s="42"/>
@@ -7570,7 +7842,7 @@
       <c r="A184" s="42"/>
       <c r="B184" s="42"/>
       <c r="C184" s="42" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D184" s="41"/>
       <c r="E184" s="42"/>
@@ -7588,7 +7860,7 @@
       <c r="A185" s="42"/>
       <c r="B185" s="42"/>
       <c r="C185" s="42" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D185" s="41"/>
       <c r="E185" s="42"/>
@@ -7606,7 +7878,7 @@
       <c r="A186" s="42"/>
       <c r="B186" s="42"/>
       <c r="C186" s="42" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D186" s="41"/>
       <c r="E186" s="42"/>
@@ -7624,7 +7896,7 @@
       <c r="A187" s="42"/>
       <c r="B187" s="42"/>
       <c r="C187" s="42" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D187" s="41"/>
       <c r="E187" s="42"/>
@@ -7642,7 +7914,7 @@
       <c r="A188" s="42"/>
       <c r="B188" s="42"/>
       <c r="C188" s="42" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D188" s="41"/>
       <c r="E188" s="42"/>
@@ -7660,7 +7932,7 @@
       <c r="A189" s="42"/>
       <c r="B189" s="42"/>
       <c r="C189" s="42" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D189" s="41"/>
       <c r="E189" s="42"/>
@@ -7678,7 +7950,7 @@
       <c r="A190" s="42"/>
       <c r="B190" s="42"/>
       <c r="C190" s="42" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D190" s="41"/>
       <c r="E190" s="42"/>
@@ -7696,7 +7968,7 @@
       <c r="A191" s="42"/>
       <c r="B191" s="42"/>
       <c r="C191" s="42" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D191" s="41"/>
       <c r="E191" s="42"/>
@@ -7714,7 +7986,7 @@
       <c r="A192" s="42"/>
       <c r="B192" s="42"/>
       <c r="C192" s="42" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D192" s="41"/>
       <c r="E192" s="42"/>
@@ -7732,7 +8004,7 @@
       <c r="A193" s="42"/>
       <c r="B193" s="42"/>
       <c r="C193" s="42" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D193" s="41"/>
       <c r="E193" s="42"/>
@@ -7750,7 +8022,7 @@
       <c r="A194" s="42"/>
       <c r="B194" s="42"/>
       <c r="C194" s="42" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D194" s="41"/>
       <c r="E194" s="42"/>
@@ -7768,7 +8040,7 @@
       <c r="A195" s="42"/>
       <c r="B195" s="42"/>
       <c r="C195" s="42" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D195" s="41"/>
       <c r="E195" s="42"/>
@@ -7786,7 +8058,7 @@
       <c r="A196" s="42"/>
       <c r="B196" s="42"/>
       <c r="C196" s="42" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D196" s="41"/>
       <c r="E196" s="42"/>
@@ -7804,7 +8076,7 @@
       <c r="A197" s="42"/>
       <c r="B197" s="42"/>
       <c r="C197" s="42" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D197" s="41"/>
       <c r="E197" s="42"/>
@@ -7822,7 +8094,7 @@
       <c r="A198" s="42"/>
       <c r="B198" s="42"/>
       <c r="C198" s="42" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D198" s="41"/>
       <c r="E198" s="42"/>
@@ -7840,7 +8112,7 @@
       <c r="A199" s="42"/>
       <c r="B199" s="42"/>
       <c r="C199" s="42" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D199" s="41"/>
       <c r="E199" s="42"/>
@@ -7858,7 +8130,7 @@
       <c r="A200" s="42"/>
       <c r="B200" s="42"/>
       <c r="C200" s="42" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D200" s="41"/>
       <c r="E200" s="42"/>
@@ -7876,7 +8148,7 @@
       <c r="A201" s="42"/>
       <c r="B201" s="42"/>
       <c r="C201" s="42" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D201" s="41"/>
       <c r="E201" s="42"/>
@@ -7894,7 +8166,7 @@
       <c r="A202" s="42"/>
       <c r="B202" s="42"/>
       <c r="C202" s="42" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D202" s="41"/>
       <c r="E202" s="42"/>
@@ -7912,7 +8184,7 @@
       <c r="A203" s="42"/>
       <c r="B203" s="42"/>
       <c r="C203" s="42" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D203" s="41"/>
       <c r="E203" s="42"/>
@@ -7930,7 +8202,7 @@
       <c r="A204" s="42"/>
       <c r="B204" s="42"/>
       <c r="C204" s="42" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D204" s="41"/>
       <c r="E204" s="42"/>
@@ -7948,7 +8220,7 @@
       <c r="A205" s="42"/>
       <c r="B205" s="42"/>
       <c r="C205" s="42" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D205" s="41"/>
       <c r="E205" s="42"/>
@@ -7966,7 +8238,7 @@
       <c r="A206" s="42"/>
       <c r="B206" s="42"/>
       <c r="C206" s="42" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D206" s="41"/>
       <c r="E206" s="42"/>
@@ -7984,7 +8256,7 @@
       <c r="A207" s="42"/>
       <c r="B207" s="42"/>
       <c r="C207" s="42" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D207" s="41"/>
       <c r="E207" s="42"/>
@@ -8002,7 +8274,7 @@
       <c r="A208" s="42"/>
       <c r="B208" s="42"/>
       <c r="C208" s="42" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D208" s="41"/>
       <c r="E208" s="42"/>
@@ -8020,7 +8292,7 @@
       <c r="A209" s="42"/>
       <c r="B209" s="42"/>
       <c r="C209" s="42" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D209" s="41"/>
       <c r="E209" s="42"/>
@@ -8038,7 +8310,7 @@
       <c r="A210" s="42"/>
       <c r="B210" s="42"/>
       <c r="C210" s="42" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D210" s="41"/>
       <c r="E210" s="42"/>
@@ -8056,7 +8328,7 @@
       <c r="A211" s="42"/>
       <c r="B211" s="42"/>
       <c r="C211" s="42" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D211" s="41"/>
       <c r="E211" s="42"/>
@@ -8074,7 +8346,7 @@
       <c r="A212" s="42"/>
       <c r="B212" s="42"/>
       <c r="C212" s="42" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D212" s="41"/>
       <c r="E212" s="42"/>
@@ -8092,7 +8364,7 @@
       <c r="A213" s="42"/>
       <c r="B213" s="42"/>
       <c r="C213" s="42" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D213" s="41"/>
       <c r="E213" s="42"/>
@@ -8110,7 +8382,7 @@
       <c r="A214" s="42"/>
       <c r="B214" s="42"/>
       <c r="C214" s="42" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D214" s="41"/>
       <c r="E214" s="42"/>
@@ -8128,7 +8400,7 @@
       <c r="A215" s="42"/>
       <c r="B215" s="42"/>
       <c r="C215" s="42" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D215" s="41"/>
       <c r="E215" s="42"/>
@@ -8146,7 +8418,7 @@
       <c r="A216" s="42"/>
       <c r="B216" s="42"/>
       <c r="C216" s="42" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D216" s="41"/>
       <c r="E216" s="42"/>
@@ -8164,7 +8436,7 @@
       <c r="A217" s="42"/>
       <c r="B217" s="42"/>
       <c r="C217" s="42" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D217" s="41"/>
       <c r="E217" s="42"/>
@@ -8182,7 +8454,7 @@
       <c r="A218" s="42"/>
       <c r="B218" s="42"/>
       <c r="C218" s="42" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D218" s="41"/>
       <c r="E218" s="42"/>
@@ -8200,7 +8472,7 @@
       <c r="A219" s="42"/>
       <c r="B219" s="42"/>
       <c r="C219" s="42" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D219" s="41"/>
       <c r="E219" s="42"/>
@@ -8218,7 +8490,7 @@
       <c r="A220" s="42"/>
       <c r="B220" s="42"/>
       <c r="C220" s="42" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D220" s="41"/>
       <c r="E220" s="42"/>
@@ -8236,7 +8508,7 @@
       <c r="A221" s="42"/>
       <c r="B221" s="42"/>
       <c r="C221" s="42" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D221" s="41"/>
       <c r="E221" s="42"/>
@@ -8254,7 +8526,7 @@
       <c r="A222" s="42"/>
       <c r="B222" s="42"/>
       <c r="C222" s="42" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D222" s="41"/>
       <c r="E222" s="42"/>
@@ -8272,7 +8544,7 @@
       <c r="A223" s="42"/>
       <c r="B223" s="42"/>
       <c r="C223" s="42" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D223" s="41"/>
       <c r="E223" s="42"/>
@@ -8290,7 +8562,7 @@
       <c r="A224" s="42"/>
       <c r="B224" s="42"/>
       <c r="C224" s="42" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D224" s="41"/>
       <c r="E224" s="42"/>
@@ -8308,7 +8580,7 @@
       <c r="A225" s="42"/>
       <c r="B225" s="42"/>
       <c r="C225" s="42" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D225" s="41"/>
       <c r="E225" s="42"/>
@@ -8326,7 +8598,7 @@
       <c r="A226" s="42"/>
       <c r="B226" s="42"/>
       <c r="C226" s="42" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D226" s="41"/>
       <c r="E226" s="42"/>
@@ -8344,7 +8616,7 @@
       <c r="A227" s="42"/>
       <c r="B227" s="42"/>
       <c r="C227" s="42" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D227" s="41"/>
       <c r="E227" s="42"/>
@@ -8362,7 +8634,7 @@
       <c r="A228" s="42"/>
       <c r="B228" s="42"/>
       <c r="C228" s="42" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D228" s="41"/>
       <c r="E228" s="42"/>
@@ -8380,7 +8652,7 @@
       <c r="A229" s="42"/>
       <c r="B229" s="42"/>
       <c r="C229" s="42" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D229" s="41"/>
       <c r="E229" s="42"/>
@@ -8398,7 +8670,7 @@
       <c r="A230" s="42"/>
       <c r="B230" s="42"/>
       <c r="C230" s="42" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D230" s="41"/>
       <c r="E230" s="42"/>
@@ -8416,7 +8688,7 @@
       <c r="A231" s="42"/>
       <c r="B231" s="42"/>
       <c r="C231" s="42" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D231" s="41"/>
       <c r="E231" s="42"/>
@@ -8434,7 +8706,7 @@
       <c r="A232" s="42"/>
       <c r="B232" s="42"/>
       <c r="C232" s="42" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D232" s="41"/>
       <c r="E232" s="42"/>
@@ -8452,7 +8724,7 @@
       <c r="A233" s="42"/>
       <c r="B233" s="42"/>
       <c r="C233" s="42" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D233" s="41"/>
       <c r="E233" s="42"/>
@@ -8470,7 +8742,7 @@
       <c r="A234" s="42"/>
       <c r="B234" s="42"/>
       <c r="C234" s="42" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D234" s="41"/>
       <c r="E234" s="42"/>
@@ -8488,7 +8760,7 @@
       <c r="A235" s="42"/>
       <c r="B235" s="42"/>
       <c r="C235" s="42" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D235" s="41"/>
       <c r="E235" s="42"/>
@@ -8506,7 +8778,7 @@
       <c r="A236" s="42"/>
       <c r="B236" s="42"/>
       <c r="C236" s="42" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D236" s="41"/>
       <c r="E236" s="42"/>
@@ -8524,7 +8796,7 @@
       <c r="A237" s="42"/>
       <c r="B237" s="42"/>
       <c r="C237" s="42" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D237" s="41"/>
       <c r="E237" s="42"/>
@@ -8542,7 +8814,7 @@
       <c r="A238" s="42"/>
       <c r="B238" s="42"/>
       <c r="C238" s="42" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D238" s="41"/>
       <c r="E238" s="42"/>
@@ -8560,7 +8832,7 @@
       <c r="A239" s="42"/>
       <c r="B239" s="42"/>
       <c r="C239" s="42" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D239" s="41"/>
       <c r="E239" s="42"/>
@@ -8578,7 +8850,7 @@
       <c r="A240" s="42"/>
       <c r="B240" s="42"/>
       <c r="C240" s="42" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D240" s="41"/>
       <c r="E240" s="42"/>
@@ -8596,7 +8868,7 @@
       <c r="A241" s="42"/>
       <c r="B241" s="42"/>
       <c r="C241" s="42" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D241" s="41"/>
       <c r="E241" s="42"/>
@@ -8614,7 +8886,7 @@
       <c r="A242" s="42"/>
       <c r="B242" s="42"/>
       <c r="C242" s="42" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D242" s="41"/>
       <c r="E242" s="42"/>
@@ -8632,7 +8904,7 @@
       <c r="A243" s="42"/>
       <c r="B243" s="42"/>
       <c r="C243" s="42" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D243" s="41"/>
       <c r="E243" s="42"/>
@@ -8650,7 +8922,7 @@
       <c r="A244" s="42"/>
       <c r="B244" s="42"/>
       <c r="C244" s="42" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D244" s="41"/>
       <c r="E244" s="42"/>
@@ -8668,7 +8940,7 @@
       <c r="A245" s="42"/>
       <c r="B245" s="42"/>
       <c r="C245" s="42" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D245" s="41"/>
       <c r="E245" s="42"/>
@@ -8686,7 +8958,7 @@
       <c r="A246" s="42"/>
       <c r="B246" s="42"/>
       <c r="C246" s="42" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D246" s="41"/>
       <c r="E246" s="42"/>
@@ -8704,7 +8976,7 @@
       <c r="A247" s="42"/>
       <c r="B247" s="42"/>
       <c r="C247" s="42" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D247" s="41"/>
       <c r="E247" s="42"/>
@@ -8722,7 +8994,7 @@
       <c r="A248" s="42"/>
       <c r="B248" s="42"/>
       <c r="C248" s="42" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D248" s="41"/>
       <c r="E248" s="42"/>
@@ -8740,7 +9012,7 @@
       <c r="A249" s="42"/>
       <c r="B249" s="42"/>
       <c r="C249" s="42" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D249" s="41"/>
       <c r="E249" s="42"/>
@@ -8758,7 +9030,7 @@
       <c r="A250" s="42"/>
       <c r="B250" s="42"/>
       <c r="C250" s="42" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D250" s="41"/>
       <c r="E250" s="42"/>
@@ -8776,7 +9048,7 @@
       <c r="A251" s="42"/>
       <c r="B251" s="42"/>
       <c r="C251" s="42" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D251" s="41"/>
       <c r="E251" s="42"/>
@@ -8794,7 +9066,7 @@
       <c r="A252" s="42"/>
       <c r="B252" s="42"/>
       <c r="C252" s="42" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D252" s="41"/>
       <c r="E252" s="42"/>
@@ -8812,7 +9084,7 @@
       <c r="A253" s="42"/>
       <c r="B253" s="42"/>
       <c r="C253" s="42" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D253" s="41"/>
       <c r="E253" s="42"/>
@@ -8830,7 +9102,7 @@
       <c r="A254" s="42"/>
       <c r="B254" s="42"/>
       <c r="C254" s="42" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D254" s="41"/>
       <c r="E254" s="42"/>
@@ -8848,7 +9120,7 @@
       <c r="A255" s="42"/>
       <c r="B255" s="44"/>
       <c r="C255" s="44" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D255" s="41"/>
       <c r="E255" s="42"/>
@@ -8866,7 +9138,7 @@
       <c r="A256" s="42"/>
       <c r="B256" s="44"/>
       <c r="C256" s="44" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D256" s="41"/>
       <c r="E256" s="42"/>

--- a/libs/ui/src/lib/assets/templates/import-movie-template-admin.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-movie-template-admin.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="521">
   <si>
     <t xml:space="preserve">Movies Import (Metadata)</t>
   </si>
@@ -259,7 +259,11 @@
     <t xml:space="preserve">Teaser link</t>
   </si>
   <si>
-    <t xml:space="preserve">Reserved territories (lite – festival)</t>
+    <t xml:space="preserve">Territories sold
+(list of choice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Territories excluded</t>
   </si>
   <si>
     <t xml:space="preserve">Scoring</t>
@@ -1620,7 +1624,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1726,6 +1730,13 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1944,7 +1955,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2101,11 +2112,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2117,7 +2132,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2208,9 +2223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269000</xdr:colOff>
+      <xdr:colOff>1268640</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>316800</xdr:rowOff>
+      <xdr:rowOff>316440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2220,7 +2235,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851200" cy="12946680"/>
+          <a:ext cx="11850840" cy="12946320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2253,9 +2268,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269000</xdr:colOff>
+      <xdr:colOff>1268640</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>316800</xdr:rowOff>
+      <xdr:rowOff>316440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2265,7 +2280,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851200" cy="12946680"/>
+          <a:ext cx="11850840" cy="12946320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2298,9 +2313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1269000</xdr:colOff>
+      <xdr:colOff>1268640</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>316800</xdr:rowOff>
+      <xdr:rowOff>316440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2310,7 +2325,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11851200" cy="12946680"/>
+          <a:ext cx="11850840" cy="12946320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2342,14 +2357,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS1048576"/>
+  <dimension ref="A1:AT1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="AL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AL1" activeCellId="0" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AN17" activeCellId="0" sqref="AN17"/>
+      <selection pane="bottomRight" activeCell="AQ18" activeCellId="0" sqref="AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2874,6 +2889,7 @@
       <c r="AQ11" s="25"/>
       <c r="AR11" s="25"/>
       <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -3122,14 +3138,17 @@
       <c r="AP14" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AQ14" s="38" t="s">
+      <c r="AQ14" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="AR14" s="38" t="s">
+      <c r="AR14" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="AS14" s="38" t="s">
+      <c r="AS14" s="39" t="s">
         <v>73</v>
+      </c>
+      <c r="AT14" s="39" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4127,7 +4146,7 @@
     <mergeCell ref="U11:Z11"/>
     <mergeCell ref="AA11:AE11"/>
     <mergeCell ref="AF11:AN11"/>
-    <mergeCell ref="AO11:AS11"/>
+    <mergeCell ref="AO11:AT11"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4162,4994 +4181,4994 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="K1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="M1" s="40" t="s">
         <v>87</v>
       </c>
+      <c r="N1" s="40" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="G2" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="42" t="s">
+      <c r="H2" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="42" t="n">
+      <c r="K2" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="43" t="n">
         <v>1.33</v>
       </c>
-      <c r="M2" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="42" t="s">
+      <c r="M2" s="43" t="s">
         <v>99</v>
       </c>
+      <c r="N2" s="43" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="D3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="G3" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="H3" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="J3" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="42" t="n">
+      <c r="K3" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="43" t="n">
         <v>1.37</v>
       </c>
-      <c r="M3" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="42" t="s">
+      <c r="M3" s="43" t="s">
         <v>112</v>
       </c>
+      <c r="N3" s="43" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="D4" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="H4" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="I4" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="J4" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="42" t="n">
+      <c r="K4" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="43" t="n">
         <v>1.66</v>
       </c>
-      <c r="M4" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" s="42" t="s">
+      <c r="M4" s="43" t="s">
         <v>125</v>
       </c>
+      <c r="N4" s="43" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="D5" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="G5" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="H5" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="I5" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42" t="n">
+      <c r="J5" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43" t="n">
         <v>1.77</v>
       </c>
-      <c r="M5" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="N5" s="42" t="s">
+      <c r="M5" s="43" t="s">
         <v>137</v>
       </c>
+      <c r="N5" s="43" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="E6" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42" t="s">
+      <c r="G6" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42" t="n">
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43" t="n">
         <v>1.85</v>
       </c>
-      <c r="M6" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="N6" s="42" t="s">
+      <c r="M6" s="43" t="s">
         <v>147</v>
       </c>
+      <c r="N6" s="43" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="F7" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42" t="s">
+      <c r="G7" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42" t="s">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="M7" s="43" t="s">
         <v>157</v>
       </c>
+      <c r="N7" s="43" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="C8" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="E8" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="F8" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42" t="s">
+      <c r="G8" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42" t="s">
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43" t="s">
         <v>166</v>
       </c>
+      <c r="N8" s="43" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="C9" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="E9" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42" t="s">
+      <c r="F9" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42" t="s">
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43" t="s">
         <v>173</v>
       </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="E10" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42" t="s">
+      <c r="F10" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42" t="s">
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43" t="s">
         <v>180</v>
       </c>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="C11" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42" t="s">
+      <c r="E11" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="C12" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42" t="s">
+      <c r="E12" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="C13" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42" t="s">
+      <c r="E13" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="C14" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42" t="s">
+      <c r="E14" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="C15" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42" t="s">
+      <c r="E15" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="C16" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="E16" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42" t="s">
+      <c r="A17" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="E17" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42" t="s">
+      <c r="A18" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
+      <c r="E18" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42" t="s">
+      <c r="A19" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="E19" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42" t="s">
+      <c r="A20" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
+      <c r="E20" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="42" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="E21" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="42" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
+      <c r="E22" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42" t="s">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42" t="s">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42" t="s">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42" t="s">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42" t="s">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42" t="s">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="42" t="s">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="42" t="s">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42" t="s">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42" t="s">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="42" t="s">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42" t="s">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42" t="s">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="42" t="s">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="42" t="s">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="D70" s="41"/>
-      <c r="E70" s="42" t="s">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="D71" s="41"/>
-      <c r="E71" s="42" t="s">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="D72" s="41"/>
-      <c r="E72" s="42" t="s">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="D74" s="41"/>
-      <c r="E74" s="42" t="s">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="D75" s="41"/>
-      <c r="E75" s="42" t="s">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="42" t="s">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="42" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="42" t="s">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42" t="s">
-        <v>338</v>
-      </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="42" t="s">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="42" t="s">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="42" t="s">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="42" t="s">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="42" t="s">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="42"/>
-      <c r="M83" s="42"/>
-      <c r="N83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="42" t="s">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="42" t="s">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="42"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D86" s="42"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="42"/>
-      <c r="N87" s="42"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D87" s="42"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="42"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D88" s="42"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D89" s="42"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="42"/>
-      <c r="N90" s="42"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D90" s="42"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
-      <c r="M91" s="42"/>
-      <c r="N91" s="42"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D91" s="42"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
-      <c r="L92" s="42"/>
-      <c r="M92" s="42"/>
-      <c r="N92" s="42"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" s="42"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="42"/>
-      <c r="L93" s="42"/>
-      <c r="M93" s="42"/>
-      <c r="N93" s="42"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="D93" s="42"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="D94" s="41"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42"/>
-      <c r="L94" s="42"/>
-      <c r="M94" s="42"/>
-      <c r="N94" s="42"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="D94" s="42"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="42"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="42"/>
-      <c r="M95" s="42"/>
-      <c r="N95" s="42"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="D95" s="42"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="42"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="D96" s="41"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="42"/>
-      <c r="N96" s="42"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="D96" s="42"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="42"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="D97" s="41"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="42"/>
-      <c r="L97" s="42"/>
-      <c r="M97" s="42"/>
-      <c r="N97" s="42"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="D97" s="42"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="43"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="D98" s="41"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="42"/>
-      <c r="M98" s="42"/>
-      <c r="N98" s="42"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="D98" s="42"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="D99" s="41"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="42"/>
-      <c r="L99" s="42"/>
-      <c r="M99" s="42"/>
-      <c r="N99" s="42"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="D99" s="42"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="D100" s="41"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="42"/>
-      <c r="L100" s="42"/>
-      <c r="M100" s="42"/>
-      <c r="N100" s="42"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="D100" s="42"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="D101" s="41"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="42"/>
-      <c r="M101" s="42"/>
-      <c r="N101" s="42"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="D101" s="42"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="42"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="D102" s="41"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="42"/>
-      <c r="L102" s="42"/>
-      <c r="M102" s="42"/>
-      <c r="N102" s="42"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="D102" s="42"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="D103" s="41"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="42"/>
-      <c r="L103" s="42"/>
-      <c r="M103" s="42"/>
-      <c r="N103" s="42"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="D103" s="42"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="42"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="D104" s="41"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="42"/>
-      <c r="M104" s="42"/>
-      <c r="N104" s="42"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="D104" s="42"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="42"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="D105" s="41"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="42"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="42"/>
-      <c r="M105" s="42"/>
-      <c r="N105" s="42"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="D105" s="42"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="42"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="D106" s="41"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="42"/>
-      <c r="M106" s="42"/>
-      <c r="N106" s="42"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="D106" s="42"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="43"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="42"/>
-      <c r="B107" s="42"/>
-      <c r="C107" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="D107" s="41"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="42"/>
-      <c r="M107" s="42"/>
-      <c r="N107" s="42"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="D107" s="42"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="43"/>
+      <c r="N107" s="43"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="42"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="D108" s="41"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="42"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
-      <c r="K108" s="42"/>
-      <c r="L108" s="42"/>
-      <c r="M108" s="42"/>
-      <c r="N108" s="42"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="D108" s="42"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="D109" s="41"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="42"/>
-      <c r="L109" s="42"/>
-      <c r="M109" s="42"/>
-      <c r="N109" s="42"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="D109" s="42"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="43"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="42"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="D110" s="41"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="42"/>
-      <c r="K110" s="42"/>
-      <c r="L110" s="42"/>
-      <c r="M110" s="42"/>
-      <c r="N110" s="42"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="D110" s="42"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="43"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="42"/>
-      <c r="B111" s="42"/>
-      <c r="C111" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="D111" s="41"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="42"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="42"/>
-      <c r="J111" s="42"/>
-      <c r="K111" s="42"/>
-      <c r="L111" s="42"/>
-      <c r="M111" s="42"/>
-      <c r="N111" s="42"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="D111" s="42"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="43"/>
+      <c r="N111" s="43"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="42"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="D112" s="41"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="42"/>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
-      <c r="K112" s="42"/>
-      <c r="L112" s="42"/>
-      <c r="M112" s="42"/>
-      <c r="N112" s="42"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D112" s="42"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="43"/>
+      <c r="M112" s="43"/>
+      <c r="N112" s="43"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="42"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="D113" s="41"/>
-      <c r="E113" s="42"/>
-      <c r="F113" s="42"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
-      <c r="K113" s="42"/>
-      <c r="L113" s="42"/>
-      <c r="M113" s="42"/>
-      <c r="N113" s="42"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="D113" s="42"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="43"/>
+      <c r="M113" s="43"/>
+      <c r="N113" s="43"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="42"/>
-      <c r="B114" s="42"/>
-      <c r="C114" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="D114" s="41"/>
-      <c r="E114" s="42"/>
-      <c r="F114" s="42"/>
-      <c r="G114" s="42"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="42"/>
-      <c r="K114" s="42"/>
-      <c r="L114" s="42"/>
-      <c r="M114" s="42"/>
-      <c r="N114" s="42"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="D114" s="42"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="43"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="43"/>
+      <c r="M114" s="43"/>
+      <c r="N114" s="43"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="42"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="D115" s="41"/>
-      <c r="E115" s="42"/>
-      <c r="F115" s="42"/>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="42"/>
-      <c r="K115" s="42"/>
-      <c r="L115" s="42"/>
-      <c r="M115" s="42"/>
-      <c r="N115" s="42"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D115" s="42"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="43"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="43"/>
+      <c r="M115" s="43"/>
+      <c r="N115" s="43"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="42"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="D116" s="41"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="42"/>
-      <c r="M116" s="42"/>
-      <c r="N116" s="42"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="D116" s="42"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="43"/>
+      <c r="N116" s="43"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="42"/>
-      <c r="B117" s="42"/>
-      <c r="C117" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="D117" s="41"/>
-      <c r="E117" s="42"/>
-      <c r="F117" s="42"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="42"/>
-      <c r="L117" s="42"/>
-      <c r="M117" s="42"/>
-      <c r="N117" s="42"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D117" s="42"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="43"/>
+      <c r="N117" s="43"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="42"/>
-      <c r="B118" s="42"/>
-      <c r="C118" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="D118" s="41"/>
-      <c r="E118" s="42"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="42"/>
-      <c r="K118" s="42"/>
-      <c r="L118" s="42"/>
-      <c r="M118" s="42"/>
-      <c r="N118" s="42"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D118" s="42"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
+      <c r="M118" s="43"/>
+      <c r="N118" s="43"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="42"/>
-      <c r="B119" s="42"/>
-      <c r="C119" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="D119" s="41"/>
-      <c r="E119" s="42"/>
-      <c r="F119" s="42"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="42"/>
-      <c r="K119" s="42"/>
-      <c r="L119" s="42"/>
-      <c r="M119" s="42"/>
-      <c r="N119" s="42"/>
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D119" s="42"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="43"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
+      <c r="M119" s="43"/>
+      <c r="N119" s="43"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="42"/>
-      <c r="B120" s="42"/>
-      <c r="C120" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="D120" s="41"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="42"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="42"/>
-      <c r="J120" s="42"/>
-      <c r="K120" s="42"/>
-      <c r="L120" s="42"/>
-      <c r="M120" s="42"/>
-      <c r="N120" s="42"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D120" s="42"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="43"/>
+      <c r="J120" s="43"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="43"/>
+      <c r="M120" s="43"/>
+      <c r="N120" s="43"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="42"/>
-      <c r="B121" s="42"/>
-      <c r="C121" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="D121" s="41"/>
-      <c r="E121" s="42"/>
-      <c r="F121" s="42"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="42"/>
-      <c r="I121" s="42"/>
-      <c r="J121" s="42"/>
-      <c r="K121" s="42"/>
-      <c r="L121" s="42"/>
-      <c r="M121" s="42"/>
-      <c r="N121" s="42"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="D121" s="42"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="43"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="43"/>
+      <c r="N121" s="43"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="42"/>
-      <c r="B122" s="42"/>
-      <c r="C122" s="42" t="s">
-        <v>388</v>
-      </c>
-      <c r="D122" s="41"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="42"/>
-      <c r="K122" s="42"/>
-      <c r="L122" s="42"/>
-      <c r="M122" s="42"/>
-      <c r="N122" s="42"/>
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="D122" s="42"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="42"/>
-      <c r="B123" s="42"/>
-      <c r="C123" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="D123" s="41"/>
-      <c r="E123" s="42"/>
-      <c r="F123" s="42"/>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
-      <c r="K123" s="42"/>
-      <c r="L123" s="42"/>
-      <c r="M123" s="42"/>
-      <c r="N123" s="42"/>
+      <c r="A123" s="43"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D123" s="42"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="43"/>
+      <c r="I123" s="43"/>
+      <c r="J123" s="43"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="43"/>
+      <c r="M123" s="43"/>
+      <c r="N123" s="43"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="42"/>
-      <c r="B124" s="42"/>
-      <c r="C124" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="D124" s="41"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="42"/>
-      <c r="K124" s="42"/>
-      <c r="L124" s="42"/>
-      <c r="M124" s="42"/>
-      <c r="N124" s="42"/>
+      <c r="A124" s="43"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="D124" s="42"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="43"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="43"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="42"/>
-      <c r="B125" s="42"/>
-      <c r="C125" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="D125" s="41"/>
-      <c r="E125" s="42"/>
-      <c r="F125" s="42"/>
-      <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
-      <c r="I125" s="42"/>
-      <c r="J125" s="42"/>
-      <c r="K125" s="42"/>
-      <c r="L125" s="42"/>
-      <c r="M125" s="42"/>
-      <c r="N125" s="42"/>
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="D125" s="42"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43"/>
+      <c r="I125" s="43"/>
+      <c r="J125" s="43"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="43"/>
+      <c r="N125" s="43"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="42"/>
-      <c r="B126" s="42"/>
-      <c r="C126" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="D126" s="41"/>
-      <c r="E126" s="42"/>
-      <c r="F126" s="42"/>
-      <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
-      <c r="I126" s="42"/>
-      <c r="J126" s="42"/>
-      <c r="K126" s="42"/>
-      <c r="L126" s="42"/>
-      <c r="M126" s="42"/>
-      <c r="N126" s="42"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="D126" s="42"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="43"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43"/>
+      <c r="I126" s="43"/>
+      <c r="J126" s="43"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="43"/>
+      <c r="M126" s="43"/>
+      <c r="N126" s="43"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="42"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="D127" s="41"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="42"/>
-      <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42"/>
-      <c r="J127" s="42"/>
-      <c r="K127" s="42"/>
-      <c r="L127" s="42"/>
-      <c r="M127" s="42"/>
-      <c r="N127" s="42"/>
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="D127" s="42"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43"/>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43"/>
+      <c r="M127" s="43"/>
+      <c r="N127" s="43"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="42"/>
-      <c r="B128" s="42"/>
-      <c r="C128" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="D128" s="41"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="42"/>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="42"/>
-      <c r="K128" s="42"/>
-      <c r="L128" s="42"/>
-      <c r="M128" s="42"/>
-      <c r="N128" s="42"/>
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="D128" s="42"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="43"/>
+      <c r="J128" s="43"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43"/>
+      <c r="M128" s="43"/>
+      <c r="N128" s="43"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="42"/>
-      <c r="B129" s="42"/>
-      <c r="C129" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="D129" s="41"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="42"/>
-      <c r="G129" s="42"/>
-      <c r="H129" s="42"/>
-      <c r="I129" s="42"/>
-      <c r="J129" s="42"/>
-      <c r="K129" s="42"/>
-      <c r="L129" s="42"/>
-      <c r="M129" s="42"/>
-      <c r="N129" s="42"/>
+      <c r="A129" s="43"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="D129" s="42"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="43"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="42"/>
-      <c r="B130" s="42"/>
-      <c r="C130" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="D130" s="41"/>
-      <c r="E130" s="42"/>
-      <c r="F130" s="42"/>
-      <c r="G130" s="42"/>
-      <c r="H130" s="42"/>
-      <c r="I130" s="42"/>
-      <c r="J130" s="42"/>
-      <c r="K130" s="42"/>
-      <c r="L130" s="42"/>
-      <c r="M130" s="42"/>
-      <c r="N130" s="42"/>
+      <c r="A130" s="43"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="D130" s="42"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="43"/>
+      <c r="I130" s="43"/>
+      <c r="J130" s="43"/>
+      <c r="K130" s="43"/>
+      <c r="L130" s="43"/>
+      <c r="M130" s="43"/>
+      <c r="N130" s="43"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="42"/>
-      <c r="B131" s="42"/>
-      <c r="C131" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="D131" s="41"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="42"/>
-      <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
-      <c r="I131" s="42"/>
-      <c r="J131" s="42"/>
-      <c r="K131" s="42"/>
-      <c r="L131" s="42"/>
-      <c r="M131" s="42"/>
-      <c r="N131" s="42"/>
+      <c r="A131" s="43"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="D131" s="42"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="43"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="43"/>
+      <c r="I131" s="43"/>
+      <c r="J131" s="43"/>
+      <c r="K131" s="43"/>
+      <c r="L131" s="43"/>
+      <c r="M131" s="43"/>
+      <c r="N131" s="43"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="42"/>
-      <c r="B132" s="42"/>
-      <c r="C132" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="D132" s="41"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="42"/>
-      <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="42"/>
-      <c r="J132" s="42"/>
-      <c r="K132" s="42"/>
-      <c r="L132" s="42"/>
-      <c r="M132" s="42"/>
-      <c r="N132" s="42"/>
+      <c r="A132" s="43"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D132" s="42"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="43"/>
+      <c r="M132" s="43"/>
+      <c r="N132" s="43"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="42"/>
-      <c r="B133" s="42"/>
-      <c r="C133" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="D133" s="41"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="42"/>
-      <c r="K133" s="42"/>
-      <c r="L133" s="42"/>
-      <c r="M133" s="42"/>
-      <c r="N133" s="42"/>
+      <c r="A133" s="43"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="D133" s="42"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="43"/>
+      <c r="M133" s="43"/>
+      <c r="N133" s="43"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="42"/>
-      <c r="B134" s="42"/>
-      <c r="C134" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="D134" s="41"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="42"/>
-      <c r="G134" s="42"/>
-      <c r="H134" s="42"/>
-      <c r="I134" s="42"/>
-      <c r="J134" s="42"/>
-      <c r="K134" s="42"/>
-      <c r="L134" s="42"/>
-      <c r="M134" s="42"/>
-      <c r="N134" s="42"/>
+      <c r="A134" s="43"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D134" s="42"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="43"/>
+      <c r="G134" s="43"/>
+      <c r="H134" s="43"/>
+      <c r="I134" s="43"/>
+      <c r="J134" s="43"/>
+      <c r="K134" s="43"/>
+      <c r="L134" s="43"/>
+      <c r="M134" s="43"/>
+      <c r="N134" s="43"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="42"/>
-      <c r="B135" s="42"/>
-      <c r="C135" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="D135" s="41"/>
-      <c r="E135" s="42"/>
-      <c r="F135" s="42"/>
-      <c r="G135" s="42"/>
-      <c r="H135" s="42"/>
-      <c r="I135" s="42"/>
-      <c r="J135" s="42"/>
-      <c r="K135" s="42"/>
-      <c r="L135" s="42"/>
-      <c r="M135" s="42"/>
-      <c r="N135" s="42"/>
+      <c r="A135" s="43"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="D135" s="42"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="43"/>
+      <c r="H135" s="43"/>
+      <c r="I135" s="43"/>
+      <c r="J135" s="43"/>
+      <c r="K135" s="43"/>
+      <c r="L135" s="43"/>
+      <c r="M135" s="43"/>
+      <c r="N135" s="43"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="42"/>
-      <c r="B136" s="42"/>
-      <c r="C136" s="42" t="s">
-        <v>402</v>
-      </c>
-      <c r="D136" s="41"/>
-      <c r="E136" s="42"/>
-      <c r="F136" s="42"/>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="42"/>
-      <c r="J136" s="42"/>
-      <c r="K136" s="42"/>
-      <c r="L136" s="42"/>
-      <c r="M136" s="42"/>
-      <c r="N136" s="42"/>
+      <c r="A136" s="43"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="D136" s="42"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="43"/>
+      <c r="H136" s="43"/>
+      <c r="I136" s="43"/>
+      <c r="J136" s="43"/>
+      <c r="K136" s="43"/>
+      <c r="L136" s="43"/>
+      <c r="M136" s="43"/>
+      <c r="N136" s="43"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="42"/>
-      <c r="B137" s="42"/>
-      <c r="C137" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="D137" s="41"/>
-      <c r="E137" s="42"/>
-      <c r="F137" s="42"/>
-      <c r="G137" s="42"/>
-      <c r="H137" s="42"/>
-      <c r="I137" s="42"/>
-      <c r="J137" s="42"/>
-      <c r="K137" s="42"/>
-      <c r="L137" s="42"/>
-      <c r="M137" s="42"/>
-      <c r="N137" s="42"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="D137" s="42"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="43"/>
+      <c r="I137" s="43"/>
+      <c r="J137" s="43"/>
+      <c r="K137" s="43"/>
+      <c r="L137" s="43"/>
+      <c r="M137" s="43"/>
+      <c r="N137" s="43"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="42"/>
-      <c r="B138" s="42"/>
-      <c r="C138" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="D138" s="41"/>
-      <c r="E138" s="42"/>
-      <c r="F138" s="42"/>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
-      <c r="J138" s="42"/>
-      <c r="K138" s="42"/>
-      <c r="L138" s="42"/>
-      <c r="M138" s="42"/>
-      <c r="N138" s="42"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="D138" s="42"/>
+      <c r="E138" s="43"/>
+      <c r="F138" s="43"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="43"/>
+      <c r="K138" s="43"/>
+      <c r="L138" s="43"/>
+      <c r="M138" s="43"/>
+      <c r="N138" s="43"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="42"/>
-      <c r="B139" s="42"/>
-      <c r="C139" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="D139" s="41"/>
-      <c r="E139" s="42"/>
-      <c r="F139" s="42"/>
-      <c r="G139" s="42"/>
-      <c r="H139" s="42"/>
-      <c r="I139" s="42"/>
-      <c r="J139" s="42"/>
-      <c r="K139" s="42"/>
-      <c r="L139" s="42"/>
-      <c r="M139" s="42"/>
-      <c r="N139" s="42"/>
+      <c r="A139" s="43"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D139" s="42"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="43"/>
+      <c r="G139" s="43"/>
+      <c r="H139" s="43"/>
+      <c r="I139" s="43"/>
+      <c r="J139" s="43"/>
+      <c r="K139" s="43"/>
+      <c r="L139" s="43"/>
+      <c r="M139" s="43"/>
+      <c r="N139" s="43"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="42"/>
-      <c r="B140" s="42"/>
-      <c r="C140" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="D140" s="41"/>
-      <c r="E140" s="42"/>
-      <c r="F140" s="42"/>
-      <c r="G140" s="42"/>
-      <c r="H140" s="42"/>
-      <c r="I140" s="42"/>
-      <c r="J140" s="42"/>
-      <c r="K140" s="42"/>
-      <c r="L140" s="42"/>
-      <c r="M140" s="42"/>
-      <c r="N140" s="42"/>
+      <c r="A140" s="43"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="D140" s="42"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="43"/>
+      <c r="K140" s="43"/>
+      <c r="L140" s="43"/>
+      <c r="M140" s="43"/>
+      <c r="N140" s="43"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="42"/>
-      <c r="B141" s="42"/>
-      <c r="C141" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="D141" s="41"/>
-      <c r="E141" s="42"/>
-      <c r="F141" s="42"/>
-      <c r="G141" s="42"/>
-      <c r="H141" s="42"/>
-      <c r="I141" s="42"/>
-      <c r="J141" s="42"/>
-      <c r="K141" s="42"/>
-      <c r="L141" s="42"/>
-      <c r="M141" s="42"/>
-      <c r="N141" s="42"/>
+      <c r="A141" s="43"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="D141" s="42"/>
+      <c r="E141" s="43"/>
+      <c r="F141" s="43"/>
+      <c r="G141" s="43"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
+      <c r="J141" s="43"/>
+      <c r="K141" s="43"/>
+      <c r="L141" s="43"/>
+      <c r="M141" s="43"/>
+      <c r="N141" s="43"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="42"/>
-      <c r="B142" s="42"/>
-      <c r="C142" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="D142" s="41"/>
-      <c r="E142" s="42"/>
-      <c r="F142" s="42"/>
-      <c r="G142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="42"/>
-      <c r="J142" s="42"/>
-      <c r="K142" s="42"/>
-      <c r="L142" s="42"/>
-      <c r="M142" s="42"/>
-      <c r="N142" s="42"/>
+      <c r="A142" s="43"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="D142" s="42"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
+      <c r="K142" s="43"/>
+      <c r="L142" s="43"/>
+      <c r="M142" s="43"/>
+      <c r="N142" s="43"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="42"/>
-      <c r="B143" s="42"/>
-      <c r="C143" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="D143" s="41"/>
-      <c r="E143" s="42"/>
-      <c r="F143" s="42"/>
-      <c r="G143" s="42"/>
-      <c r="H143" s="42"/>
-      <c r="I143" s="42"/>
-      <c r="J143" s="42"/>
-      <c r="K143" s="42"/>
-      <c r="L143" s="42"/>
-      <c r="M143" s="42"/>
-      <c r="N143" s="42"/>
+      <c r="A143" s="43"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D143" s="42"/>
+      <c r="E143" s="43"/>
+      <c r="F143" s="43"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="43"/>
+      <c r="J143" s="43"/>
+      <c r="K143" s="43"/>
+      <c r="L143" s="43"/>
+      <c r="M143" s="43"/>
+      <c r="N143" s="43"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="42"/>
-      <c r="B144" s="42"/>
-      <c r="C144" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="D144" s="41"/>
-      <c r="E144" s="42"/>
-      <c r="F144" s="42"/>
-      <c r="G144" s="42"/>
-      <c r="H144" s="42"/>
-      <c r="I144" s="42"/>
-      <c r="J144" s="42"/>
-      <c r="K144" s="42"/>
-      <c r="L144" s="42"/>
-      <c r="M144" s="42"/>
-      <c r="N144" s="42"/>
+      <c r="A144" s="43"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="D144" s="42"/>
+      <c r="E144" s="43"/>
+      <c r="F144" s="43"/>
+      <c r="G144" s="43"/>
+      <c r="H144" s="43"/>
+      <c r="I144" s="43"/>
+      <c r="J144" s="43"/>
+      <c r="K144" s="43"/>
+      <c r="L144" s="43"/>
+      <c r="M144" s="43"/>
+      <c r="N144" s="43"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="42"/>
-      <c r="B145" s="42"/>
-      <c r="C145" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="D145" s="41"/>
-      <c r="E145" s="42"/>
-      <c r="F145" s="42"/>
-      <c r="G145" s="42"/>
-      <c r="H145" s="42"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="42"/>
-      <c r="K145" s="42"/>
-      <c r="L145" s="42"/>
-      <c r="M145" s="42"/>
-      <c r="N145" s="42"/>
+      <c r="A145" s="43"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="D145" s="42"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="43"/>
+      <c r="I145" s="43"/>
+      <c r="J145" s="43"/>
+      <c r="K145" s="43"/>
+      <c r="L145" s="43"/>
+      <c r="M145" s="43"/>
+      <c r="N145" s="43"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="42"/>
-      <c r="B146" s="42"/>
-      <c r="C146" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="D146" s="41"/>
-      <c r="E146" s="42"/>
-      <c r="F146" s="42"/>
-      <c r="G146" s="42"/>
-      <c r="H146" s="42"/>
-      <c r="I146" s="42"/>
-      <c r="J146" s="42"/>
-      <c r="K146" s="42"/>
-      <c r="L146" s="42"/>
-      <c r="M146" s="42"/>
-      <c r="N146" s="42"/>
+      <c r="A146" s="43"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="D146" s="42"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="43"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="43"/>
+      <c r="I146" s="43"/>
+      <c r="J146" s="43"/>
+      <c r="K146" s="43"/>
+      <c r="L146" s="43"/>
+      <c r="M146" s="43"/>
+      <c r="N146" s="43"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="42"/>
-      <c r="B147" s="42"/>
-      <c r="C147" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D147" s="41"/>
-      <c r="E147" s="42"/>
-      <c r="F147" s="42"/>
-      <c r="G147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="42"/>
-      <c r="K147" s="42"/>
-      <c r="L147" s="42"/>
-      <c r="M147" s="42"/>
-      <c r="N147" s="42"/>
+      <c r="A147" s="43"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="D147" s="42"/>
+      <c r="E147" s="43"/>
+      <c r="F147" s="43"/>
+      <c r="G147" s="43"/>
+      <c r="H147" s="43"/>
+      <c r="I147" s="43"/>
+      <c r="J147" s="43"/>
+      <c r="K147" s="43"/>
+      <c r="L147" s="43"/>
+      <c r="M147" s="43"/>
+      <c r="N147" s="43"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="42"/>
-      <c r="B148" s="42"/>
-      <c r="C148" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="D148" s="41"/>
-      <c r="E148" s="42"/>
-      <c r="F148" s="42"/>
-      <c r="G148" s="42"/>
-      <c r="H148" s="42"/>
-      <c r="I148" s="42"/>
-      <c r="J148" s="42"/>
-      <c r="K148" s="42"/>
-      <c r="L148" s="42"/>
-      <c r="M148" s="42"/>
-      <c r="N148" s="42"/>
+      <c r="A148" s="43"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="D148" s="42"/>
+      <c r="E148" s="43"/>
+      <c r="F148" s="43"/>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="43"/>
+      <c r="J148" s="43"/>
+      <c r="K148" s="43"/>
+      <c r="L148" s="43"/>
+      <c r="M148" s="43"/>
+      <c r="N148" s="43"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="42"/>
-      <c r="B149" s="42"/>
-      <c r="C149" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="D149" s="41"/>
-      <c r="E149" s="42"/>
-      <c r="F149" s="42"/>
-      <c r="G149" s="42"/>
-      <c r="H149" s="42"/>
-      <c r="I149" s="42"/>
-      <c r="J149" s="42"/>
-      <c r="K149" s="42"/>
-      <c r="L149" s="42"/>
-      <c r="M149" s="42"/>
-      <c r="N149" s="42"/>
+      <c r="A149" s="43"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="D149" s="42"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="43"/>
+      <c r="J149" s="43"/>
+      <c r="K149" s="43"/>
+      <c r="L149" s="43"/>
+      <c r="M149" s="43"/>
+      <c r="N149" s="43"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="42"/>
-      <c r="B150" s="42"/>
-      <c r="C150" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="D150" s="41"/>
-      <c r="E150" s="42"/>
-      <c r="F150" s="42"/>
-      <c r="G150" s="42"/>
-      <c r="H150" s="42"/>
-      <c r="I150" s="42"/>
-      <c r="J150" s="42"/>
-      <c r="K150" s="42"/>
-      <c r="L150" s="42"/>
-      <c r="M150" s="42"/>
-      <c r="N150" s="42"/>
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="D150" s="42"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="43"/>
+      <c r="G150" s="43"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="43"/>
+      <c r="J150" s="43"/>
+      <c r="K150" s="43"/>
+      <c r="L150" s="43"/>
+      <c r="M150" s="43"/>
+      <c r="N150" s="43"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="42"/>
-      <c r="B151" s="42"/>
-      <c r="C151" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="D151" s="41"/>
-      <c r="E151" s="42"/>
-      <c r="F151" s="42"/>
-      <c r="G151" s="42"/>
-      <c r="H151" s="42"/>
-      <c r="I151" s="42"/>
-      <c r="J151" s="42"/>
-      <c r="K151" s="42"/>
-      <c r="L151" s="42"/>
-      <c r="M151" s="42"/>
-      <c r="N151" s="42"/>
+      <c r="A151" s="43"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D151" s="42"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="43"/>
+      <c r="G151" s="43"/>
+      <c r="H151" s="43"/>
+      <c r="I151" s="43"/>
+      <c r="J151" s="43"/>
+      <c r="K151" s="43"/>
+      <c r="L151" s="43"/>
+      <c r="M151" s="43"/>
+      <c r="N151" s="43"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="42"/>
-      <c r="B152" s="42"/>
-      <c r="C152" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="D152" s="41"/>
-      <c r="E152" s="42"/>
-      <c r="F152" s="42"/>
-      <c r="G152" s="42"/>
-      <c r="H152" s="42"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="42"/>
-      <c r="K152" s="42"/>
-      <c r="L152" s="42"/>
-      <c r="M152" s="42"/>
-      <c r="N152" s="42"/>
+      <c r="A152" s="43"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="D152" s="42"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="43"/>
+      <c r="G152" s="43"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="43"/>
+      <c r="K152" s="43"/>
+      <c r="L152" s="43"/>
+      <c r="M152" s="43"/>
+      <c r="N152" s="43"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="42"/>
-      <c r="B153" s="42"/>
-      <c r="C153" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="D153" s="41"/>
-      <c r="E153" s="42"/>
-      <c r="F153" s="42"/>
-      <c r="G153" s="42"/>
-      <c r="H153" s="42"/>
-      <c r="I153" s="42"/>
-      <c r="J153" s="42"/>
-      <c r="K153" s="42"/>
-      <c r="L153" s="42"/>
-      <c r="M153" s="42"/>
-      <c r="N153" s="42"/>
+      <c r="A153" s="43"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="D153" s="42"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="43"/>
+      <c r="J153" s="43"/>
+      <c r="K153" s="43"/>
+      <c r="L153" s="43"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="43"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="42"/>
-      <c r="B154" s="42"/>
-      <c r="C154" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="D154" s="41"/>
-      <c r="E154" s="42"/>
-      <c r="F154" s="42"/>
-      <c r="G154" s="42"/>
-      <c r="H154" s="42"/>
-      <c r="I154" s="42"/>
-      <c r="J154" s="42"/>
-      <c r="K154" s="42"/>
-      <c r="L154" s="42"/>
-      <c r="M154" s="42"/>
-      <c r="N154" s="42"/>
+      <c r="A154" s="43"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="D154" s="42"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
+      <c r="G154" s="43"/>
+      <c r="H154" s="43"/>
+      <c r="I154" s="43"/>
+      <c r="J154" s="43"/>
+      <c r="K154" s="43"/>
+      <c r="L154" s="43"/>
+      <c r="M154" s="43"/>
+      <c r="N154" s="43"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="42"/>
-      <c r="B155" s="42"/>
-      <c r="C155" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="D155" s="41"/>
-      <c r="E155" s="42"/>
-      <c r="F155" s="42"/>
-      <c r="G155" s="42"/>
-      <c r="H155" s="42"/>
-      <c r="I155" s="42"/>
-      <c r="J155" s="42"/>
-      <c r="K155" s="42"/>
-      <c r="L155" s="42"/>
-      <c r="M155" s="42"/>
-      <c r="N155" s="42"/>
+      <c r="A155" s="43"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="D155" s="42"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="43"/>
+      <c r="G155" s="43"/>
+      <c r="H155" s="43"/>
+      <c r="I155" s="43"/>
+      <c r="J155" s="43"/>
+      <c r="K155" s="43"/>
+      <c r="L155" s="43"/>
+      <c r="M155" s="43"/>
+      <c r="N155" s="43"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="42"/>
-      <c r="B156" s="42"/>
-      <c r="C156" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="D156" s="41"/>
-      <c r="E156" s="42"/>
-      <c r="F156" s="42"/>
-      <c r="G156" s="42"/>
-      <c r="H156" s="42"/>
-      <c r="I156" s="42"/>
-      <c r="J156" s="42"/>
-      <c r="K156" s="42"/>
-      <c r="L156" s="42"/>
-      <c r="M156" s="42"/>
-      <c r="N156" s="42"/>
+      <c r="A156" s="43"/>
+      <c r="B156" s="43"/>
+      <c r="C156" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D156" s="42"/>
+      <c r="E156" s="43"/>
+      <c r="F156" s="43"/>
+      <c r="G156" s="43"/>
+      <c r="H156" s="43"/>
+      <c r="I156" s="43"/>
+      <c r="J156" s="43"/>
+      <c r="K156" s="43"/>
+      <c r="L156" s="43"/>
+      <c r="M156" s="43"/>
+      <c r="N156" s="43"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="42"/>
-      <c r="B157" s="42"/>
-      <c r="C157" s="42" t="s">
-        <v>423</v>
-      </c>
-      <c r="D157" s="41"/>
-      <c r="E157" s="42"/>
-      <c r="F157" s="42"/>
-      <c r="G157" s="42"/>
-      <c r="H157" s="42"/>
-      <c r="I157" s="42"/>
-      <c r="J157" s="42"/>
-      <c r="K157" s="42"/>
-      <c r="L157" s="42"/>
-      <c r="M157" s="42"/>
-      <c r="N157" s="42"/>
+      <c r="A157" s="43"/>
+      <c r="B157" s="43"/>
+      <c r="C157" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="D157" s="42"/>
+      <c r="E157" s="43"/>
+      <c r="F157" s="43"/>
+      <c r="G157" s="43"/>
+      <c r="H157" s="43"/>
+      <c r="I157" s="43"/>
+      <c r="J157" s="43"/>
+      <c r="K157" s="43"/>
+      <c r="L157" s="43"/>
+      <c r="M157" s="43"/>
+      <c r="N157" s="43"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="42"/>
-      <c r="B158" s="42"/>
-      <c r="C158" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="D158" s="41"/>
-      <c r="E158" s="42"/>
-      <c r="F158" s="42"/>
-      <c r="G158" s="42"/>
-      <c r="H158" s="42"/>
-      <c r="I158" s="42"/>
-      <c r="J158" s="42"/>
-      <c r="K158" s="42"/>
-      <c r="L158" s="42"/>
-      <c r="M158" s="42"/>
-      <c r="N158" s="42"/>
+      <c r="A158" s="43"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="D158" s="42"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="43"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="43"/>
+      <c r="J158" s="43"/>
+      <c r="K158" s="43"/>
+      <c r="L158" s="43"/>
+      <c r="M158" s="43"/>
+      <c r="N158" s="43"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="42"/>
-      <c r="B159" s="42"/>
-      <c r="C159" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="D159" s="41"/>
-      <c r="E159" s="42"/>
-      <c r="F159" s="42"/>
-      <c r="G159" s="42"/>
-      <c r="H159" s="42"/>
-      <c r="I159" s="42"/>
-      <c r="J159" s="42"/>
-      <c r="K159" s="42"/>
-      <c r="L159" s="42"/>
-      <c r="M159" s="42"/>
-      <c r="N159" s="42"/>
+      <c r="A159" s="43"/>
+      <c r="B159" s="43"/>
+      <c r="C159" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="D159" s="42"/>
+      <c r="E159" s="43"/>
+      <c r="F159" s="43"/>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43"/>
+      <c r="I159" s="43"/>
+      <c r="J159" s="43"/>
+      <c r="K159" s="43"/>
+      <c r="L159" s="43"/>
+      <c r="M159" s="43"/>
+      <c r="N159" s="43"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="42"/>
-      <c r="B160" s="42"/>
-      <c r="C160" s="42" t="s">
-        <v>426</v>
-      </c>
-      <c r="D160" s="41"/>
-      <c r="E160" s="42"/>
-      <c r="F160" s="42"/>
-      <c r="G160" s="42"/>
-      <c r="H160" s="42"/>
-      <c r="I160" s="42"/>
-      <c r="J160" s="42"/>
-      <c r="K160" s="42"/>
-      <c r="L160" s="42"/>
-      <c r="M160" s="42"/>
-      <c r="N160" s="42"/>
+      <c r="A160" s="43"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="D160" s="42"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
+      <c r="I160" s="43"/>
+      <c r="J160" s="43"/>
+      <c r="K160" s="43"/>
+      <c r="L160" s="43"/>
+      <c r="M160" s="43"/>
+      <c r="N160" s="43"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="42"/>
-      <c r="B161" s="42"/>
-      <c r="C161" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="D161" s="41"/>
-      <c r="E161" s="42"/>
-      <c r="F161" s="42"/>
-      <c r="G161" s="42"/>
-      <c r="H161" s="42"/>
-      <c r="I161" s="42"/>
-      <c r="J161" s="42"/>
-      <c r="K161" s="42"/>
-      <c r="L161" s="42"/>
-      <c r="M161" s="42"/>
-      <c r="N161" s="42"/>
+      <c r="A161" s="43"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="D161" s="42"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="43"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="43"/>
+      <c r="I161" s="43"/>
+      <c r="J161" s="43"/>
+      <c r="K161" s="43"/>
+      <c r="L161" s="43"/>
+      <c r="M161" s="43"/>
+      <c r="N161" s="43"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="42"/>
-      <c r="B162" s="42"/>
-      <c r="C162" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="D162" s="41"/>
-      <c r="E162" s="42"/>
-      <c r="F162" s="42"/>
-      <c r="G162" s="42"/>
-      <c r="H162" s="42"/>
-      <c r="I162" s="42"/>
-      <c r="J162" s="42"/>
-      <c r="K162" s="42"/>
-      <c r="L162" s="42"/>
-      <c r="M162" s="42"/>
-      <c r="N162" s="42"/>
+      <c r="A162" s="43"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="D162" s="42"/>
+      <c r="E162" s="43"/>
+      <c r="F162" s="43"/>
+      <c r="G162" s="43"/>
+      <c r="H162" s="43"/>
+      <c r="I162" s="43"/>
+      <c r="J162" s="43"/>
+      <c r="K162" s="43"/>
+      <c r="L162" s="43"/>
+      <c r="M162" s="43"/>
+      <c r="N162" s="43"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="42"/>
-      <c r="B163" s="42"/>
-      <c r="C163" s="42" t="s">
-        <v>429</v>
-      </c>
-      <c r="D163" s="41"/>
-      <c r="E163" s="42"/>
-      <c r="F163" s="42"/>
-      <c r="G163" s="42"/>
-      <c r="H163" s="42"/>
-      <c r="I163" s="42"/>
-      <c r="J163" s="42"/>
-      <c r="K163" s="42"/>
-      <c r="L163" s="42"/>
-      <c r="M163" s="42"/>
-      <c r="N163" s="42"/>
+      <c r="A163" s="43"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="D163" s="42"/>
+      <c r="E163" s="43"/>
+      <c r="F163" s="43"/>
+      <c r="G163" s="43"/>
+      <c r="H163" s="43"/>
+      <c r="I163" s="43"/>
+      <c r="J163" s="43"/>
+      <c r="K163" s="43"/>
+      <c r="L163" s="43"/>
+      <c r="M163" s="43"/>
+      <c r="N163" s="43"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="42"/>
-      <c r="B164" s="42"/>
-      <c r="C164" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="D164" s="41"/>
-      <c r="E164" s="42"/>
-      <c r="F164" s="42"/>
-      <c r="G164" s="42"/>
-      <c r="H164" s="42"/>
-      <c r="I164" s="42"/>
-      <c r="J164" s="42"/>
-      <c r="K164" s="42"/>
-      <c r="L164" s="42"/>
-      <c r="M164" s="42"/>
-      <c r="N164" s="42"/>
+      <c r="A164" s="43"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="D164" s="42"/>
+      <c r="E164" s="43"/>
+      <c r="F164" s="43"/>
+      <c r="G164" s="43"/>
+      <c r="H164" s="43"/>
+      <c r="I164" s="43"/>
+      <c r="J164" s="43"/>
+      <c r="K164" s="43"/>
+      <c r="L164" s="43"/>
+      <c r="M164" s="43"/>
+      <c r="N164" s="43"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="42"/>
-      <c r="B165" s="42"/>
-      <c r="C165" s="42" t="s">
-        <v>431</v>
-      </c>
-      <c r="D165" s="41"/>
-      <c r="E165" s="42"/>
-      <c r="F165" s="42"/>
-      <c r="G165" s="42"/>
-      <c r="H165" s="42"/>
-      <c r="I165" s="42"/>
-      <c r="J165" s="42"/>
-      <c r="K165" s="42"/>
-      <c r="L165" s="42"/>
-      <c r="M165" s="42"/>
-      <c r="N165" s="42"/>
+      <c r="A165" s="43"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="D165" s="42"/>
+      <c r="E165" s="43"/>
+      <c r="F165" s="43"/>
+      <c r="G165" s="43"/>
+      <c r="H165" s="43"/>
+      <c r="I165" s="43"/>
+      <c r="J165" s="43"/>
+      <c r="K165" s="43"/>
+      <c r="L165" s="43"/>
+      <c r="M165" s="43"/>
+      <c r="N165" s="43"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="42"/>
-      <c r="B166" s="42"/>
-      <c r="C166" s="42" t="s">
-        <v>432</v>
-      </c>
-      <c r="D166" s="41"/>
-      <c r="E166" s="42"/>
-      <c r="F166" s="42"/>
-      <c r="G166" s="42"/>
-      <c r="H166" s="42"/>
-      <c r="I166" s="42"/>
-      <c r="J166" s="42"/>
-      <c r="K166" s="42"/>
-      <c r="L166" s="42"/>
-      <c r="M166" s="42"/>
-      <c r="N166" s="42"/>
+      <c r="A166" s="43"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="D166" s="42"/>
+      <c r="E166" s="43"/>
+      <c r="F166" s="43"/>
+      <c r="G166" s="43"/>
+      <c r="H166" s="43"/>
+      <c r="I166" s="43"/>
+      <c r="J166" s="43"/>
+      <c r="K166" s="43"/>
+      <c r="L166" s="43"/>
+      <c r="M166" s="43"/>
+      <c r="N166" s="43"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="42"/>
-      <c r="B167" s="42"/>
-      <c r="C167" s="42" t="s">
-        <v>433</v>
-      </c>
-      <c r="D167" s="41"/>
-      <c r="E167" s="42"/>
-      <c r="F167" s="42"/>
-      <c r="G167" s="42"/>
-      <c r="H167" s="42"/>
-      <c r="I167" s="42"/>
-      <c r="J167" s="42"/>
-      <c r="K167" s="42"/>
-      <c r="L167" s="42"/>
-      <c r="M167" s="42"/>
-      <c r="N167" s="42"/>
+      <c r="A167" s="43"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="D167" s="42"/>
+      <c r="E167" s="43"/>
+      <c r="F167" s="43"/>
+      <c r="G167" s="43"/>
+      <c r="H167" s="43"/>
+      <c r="I167" s="43"/>
+      <c r="J167" s="43"/>
+      <c r="K167" s="43"/>
+      <c r="L167" s="43"/>
+      <c r="M167" s="43"/>
+      <c r="N167" s="43"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="42"/>
-      <c r="B168" s="42"/>
-      <c r="C168" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="D168" s="41"/>
-      <c r="E168" s="42"/>
-      <c r="F168" s="42"/>
-      <c r="G168" s="42"/>
-      <c r="H168" s="42"/>
-      <c r="I168" s="42"/>
-      <c r="J168" s="42"/>
-      <c r="K168" s="42"/>
-      <c r="L168" s="42"/>
-      <c r="M168" s="42"/>
-      <c r="N168" s="42"/>
+      <c r="A168" s="43"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="D168" s="42"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="43"/>
+      <c r="G168" s="43"/>
+      <c r="H168" s="43"/>
+      <c r="I168" s="43"/>
+      <c r="J168" s="43"/>
+      <c r="K168" s="43"/>
+      <c r="L168" s="43"/>
+      <c r="M168" s="43"/>
+      <c r="N168" s="43"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="42"/>
-      <c r="B169" s="42"/>
-      <c r="C169" s="42" t="s">
-        <v>435</v>
-      </c>
-      <c r="D169" s="41"/>
-      <c r="E169" s="42"/>
-      <c r="F169" s="42"/>
-      <c r="G169" s="42"/>
-      <c r="H169" s="42"/>
-      <c r="I169" s="42"/>
-      <c r="J169" s="42"/>
-      <c r="K169" s="42"/>
-      <c r="L169" s="42"/>
-      <c r="M169" s="42"/>
-      <c r="N169" s="42"/>
+      <c r="A169" s="43"/>
+      <c r="B169" s="43"/>
+      <c r="C169" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="D169" s="42"/>
+      <c r="E169" s="43"/>
+      <c r="F169" s="43"/>
+      <c r="G169" s="43"/>
+      <c r="H169" s="43"/>
+      <c r="I169" s="43"/>
+      <c r="J169" s="43"/>
+      <c r="K169" s="43"/>
+      <c r="L169" s="43"/>
+      <c r="M169" s="43"/>
+      <c r="N169" s="43"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="42"/>
-      <c r="B170" s="42"/>
-      <c r="C170" s="42" t="s">
-        <v>436</v>
-      </c>
-      <c r="D170" s="41"/>
-      <c r="E170" s="42"/>
-      <c r="F170" s="42"/>
-      <c r="G170" s="42"/>
-      <c r="H170" s="42"/>
-      <c r="I170" s="42"/>
-      <c r="J170" s="42"/>
-      <c r="K170" s="42"/>
-      <c r="L170" s="42"/>
-      <c r="M170" s="42"/>
-      <c r="N170" s="42"/>
+      <c r="A170" s="43"/>
+      <c r="B170" s="43"/>
+      <c r="C170" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="D170" s="42"/>
+      <c r="E170" s="43"/>
+      <c r="F170" s="43"/>
+      <c r="G170" s="43"/>
+      <c r="H170" s="43"/>
+      <c r="I170" s="43"/>
+      <c r="J170" s="43"/>
+      <c r="K170" s="43"/>
+      <c r="L170" s="43"/>
+      <c r="M170" s="43"/>
+      <c r="N170" s="43"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="42"/>
-      <c r="B171" s="42"/>
-      <c r="C171" s="42" t="s">
-        <v>437</v>
-      </c>
-      <c r="D171" s="41"/>
-      <c r="E171" s="42"/>
-      <c r="F171" s="42"/>
-      <c r="G171" s="42"/>
-      <c r="H171" s="42"/>
-      <c r="I171" s="42"/>
-      <c r="J171" s="42"/>
-      <c r="K171" s="42"/>
-      <c r="L171" s="42"/>
-      <c r="M171" s="42"/>
-      <c r="N171" s="42"/>
+      <c r="A171" s="43"/>
+      <c r="B171" s="43"/>
+      <c r="C171" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="D171" s="42"/>
+      <c r="E171" s="43"/>
+      <c r="F171" s="43"/>
+      <c r="G171" s="43"/>
+      <c r="H171" s="43"/>
+      <c r="I171" s="43"/>
+      <c r="J171" s="43"/>
+      <c r="K171" s="43"/>
+      <c r="L171" s="43"/>
+      <c r="M171" s="43"/>
+      <c r="N171" s="43"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="42"/>
-      <c r="B172" s="42"/>
-      <c r="C172" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="D172" s="41"/>
-      <c r="E172" s="42"/>
-      <c r="F172" s="42"/>
-      <c r="G172" s="42"/>
-      <c r="H172" s="42"/>
-      <c r="I172" s="42"/>
-      <c r="J172" s="42"/>
-      <c r="K172" s="42"/>
-      <c r="L172" s="42"/>
-      <c r="M172" s="42"/>
-      <c r="N172" s="42"/>
+      <c r="A172" s="43"/>
+      <c r="B172" s="43"/>
+      <c r="C172" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="D172" s="42"/>
+      <c r="E172" s="43"/>
+      <c r="F172" s="43"/>
+      <c r="G172" s="43"/>
+      <c r="H172" s="43"/>
+      <c r="I172" s="43"/>
+      <c r="J172" s="43"/>
+      <c r="K172" s="43"/>
+      <c r="L172" s="43"/>
+      <c r="M172" s="43"/>
+      <c r="N172" s="43"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="42"/>
-      <c r="B173" s="42"/>
-      <c r="C173" s="42" t="s">
-        <v>439</v>
-      </c>
-      <c r="D173" s="41"/>
-      <c r="E173" s="42"/>
-      <c r="F173" s="42"/>
-      <c r="G173" s="42"/>
-      <c r="H173" s="42"/>
-      <c r="I173" s="42"/>
-      <c r="J173" s="42"/>
-      <c r="K173" s="42"/>
-      <c r="L173" s="42"/>
-      <c r="M173" s="42"/>
-      <c r="N173" s="42"/>
+      <c r="A173" s="43"/>
+      <c r="B173" s="43"/>
+      <c r="C173" s="43" t="s">
+        <v>440</v>
+      </c>
+      <c r="D173" s="42"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="43"/>
+      <c r="G173" s="43"/>
+      <c r="H173" s="43"/>
+      <c r="I173" s="43"/>
+      <c r="J173" s="43"/>
+      <c r="K173" s="43"/>
+      <c r="L173" s="43"/>
+      <c r="M173" s="43"/>
+      <c r="N173" s="43"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="42"/>
-      <c r="B174" s="42"/>
-      <c r="C174" s="42" t="s">
-        <v>440</v>
-      </c>
-      <c r="D174" s="41"/>
-      <c r="E174" s="42"/>
-      <c r="F174" s="42"/>
-      <c r="G174" s="42"/>
-      <c r="H174" s="42"/>
-      <c r="I174" s="42"/>
-      <c r="J174" s="42"/>
-      <c r="K174" s="42"/>
-      <c r="L174" s="42"/>
-      <c r="M174" s="42"/>
-      <c r="N174" s="42"/>
+      <c r="A174" s="43"/>
+      <c r="B174" s="43"/>
+      <c r="C174" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="D174" s="42"/>
+      <c r="E174" s="43"/>
+      <c r="F174" s="43"/>
+      <c r="G174" s="43"/>
+      <c r="H174" s="43"/>
+      <c r="I174" s="43"/>
+      <c r="J174" s="43"/>
+      <c r="K174" s="43"/>
+      <c r="L174" s="43"/>
+      <c r="M174" s="43"/>
+      <c r="N174" s="43"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="42"/>
-      <c r="B175" s="42"/>
-      <c r="C175" s="42" t="s">
-        <v>441</v>
-      </c>
-      <c r="D175" s="41"/>
-      <c r="E175" s="42"/>
-      <c r="F175" s="42"/>
-      <c r="G175" s="42"/>
-      <c r="H175" s="42"/>
-      <c r="I175" s="42"/>
-      <c r="J175" s="42"/>
-      <c r="K175" s="42"/>
-      <c r="L175" s="42"/>
-      <c r="M175" s="42"/>
-      <c r="N175" s="42"/>
+      <c r="A175" s="43"/>
+      <c r="B175" s="43"/>
+      <c r="C175" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="D175" s="42"/>
+      <c r="E175" s="43"/>
+      <c r="F175" s="43"/>
+      <c r="G175" s="43"/>
+      <c r="H175" s="43"/>
+      <c r="I175" s="43"/>
+      <c r="J175" s="43"/>
+      <c r="K175" s="43"/>
+      <c r="L175" s="43"/>
+      <c r="M175" s="43"/>
+      <c r="N175" s="43"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="42"/>
-      <c r="B176" s="42"/>
-      <c r="C176" s="42" t="s">
-        <v>442</v>
-      </c>
-      <c r="D176" s="41"/>
-      <c r="E176" s="42"/>
-      <c r="F176" s="42"/>
-      <c r="G176" s="42"/>
-      <c r="H176" s="42"/>
-      <c r="I176" s="42"/>
-      <c r="J176" s="42"/>
-      <c r="K176" s="42"/>
-      <c r="L176" s="42"/>
-      <c r="M176" s="42"/>
-      <c r="N176" s="42"/>
+      <c r="A176" s="43"/>
+      <c r="B176" s="43"/>
+      <c r="C176" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="D176" s="42"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="43"/>
+      <c r="G176" s="43"/>
+      <c r="H176" s="43"/>
+      <c r="I176" s="43"/>
+      <c r="J176" s="43"/>
+      <c r="K176" s="43"/>
+      <c r="L176" s="43"/>
+      <c r="M176" s="43"/>
+      <c r="N176" s="43"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="42"/>
-      <c r="B177" s="42"/>
-      <c r="C177" s="42" t="s">
-        <v>443</v>
-      </c>
-      <c r="D177" s="41"/>
-      <c r="E177" s="42"/>
-      <c r="F177" s="42"/>
-      <c r="G177" s="42"/>
-      <c r="H177" s="42"/>
-      <c r="I177" s="42"/>
-      <c r="J177" s="42"/>
-      <c r="K177" s="42"/>
-      <c r="L177" s="42"/>
-      <c r="M177" s="42"/>
-      <c r="N177" s="42"/>
+      <c r="A177" s="43"/>
+      <c r="B177" s="43"/>
+      <c r="C177" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="D177" s="42"/>
+      <c r="E177" s="43"/>
+      <c r="F177" s="43"/>
+      <c r="G177" s="43"/>
+      <c r="H177" s="43"/>
+      <c r="I177" s="43"/>
+      <c r="J177" s="43"/>
+      <c r="K177" s="43"/>
+      <c r="L177" s="43"/>
+      <c r="M177" s="43"/>
+      <c r="N177" s="43"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="42"/>
-      <c r="B178" s="42"/>
-      <c r="C178" s="42" t="s">
-        <v>444</v>
-      </c>
-      <c r="D178" s="41"/>
-      <c r="E178" s="42"/>
-      <c r="F178" s="42"/>
-      <c r="G178" s="42"/>
-      <c r="H178" s="42"/>
-      <c r="I178" s="42"/>
-      <c r="J178" s="42"/>
-      <c r="K178" s="42"/>
-      <c r="L178" s="42"/>
-      <c r="M178" s="42"/>
-      <c r="N178" s="42"/>
+      <c r="A178" s="43"/>
+      <c r="B178" s="43"/>
+      <c r="C178" s="43" t="s">
+        <v>445</v>
+      </c>
+      <c r="D178" s="42"/>
+      <c r="E178" s="43"/>
+      <c r="F178" s="43"/>
+      <c r="G178" s="43"/>
+      <c r="H178" s="43"/>
+      <c r="I178" s="43"/>
+      <c r="J178" s="43"/>
+      <c r="K178" s="43"/>
+      <c r="L178" s="43"/>
+      <c r="M178" s="43"/>
+      <c r="N178" s="43"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="42"/>
-      <c r="B179" s="42"/>
-      <c r="C179" s="42" t="s">
-        <v>445</v>
-      </c>
-      <c r="D179" s="41"/>
-      <c r="E179" s="42"/>
-      <c r="F179" s="42"/>
-      <c r="G179" s="42"/>
-      <c r="H179" s="42"/>
-      <c r="I179" s="42"/>
-      <c r="J179" s="42"/>
-      <c r="K179" s="42"/>
-      <c r="L179" s="42"/>
-      <c r="M179" s="42"/>
-      <c r="N179" s="42"/>
+      <c r="A179" s="43"/>
+      <c r="B179" s="43"/>
+      <c r="C179" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="D179" s="42"/>
+      <c r="E179" s="43"/>
+      <c r="F179" s="43"/>
+      <c r="G179" s="43"/>
+      <c r="H179" s="43"/>
+      <c r="I179" s="43"/>
+      <c r="J179" s="43"/>
+      <c r="K179" s="43"/>
+      <c r="L179" s="43"/>
+      <c r="M179" s="43"/>
+      <c r="N179" s="43"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="42"/>
-      <c r="B180" s="42"/>
-      <c r="C180" s="42" t="s">
-        <v>446</v>
-      </c>
-      <c r="D180" s="41"/>
-      <c r="E180" s="42"/>
-      <c r="F180" s="42"/>
-      <c r="G180" s="42"/>
-      <c r="H180" s="42"/>
-      <c r="I180" s="42"/>
-      <c r="J180" s="42"/>
-      <c r="K180" s="42"/>
-      <c r="L180" s="42"/>
-      <c r="M180" s="42"/>
-      <c r="N180" s="42"/>
+      <c r="A180" s="43"/>
+      <c r="B180" s="43"/>
+      <c r="C180" s="43" t="s">
+        <v>447</v>
+      </c>
+      <c r="D180" s="42"/>
+      <c r="E180" s="43"/>
+      <c r="F180" s="43"/>
+      <c r="G180" s="43"/>
+      <c r="H180" s="43"/>
+      <c r="I180" s="43"/>
+      <c r="J180" s="43"/>
+      <c r="K180" s="43"/>
+      <c r="L180" s="43"/>
+      <c r="M180" s="43"/>
+      <c r="N180" s="43"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="42"/>
-      <c r="B181" s="42"/>
-      <c r="C181" s="42" t="s">
-        <v>447</v>
-      </c>
-      <c r="D181" s="41"/>
-      <c r="E181" s="42"/>
-      <c r="F181" s="42"/>
-      <c r="G181" s="42"/>
-      <c r="H181" s="42"/>
-      <c r="I181" s="42"/>
-      <c r="J181" s="42"/>
-      <c r="K181" s="42"/>
-      <c r="L181" s="42"/>
-      <c r="M181" s="42"/>
-      <c r="N181" s="42"/>
+      <c r="A181" s="43"/>
+      <c r="B181" s="43"/>
+      <c r="C181" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="D181" s="42"/>
+      <c r="E181" s="43"/>
+      <c r="F181" s="43"/>
+      <c r="G181" s="43"/>
+      <c r="H181" s="43"/>
+      <c r="I181" s="43"/>
+      <c r="J181" s="43"/>
+      <c r="K181" s="43"/>
+      <c r="L181" s="43"/>
+      <c r="M181" s="43"/>
+      <c r="N181" s="43"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="42"/>
-      <c r="B182" s="42"/>
-      <c r="C182" s="42" t="s">
-        <v>448</v>
-      </c>
-      <c r="D182" s="41"/>
-      <c r="E182" s="42"/>
-      <c r="F182" s="42"/>
-      <c r="G182" s="42"/>
-      <c r="H182" s="42"/>
-      <c r="I182" s="42"/>
-      <c r="J182" s="42"/>
-      <c r="K182" s="42"/>
-      <c r="L182" s="42"/>
-      <c r="M182" s="42"/>
-      <c r="N182" s="42"/>
+      <c r="A182" s="43"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="D182" s="42"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="43"/>
+      <c r="J182" s="43"/>
+      <c r="K182" s="43"/>
+      <c r="L182" s="43"/>
+      <c r="M182" s="43"/>
+      <c r="N182" s="43"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="42"/>
-      <c r="B183" s="42"/>
-      <c r="C183" s="42" t="s">
-        <v>449</v>
-      </c>
-      <c r="D183" s="41"/>
-      <c r="E183" s="42"/>
-      <c r="F183" s="42"/>
-      <c r="G183" s="42"/>
-      <c r="H183" s="42"/>
-      <c r="I183" s="42"/>
-      <c r="J183" s="42"/>
-      <c r="K183" s="42"/>
-      <c r="L183" s="42"/>
-      <c r="M183" s="42"/>
-      <c r="N183" s="42"/>
+      <c r="A183" s="43"/>
+      <c r="B183" s="43"/>
+      <c r="C183" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="D183" s="42"/>
+      <c r="E183" s="43"/>
+      <c r="F183" s="43"/>
+      <c r="G183" s="43"/>
+      <c r="H183" s="43"/>
+      <c r="I183" s="43"/>
+      <c r="J183" s="43"/>
+      <c r="K183" s="43"/>
+      <c r="L183" s="43"/>
+      <c r="M183" s="43"/>
+      <c r="N183" s="43"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="42"/>
-      <c r="B184" s="42"/>
-      <c r="C184" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="D184" s="41"/>
-      <c r="E184" s="42"/>
-      <c r="F184" s="42"/>
-      <c r="G184" s="42"/>
-      <c r="H184" s="42"/>
-      <c r="I184" s="42"/>
-      <c r="J184" s="42"/>
-      <c r="K184" s="42"/>
-      <c r="L184" s="42"/>
-      <c r="M184" s="42"/>
-      <c r="N184" s="42"/>
+      <c r="A184" s="43"/>
+      <c r="B184" s="43"/>
+      <c r="C184" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="D184" s="42"/>
+      <c r="E184" s="43"/>
+      <c r="F184" s="43"/>
+      <c r="G184" s="43"/>
+      <c r="H184" s="43"/>
+      <c r="I184" s="43"/>
+      <c r="J184" s="43"/>
+      <c r="K184" s="43"/>
+      <c r="L184" s="43"/>
+      <c r="M184" s="43"/>
+      <c r="N184" s="43"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="42"/>
-      <c r="B185" s="42"/>
-      <c r="C185" s="42" t="s">
-        <v>451</v>
-      </c>
-      <c r="D185" s="41"/>
-      <c r="E185" s="42"/>
-      <c r="F185" s="42"/>
-      <c r="G185" s="42"/>
-      <c r="H185" s="42"/>
-      <c r="I185" s="42"/>
-      <c r="J185" s="42"/>
-      <c r="K185" s="42"/>
-      <c r="L185" s="42"/>
-      <c r="M185" s="42"/>
-      <c r="N185" s="42"/>
+      <c r="A185" s="43"/>
+      <c r="B185" s="43"/>
+      <c r="C185" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="D185" s="42"/>
+      <c r="E185" s="43"/>
+      <c r="F185" s="43"/>
+      <c r="G185" s="43"/>
+      <c r="H185" s="43"/>
+      <c r="I185" s="43"/>
+      <c r="J185" s="43"/>
+      <c r="K185" s="43"/>
+      <c r="L185" s="43"/>
+      <c r="M185" s="43"/>
+      <c r="N185" s="43"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="42"/>
-      <c r="B186" s="42"/>
-      <c r="C186" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="D186" s="41"/>
-      <c r="E186" s="42"/>
-      <c r="F186" s="42"/>
-      <c r="G186" s="42"/>
-      <c r="H186" s="42"/>
-      <c r="I186" s="42"/>
-      <c r="J186" s="42"/>
-      <c r="K186" s="42"/>
-      <c r="L186" s="42"/>
-      <c r="M186" s="42"/>
-      <c r="N186" s="42"/>
+      <c r="A186" s="43"/>
+      <c r="B186" s="43"/>
+      <c r="C186" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="D186" s="42"/>
+      <c r="E186" s="43"/>
+      <c r="F186" s="43"/>
+      <c r="G186" s="43"/>
+      <c r="H186" s="43"/>
+      <c r="I186" s="43"/>
+      <c r="J186" s="43"/>
+      <c r="K186" s="43"/>
+      <c r="L186" s="43"/>
+      <c r="M186" s="43"/>
+      <c r="N186" s="43"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="42"/>
-      <c r="B187" s="42"/>
-      <c r="C187" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="D187" s="41"/>
-      <c r="E187" s="42"/>
-      <c r="F187" s="42"/>
-      <c r="G187" s="42"/>
-      <c r="H187" s="42"/>
-      <c r="I187" s="42"/>
-      <c r="J187" s="42"/>
-      <c r="K187" s="42"/>
-      <c r="L187" s="42"/>
-      <c r="M187" s="42"/>
-      <c r="N187" s="42"/>
+      <c r="A187" s="43"/>
+      <c r="B187" s="43"/>
+      <c r="C187" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="D187" s="42"/>
+      <c r="E187" s="43"/>
+      <c r="F187" s="43"/>
+      <c r="G187" s="43"/>
+      <c r="H187" s="43"/>
+      <c r="I187" s="43"/>
+      <c r="J187" s="43"/>
+      <c r="K187" s="43"/>
+      <c r="L187" s="43"/>
+      <c r="M187" s="43"/>
+      <c r="N187" s="43"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="42"/>
-      <c r="B188" s="42"/>
-      <c r="C188" s="42" t="s">
-        <v>454</v>
-      </c>
-      <c r="D188" s="41"/>
-      <c r="E188" s="42"/>
-      <c r="F188" s="42"/>
-      <c r="G188" s="42"/>
-      <c r="H188" s="42"/>
-      <c r="I188" s="42"/>
-      <c r="J188" s="42"/>
-      <c r="K188" s="42"/>
-      <c r="L188" s="42"/>
-      <c r="M188" s="42"/>
-      <c r="N188" s="42"/>
+      <c r="A188" s="43"/>
+      <c r="B188" s="43"/>
+      <c r="C188" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="D188" s="42"/>
+      <c r="E188" s="43"/>
+      <c r="F188" s="43"/>
+      <c r="G188" s="43"/>
+      <c r="H188" s="43"/>
+      <c r="I188" s="43"/>
+      <c r="J188" s="43"/>
+      <c r="K188" s="43"/>
+      <c r="L188" s="43"/>
+      <c r="M188" s="43"/>
+      <c r="N188" s="43"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="42"/>
-      <c r="B189" s="42"/>
-      <c r="C189" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D189" s="41"/>
-      <c r="E189" s="42"/>
-      <c r="F189" s="42"/>
-      <c r="G189" s="42"/>
-      <c r="H189" s="42"/>
-      <c r="I189" s="42"/>
-      <c r="J189" s="42"/>
-      <c r="K189" s="42"/>
-      <c r="L189" s="42"/>
-      <c r="M189" s="42"/>
-      <c r="N189" s="42"/>
+      <c r="A189" s="43"/>
+      <c r="B189" s="43"/>
+      <c r="C189" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="D189" s="42"/>
+      <c r="E189" s="43"/>
+      <c r="F189" s="43"/>
+      <c r="G189" s="43"/>
+      <c r="H189" s="43"/>
+      <c r="I189" s="43"/>
+      <c r="J189" s="43"/>
+      <c r="K189" s="43"/>
+      <c r="L189" s="43"/>
+      <c r="M189" s="43"/>
+      <c r="N189" s="43"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="42"/>
-      <c r="B190" s="42"/>
-      <c r="C190" s="42" t="s">
-        <v>456</v>
-      </c>
-      <c r="D190" s="41"/>
-      <c r="E190" s="42"/>
-      <c r="F190" s="42"/>
-      <c r="G190" s="42"/>
-      <c r="H190" s="42"/>
-      <c r="I190" s="42"/>
-      <c r="J190" s="42"/>
-      <c r="K190" s="42"/>
-      <c r="L190" s="42"/>
-      <c r="M190" s="42"/>
-      <c r="N190" s="42"/>
+      <c r="A190" s="43"/>
+      <c r="B190" s="43"/>
+      <c r="C190" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="D190" s="42"/>
+      <c r="E190" s="43"/>
+      <c r="F190" s="43"/>
+      <c r="G190" s="43"/>
+      <c r="H190" s="43"/>
+      <c r="I190" s="43"/>
+      <c r="J190" s="43"/>
+      <c r="K190" s="43"/>
+      <c r="L190" s="43"/>
+      <c r="M190" s="43"/>
+      <c r="N190" s="43"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="42"/>
-      <c r="B191" s="42"/>
-      <c r="C191" s="42" t="s">
-        <v>457</v>
-      </c>
-      <c r="D191" s="41"/>
-      <c r="E191" s="42"/>
-      <c r="F191" s="42"/>
-      <c r="G191" s="42"/>
-      <c r="H191" s="42"/>
-      <c r="I191" s="42"/>
-      <c r="J191" s="42"/>
-      <c r="K191" s="42"/>
-      <c r="L191" s="42"/>
-      <c r="M191" s="42"/>
-      <c r="N191" s="42"/>
+      <c r="A191" s="43"/>
+      <c r="B191" s="43"/>
+      <c r="C191" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="D191" s="42"/>
+      <c r="E191" s="43"/>
+      <c r="F191" s="43"/>
+      <c r="G191" s="43"/>
+      <c r="H191" s="43"/>
+      <c r="I191" s="43"/>
+      <c r="J191" s="43"/>
+      <c r="K191" s="43"/>
+      <c r="L191" s="43"/>
+      <c r="M191" s="43"/>
+      <c r="N191" s="43"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="42"/>
-      <c r="B192" s="42"/>
-      <c r="C192" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="D192" s="41"/>
-      <c r="E192" s="42"/>
-      <c r="F192" s="42"/>
-      <c r="G192" s="42"/>
-      <c r="H192" s="42"/>
-      <c r="I192" s="42"/>
-      <c r="J192" s="42"/>
-      <c r="K192" s="42"/>
-      <c r="L192" s="42"/>
-      <c r="M192" s="42"/>
-      <c r="N192" s="42"/>
+      <c r="A192" s="43"/>
+      <c r="B192" s="43"/>
+      <c r="C192" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="D192" s="42"/>
+      <c r="E192" s="43"/>
+      <c r="F192" s="43"/>
+      <c r="G192" s="43"/>
+      <c r="H192" s="43"/>
+      <c r="I192" s="43"/>
+      <c r="J192" s="43"/>
+      <c r="K192" s="43"/>
+      <c r="L192" s="43"/>
+      <c r="M192" s="43"/>
+      <c r="N192" s="43"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="42"/>
-      <c r="B193" s="42"/>
-      <c r="C193" s="42" t="s">
-        <v>459</v>
-      </c>
-      <c r="D193" s="41"/>
-      <c r="E193" s="42"/>
-      <c r="F193" s="42"/>
-      <c r="G193" s="42"/>
-      <c r="H193" s="42"/>
-      <c r="I193" s="42"/>
-      <c r="J193" s="42"/>
-      <c r="K193" s="42"/>
-      <c r="L193" s="42"/>
-      <c r="M193" s="42"/>
-      <c r="N193" s="42"/>
+      <c r="A193" s="43"/>
+      <c r="B193" s="43"/>
+      <c r="C193" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="D193" s="42"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="43"/>
+      <c r="G193" s="43"/>
+      <c r="H193" s="43"/>
+      <c r="I193" s="43"/>
+      <c r="J193" s="43"/>
+      <c r="K193" s="43"/>
+      <c r="L193" s="43"/>
+      <c r="M193" s="43"/>
+      <c r="N193" s="43"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="42"/>
-      <c r="B194" s="42"/>
-      <c r="C194" s="42" t="s">
-        <v>460</v>
-      </c>
-      <c r="D194" s="41"/>
-      <c r="E194" s="42"/>
-      <c r="F194" s="42"/>
-      <c r="G194" s="42"/>
-      <c r="H194" s="42"/>
-      <c r="I194" s="42"/>
-      <c r="J194" s="42"/>
-      <c r="K194" s="42"/>
-      <c r="L194" s="42"/>
-      <c r="M194" s="42"/>
-      <c r="N194" s="42"/>
+      <c r="A194" s="43"/>
+      <c r="B194" s="43"/>
+      <c r="C194" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="D194" s="42"/>
+      <c r="E194" s="43"/>
+      <c r="F194" s="43"/>
+      <c r="G194" s="43"/>
+      <c r="H194" s="43"/>
+      <c r="I194" s="43"/>
+      <c r="J194" s="43"/>
+      <c r="K194" s="43"/>
+      <c r="L194" s="43"/>
+      <c r="M194" s="43"/>
+      <c r="N194" s="43"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="42"/>
-      <c r="B195" s="42"/>
-      <c r="C195" s="42" t="s">
-        <v>461</v>
-      </c>
-      <c r="D195" s="41"/>
-      <c r="E195" s="42"/>
-      <c r="F195" s="42"/>
-      <c r="G195" s="42"/>
-      <c r="H195" s="42"/>
-      <c r="I195" s="42"/>
-      <c r="J195" s="42"/>
-      <c r="K195" s="42"/>
-      <c r="L195" s="42"/>
-      <c r="M195" s="42"/>
-      <c r="N195" s="42"/>
+      <c r="A195" s="43"/>
+      <c r="B195" s="43"/>
+      <c r="C195" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="D195" s="42"/>
+      <c r="E195" s="43"/>
+      <c r="F195" s="43"/>
+      <c r="G195" s="43"/>
+      <c r="H195" s="43"/>
+      <c r="I195" s="43"/>
+      <c r="J195" s="43"/>
+      <c r="K195" s="43"/>
+      <c r="L195" s="43"/>
+      <c r="M195" s="43"/>
+      <c r="N195" s="43"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="42"/>
-      <c r="B196" s="42"/>
-      <c r="C196" s="42" t="s">
-        <v>462</v>
-      </c>
-      <c r="D196" s="41"/>
-      <c r="E196" s="42"/>
-      <c r="F196" s="42"/>
-      <c r="G196" s="42"/>
-      <c r="H196" s="42"/>
-      <c r="I196" s="42"/>
-      <c r="J196" s="42"/>
-      <c r="K196" s="42"/>
-      <c r="L196" s="42"/>
-      <c r="M196" s="42"/>
-      <c r="N196" s="42"/>
+      <c r="A196" s="43"/>
+      <c r="B196" s="43"/>
+      <c r="C196" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="D196" s="42"/>
+      <c r="E196" s="43"/>
+      <c r="F196" s="43"/>
+      <c r="G196" s="43"/>
+      <c r="H196" s="43"/>
+      <c r="I196" s="43"/>
+      <c r="J196" s="43"/>
+      <c r="K196" s="43"/>
+      <c r="L196" s="43"/>
+      <c r="M196" s="43"/>
+      <c r="N196" s="43"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="42"/>
-      <c r="B197" s="42"/>
-      <c r="C197" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="D197" s="41"/>
-      <c r="E197" s="42"/>
-      <c r="F197" s="42"/>
-      <c r="G197" s="42"/>
-      <c r="H197" s="42"/>
-      <c r="I197" s="42"/>
-      <c r="J197" s="42"/>
-      <c r="K197" s="42"/>
-      <c r="L197" s="42"/>
-      <c r="M197" s="42"/>
-      <c r="N197" s="42"/>
+      <c r="A197" s="43"/>
+      <c r="B197" s="43"/>
+      <c r="C197" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="D197" s="42"/>
+      <c r="E197" s="43"/>
+      <c r="F197" s="43"/>
+      <c r="G197" s="43"/>
+      <c r="H197" s="43"/>
+      <c r="I197" s="43"/>
+      <c r="J197" s="43"/>
+      <c r="K197" s="43"/>
+      <c r="L197" s="43"/>
+      <c r="M197" s="43"/>
+      <c r="N197" s="43"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="42"/>
-      <c r="B198" s="42"/>
-      <c r="C198" s="42" t="s">
-        <v>464</v>
-      </c>
-      <c r="D198" s="41"/>
-      <c r="E198" s="42"/>
-      <c r="F198" s="42"/>
-      <c r="G198" s="42"/>
-      <c r="H198" s="42"/>
-      <c r="I198" s="42"/>
-      <c r="J198" s="42"/>
-      <c r="K198" s="42"/>
-      <c r="L198" s="42"/>
-      <c r="M198" s="42"/>
-      <c r="N198" s="42"/>
+      <c r="A198" s="43"/>
+      <c r="B198" s="43"/>
+      <c r="C198" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="D198" s="42"/>
+      <c r="E198" s="43"/>
+      <c r="F198" s="43"/>
+      <c r="G198" s="43"/>
+      <c r="H198" s="43"/>
+      <c r="I198" s="43"/>
+      <c r="J198" s="43"/>
+      <c r="K198" s="43"/>
+      <c r="L198" s="43"/>
+      <c r="M198" s="43"/>
+      <c r="N198" s="43"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="42"/>
-      <c r="B199" s="42"/>
-      <c r="C199" s="42" t="s">
-        <v>465</v>
-      </c>
-      <c r="D199" s="41"/>
-      <c r="E199" s="42"/>
-      <c r="F199" s="42"/>
-      <c r="G199" s="42"/>
-      <c r="H199" s="42"/>
-      <c r="I199" s="42"/>
-      <c r="J199" s="42"/>
-      <c r="K199" s="42"/>
-      <c r="L199" s="42"/>
-      <c r="M199" s="42"/>
-      <c r="N199" s="42"/>
+      <c r="A199" s="43"/>
+      <c r="B199" s="43"/>
+      <c r="C199" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="D199" s="42"/>
+      <c r="E199" s="43"/>
+      <c r="F199" s="43"/>
+      <c r="G199" s="43"/>
+      <c r="H199" s="43"/>
+      <c r="I199" s="43"/>
+      <c r="J199" s="43"/>
+      <c r="K199" s="43"/>
+      <c r="L199" s="43"/>
+      <c r="M199" s="43"/>
+      <c r="N199" s="43"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="42"/>
-      <c r="B200" s="42"/>
-      <c r="C200" s="42" t="s">
-        <v>466</v>
-      </c>
-      <c r="D200" s="41"/>
-      <c r="E200" s="42"/>
-      <c r="F200" s="42"/>
-      <c r="G200" s="42"/>
-      <c r="H200" s="42"/>
-      <c r="I200" s="42"/>
-      <c r="J200" s="42"/>
-      <c r="K200" s="42"/>
-      <c r="L200" s="42"/>
-      <c r="M200" s="42"/>
-      <c r="N200" s="42"/>
+      <c r="A200" s="43"/>
+      <c r="B200" s="43"/>
+      <c r="C200" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="D200" s="42"/>
+      <c r="E200" s="43"/>
+      <c r="F200" s="43"/>
+      <c r="G200" s="43"/>
+      <c r="H200" s="43"/>
+      <c r="I200" s="43"/>
+      <c r="J200" s="43"/>
+      <c r="K200" s="43"/>
+      <c r="L200" s="43"/>
+      <c r="M200" s="43"/>
+      <c r="N200" s="43"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="42"/>
-      <c r="B201" s="42"/>
-      <c r="C201" s="42" t="s">
-        <v>467</v>
-      </c>
-      <c r="D201" s="41"/>
-      <c r="E201" s="42"/>
-      <c r="F201" s="42"/>
-      <c r="G201" s="42"/>
-      <c r="H201" s="42"/>
-      <c r="I201" s="42"/>
-      <c r="J201" s="42"/>
-      <c r="K201" s="42"/>
-      <c r="L201" s="42"/>
-      <c r="M201" s="42"/>
-      <c r="N201" s="42"/>
+      <c r="A201" s="43"/>
+      <c r="B201" s="43"/>
+      <c r="C201" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="D201" s="42"/>
+      <c r="E201" s="43"/>
+      <c r="F201" s="43"/>
+      <c r="G201" s="43"/>
+      <c r="H201" s="43"/>
+      <c r="I201" s="43"/>
+      <c r="J201" s="43"/>
+      <c r="K201" s="43"/>
+      <c r="L201" s="43"/>
+      <c r="M201" s="43"/>
+      <c r="N201" s="43"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="42"/>
-      <c r="B202" s="42"/>
-      <c r="C202" s="42" t="s">
-        <v>468</v>
-      </c>
-      <c r="D202" s="41"/>
-      <c r="E202" s="42"/>
-      <c r="F202" s="42"/>
-      <c r="G202" s="42"/>
-      <c r="H202" s="42"/>
-      <c r="I202" s="42"/>
-      <c r="J202" s="42"/>
-      <c r="K202" s="42"/>
-      <c r="L202" s="42"/>
-      <c r="M202" s="42"/>
-      <c r="N202" s="42"/>
+      <c r="A202" s="43"/>
+      <c r="B202" s="43"/>
+      <c r="C202" s="43" t="s">
+        <v>469</v>
+      </c>
+      <c r="D202" s="42"/>
+      <c r="E202" s="43"/>
+      <c r="F202" s="43"/>
+      <c r="G202" s="43"/>
+      <c r="H202" s="43"/>
+      <c r="I202" s="43"/>
+      <c r="J202" s="43"/>
+      <c r="K202" s="43"/>
+      <c r="L202" s="43"/>
+      <c r="M202" s="43"/>
+      <c r="N202" s="43"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="42"/>
-      <c r="B203" s="42"/>
-      <c r="C203" s="42" t="s">
-        <v>469</v>
-      </c>
-      <c r="D203" s="41"/>
-      <c r="E203" s="42"/>
-      <c r="F203" s="42"/>
-      <c r="G203" s="42"/>
-      <c r="H203" s="42"/>
-      <c r="I203" s="42"/>
-      <c r="J203" s="42"/>
-      <c r="K203" s="42"/>
-      <c r="L203" s="42"/>
-      <c r="M203" s="42"/>
-      <c r="N203" s="42"/>
+      <c r="A203" s="43"/>
+      <c r="B203" s="43"/>
+      <c r="C203" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="D203" s="42"/>
+      <c r="E203" s="43"/>
+      <c r="F203" s="43"/>
+      <c r="G203" s="43"/>
+      <c r="H203" s="43"/>
+      <c r="I203" s="43"/>
+      <c r="J203" s="43"/>
+      <c r="K203" s="43"/>
+      <c r="L203" s="43"/>
+      <c r="M203" s="43"/>
+      <c r="N203" s="43"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="42"/>
-      <c r="B204" s="42"/>
-      <c r="C204" s="42" t="s">
-        <v>470</v>
-      </c>
-      <c r="D204" s="41"/>
-      <c r="E204" s="42"/>
-      <c r="F204" s="42"/>
-      <c r="G204" s="42"/>
-      <c r="H204" s="42"/>
-      <c r="I204" s="42"/>
-      <c r="J204" s="42"/>
-      <c r="K204" s="42"/>
-      <c r="L204" s="42"/>
-      <c r="M204" s="42"/>
-      <c r="N204" s="42"/>
+      <c r="A204" s="43"/>
+      <c r="B204" s="43"/>
+      <c r="C204" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="D204" s="42"/>
+      <c r="E204" s="43"/>
+      <c r="F204" s="43"/>
+      <c r="G204" s="43"/>
+      <c r="H204" s="43"/>
+      <c r="I204" s="43"/>
+      <c r="J204" s="43"/>
+      <c r="K204" s="43"/>
+      <c r="L204" s="43"/>
+      <c r="M204" s="43"/>
+      <c r="N204" s="43"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="42"/>
-      <c r="B205" s="42"/>
-      <c r="C205" s="42" t="s">
-        <v>471</v>
-      </c>
-      <c r="D205" s="41"/>
-      <c r="E205" s="42"/>
-      <c r="F205" s="42"/>
-      <c r="G205" s="42"/>
-      <c r="H205" s="42"/>
-      <c r="I205" s="42"/>
-      <c r="J205" s="42"/>
-      <c r="K205" s="42"/>
-      <c r="L205" s="42"/>
-      <c r="M205" s="42"/>
-      <c r="N205" s="42"/>
+      <c r="A205" s="43"/>
+      <c r="B205" s="43"/>
+      <c r="C205" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="D205" s="42"/>
+      <c r="E205" s="43"/>
+      <c r="F205" s="43"/>
+      <c r="G205" s="43"/>
+      <c r="H205" s="43"/>
+      <c r="I205" s="43"/>
+      <c r="J205" s="43"/>
+      <c r="K205" s="43"/>
+      <c r="L205" s="43"/>
+      <c r="M205" s="43"/>
+      <c r="N205" s="43"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="42"/>
-      <c r="B206" s="42"/>
-      <c r="C206" s="42" t="s">
-        <v>472</v>
-      </c>
-      <c r="D206" s="41"/>
-      <c r="E206" s="42"/>
-      <c r="F206" s="42"/>
-      <c r="G206" s="42"/>
-      <c r="H206" s="42"/>
-      <c r="I206" s="42"/>
-      <c r="J206" s="42"/>
-      <c r="K206" s="42"/>
-      <c r="L206" s="42"/>
-      <c r="M206" s="42"/>
-      <c r="N206" s="42"/>
+      <c r="A206" s="43"/>
+      <c r="B206" s="43"/>
+      <c r="C206" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="D206" s="42"/>
+      <c r="E206" s="43"/>
+      <c r="F206" s="43"/>
+      <c r="G206" s="43"/>
+      <c r="H206" s="43"/>
+      <c r="I206" s="43"/>
+      <c r="J206" s="43"/>
+      <c r="K206" s="43"/>
+      <c r="L206" s="43"/>
+      <c r="M206" s="43"/>
+      <c r="N206" s="43"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="42"/>
-      <c r="B207" s="42"/>
-      <c r="C207" s="42" t="s">
-        <v>473</v>
-      </c>
-      <c r="D207" s="41"/>
-      <c r="E207" s="42"/>
-      <c r="F207" s="42"/>
-      <c r="G207" s="42"/>
-      <c r="H207" s="42"/>
-      <c r="I207" s="42"/>
-      <c r="J207" s="42"/>
-      <c r="K207" s="42"/>
-      <c r="L207" s="42"/>
-      <c r="M207" s="42"/>
-      <c r="N207" s="42"/>
+      <c r="A207" s="43"/>
+      <c r="B207" s="43"/>
+      <c r="C207" s="43" t="s">
+        <v>474</v>
+      </c>
+      <c r="D207" s="42"/>
+      <c r="E207" s="43"/>
+      <c r="F207" s="43"/>
+      <c r="G207" s="43"/>
+      <c r="H207" s="43"/>
+      <c r="I207" s="43"/>
+      <c r="J207" s="43"/>
+      <c r="K207" s="43"/>
+      <c r="L207" s="43"/>
+      <c r="M207" s="43"/>
+      <c r="N207" s="43"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="42"/>
-      <c r="B208" s="42"/>
-      <c r="C208" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="D208" s="41"/>
-      <c r="E208" s="42"/>
-      <c r="F208" s="42"/>
-      <c r="G208" s="42"/>
-      <c r="H208" s="42"/>
-      <c r="I208" s="42"/>
-      <c r="J208" s="42"/>
-      <c r="K208" s="42"/>
-      <c r="L208" s="42"/>
-      <c r="M208" s="42"/>
-      <c r="N208" s="42"/>
+      <c r="A208" s="43"/>
+      <c r="B208" s="43"/>
+      <c r="C208" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="D208" s="42"/>
+      <c r="E208" s="43"/>
+      <c r="F208" s="43"/>
+      <c r="G208" s="43"/>
+      <c r="H208" s="43"/>
+      <c r="I208" s="43"/>
+      <c r="J208" s="43"/>
+      <c r="K208" s="43"/>
+      <c r="L208" s="43"/>
+      <c r="M208" s="43"/>
+      <c r="N208" s="43"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="42"/>
-      <c r="B209" s="42"/>
-      <c r="C209" s="42" t="s">
-        <v>475</v>
-      </c>
-      <c r="D209" s="41"/>
-      <c r="E209" s="42"/>
-      <c r="F209" s="42"/>
-      <c r="G209" s="42"/>
-      <c r="H209" s="42"/>
-      <c r="I209" s="42"/>
-      <c r="J209" s="42"/>
-      <c r="K209" s="42"/>
-      <c r="L209" s="42"/>
-      <c r="M209" s="42"/>
-      <c r="N209" s="42"/>
+      <c r="A209" s="43"/>
+      <c r="B209" s="43"/>
+      <c r="C209" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="D209" s="42"/>
+      <c r="E209" s="43"/>
+      <c r="F209" s="43"/>
+      <c r="G209" s="43"/>
+      <c r="H209" s="43"/>
+      <c r="I209" s="43"/>
+      <c r="J209" s="43"/>
+      <c r="K209" s="43"/>
+      <c r="L209" s="43"/>
+      <c r="M209" s="43"/>
+      <c r="N209" s="43"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="42"/>
-      <c r="B210" s="42"/>
-      <c r="C210" s="42" t="s">
-        <v>476</v>
-      </c>
-      <c r="D210" s="41"/>
-      <c r="E210" s="42"/>
-      <c r="F210" s="42"/>
-      <c r="G210" s="42"/>
-      <c r="H210" s="42"/>
-      <c r="I210" s="42"/>
-      <c r="J210" s="42"/>
-      <c r="K210" s="42"/>
-      <c r="L210" s="42"/>
-      <c r="M210" s="42"/>
-      <c r="N210" s="42"/>
+      <c r="A210" s="43"/>
+      <c r="B210" s="43"/>
+      <c r="C210" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="D210" s="42"/>
+      <c r="E210" s="43"/>
+      <c r="F210" s="43"/>
+      <c r="G210" s="43"/>
+      <c r="H210" s="43"/>
+      <c r="I210" s="43"/>
+      <c r="J210" s="43"/>
+      <c r="K210" s="43"/>
+      <c r="L210" s="43"/>
+      <c r="M210" s="43"/>
+      <c r="N210" s="43"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="42"/>
-      <c r="B211" s="42"/>
-      <c r="C211" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="D211" s="41"/>
-      <c r="E211" s="42"/>
-      <c r="F211" s="42"/>
-      <c r="G211" s="42"/>
-      <c r="H211" s="42"/>
-      <c r="I211" s="42"/>
-      <c r="J211" s="42"/>
-      <c r="K211" s="42"/>
-      <c r="L211" s="42"/>
-      <c r="M211" s="42"/>
-      <c r="N211" s="42"/>
+      <c r="A211" s="43"/>
+      <c r="B211" s="43"/>
+      <c r="C211" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="D211" s="42"/>
+      <c r="E211" s="43"/>
+      <c r="F211" s="43"/>
+      <c r="G211" s="43"/>
+      <c r="H211" s="43"/>
+      <c r="I211" s="43"/>
+      <c r="J211" s="43"/>
+      <c r="K211" s="43"/>
+      <c r="L211" s="43"/>
+      <c r="M211" s="43"/>
+      <c r="N211" s="43"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="42"/>
-      <c r="B212" s="42"/>
-      <c r="C212" s="42" t="s">
-        <v>478</v>
-      </c>
-      <c r="D212" s="41"/>
-      <c r="E212" s="42"/>
-      <c r="F212" s="42"/>
-      <c r="G212" s="42"/>
-      <c r="H212" s="42"/>
-      <c r="I212" s="42"/>
-      <c r="J212" s="42"/>
-      <c r="K212" s="42"/>
-      <c r="L212" s="42"/>
-      <c r="M212" s="42"/>
-      <c r="N212" s="42"/>
+      <c r="A212" s="43"/>
+      <c r="B212" s="43"/>
+      <c r="C212" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="D212" s="42"/>
+      <c r="E212" s="43"/>
+      <c r="F212" s="43"/>
+      <c r="G212" s="43"/>
+      <c r="H212" s="43"/>
+      <c r="I212" s="43"/>
+      <c r="J212" s="43"/>
+      <c r="K212" s="43"/>
+      <c r="L212" s="43"/>
+      <c r="M212" s="43"/>
+      <c r="N212" s="43"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="42"/>
-      <c r="B213" s="42"/>
-      <c r="C213" s="42" t="s">
-        <v>479</v>
-      </c>
-      <c r="D213" s="41"/>
-      <c r="E213" s="42"/>
-      <c r="F213" s="42"/>
-      <c r="G213" s="42"/>
-      <c r="H213" s="42"/>
-      <c r="I213" s="42"/>
-      <c r="J213" s="42"/>
-      <c r="K213" s="42"/>
-      <c r="L213" s="42"/>
-      <c r="M213" s="42"/>
-      <c r="N213" s="42"/>
+      <c r="A213" s="43"/>
+      <c r="B213" s="43"/>
+      <c r="C213" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="D213" s="42"/>
+      <c r="E213" s="43"/>
+      <c r="F213" s="43"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
+      <c r="I213" s="43"/>
+      <c r="J213" s="43"/>
+      <c r="K213" s="43"/>
+      <c r="L213" s="43"/>
+      <c r="M213" s="43"/>
+      <c r="N213" s="43"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="42"/>
-      <c r="B214" s="42"/>
-      <c r="C214" s="42" t="s">
-        <v>480</v>
-      </c>
-      <c r="D214" s="41"/>
-      <c r="E214" s="42"/>
-      <c r="F214" s="42"/>
-      <c r="G214" s="42"/>
-      <c r="H214" s="42"/>
-      <c r="I214" s="42"/>
-      <c r="J214" s="42"/>
-      <c r="K214" s="42"/>
-      <c r="L214" s="42"/>
-      <c r="M214" s="42"/>
-      <c r="N214" s="42"/>
+      <c r="A214" s="43"/>
+      <c r="B214" s="43"/>
+      <c r="C214" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="D214" s="42"/>
+      <c r="E214" s="43"/>
+      <c r="F214" s="43"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="43"/>
+      <c r="J214" s="43"/>
+      <c r="K214" s="43"/>
+      <c r="L214" s="43"/>
+      <c r="M214" s="43"/>
+      <c r="N214" s="43"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="42"/>
-      <c r="B215" s="42"/>
-      <c r="C215" s="42" t="s">
-        <v>481</v>
-      </c>
-      <c r="D215" s="41"/>
-      <c r="E215" s="42"/>
-      <c r="F215" s="42"/>
-      <c r="G215" s="42"/>
-      <c r="H215" s="42"/>
-      <c r="I215" s="42"/>
-      <c r="J215" s="42"/>
-      <c r="K215" s="42"/>
-      <c r="L215" s="42"/>
-      <c r="M215" s="42"/>
-      <c r="N215" s="42"/>
+      <c r="A215" s="43"/>
+      <c r="B215" s="43"/>
+      <c r="C215" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="D215" s="42"/>
+      <c r="E215" s="43"/>
+      <c r="F215" s="43"/>
+      <c r="G215" s="43"/>
+      <c r="H215" s="43"/>
+      <c r="I215" s="43"/>
+      <c r="J215" s="43"/>
+      <c r="K215" s="43"/>
+      <c r="L215" s="43"/>
+      <c r="M215" s="43"/>
+      <c r="N215" s="43"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="42"/>
-      <c r="B216" s="42"/>
-      <c r="C216" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="D216" s="41"/>
-      <c r="E216" s="42"/>
-      <c r="F216" s="42"/>
-      <c r="G216" s="42"/>
-      <c r="H216" s="42"/>
-      <c r="I216" s="42"/>
-      <c r="J216" s="42"/>
-      <c r="K216" s="42"/>
-      <c r="L216" s="42"/>
-      <c r="M216" s="42"/>
-      <c r="N216" s="42"/>
+      <c r="A216" s="43"/>
+      <c r="B216" s="43"/>
+      <c r="C216" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="D216" s="42"/>
+      <c r="E216" s="43"/>
+      <c r="F216" s="43"/>
+      <c r="G216" s="43"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="43"/>
+      <c r="J216" s="43"/>
+      <c r="K216" s="43"/>
+      <c r="L216" s="43"/>
+      <c r="M216" s="43"/>
+      <c r="N216" s="43"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="42"/>
-      <c r="B217" s="42"/>
-      <c r="C217" s="42" t="s">
-        <v>483</v>
-      </c>
-      <c r="D217" s="41"/>
-      <c r="E217" s="42"/>
-      <c r="F217" s="42"/>
-      <c r="G217" s="42"/>
-      <c r="H217" s="42"/>
-      <c r="I217" s="42"/>
-      <c r="J217" s="42"/>
-      <c r="K217" s="42"/>
-      <c r="L217" s="42"/>
-      <c r="M217" s="42"/>
-      <c r="N217" s="42"/>
+      <c r="A217" s="43"/>
+      <c r="B217" s="43"/>
+      <c r="C217" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="D217" s="42"/>
+      <c r="E217" s="43"/>
+      <c r="F217" s="43"/>
+      <c r="G217" s="43"/>
+      <c r="H217" s="43"/>
+      <c r="I217" s="43"/>
+      <c r="J217" s="43"/>
+      <c r="K217" s="43"/>
+      <c r="L217" s="43"/>
+      <c r="M217" s="43"/>
+      <c r="N217" s="43"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="42"/>
-      <c r="B218" s="42"/>
-      <c r="C218" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="D218" s="41"/>
-      <c r="E218" s="42"/>
-      <c r="F218" s="42"/>
-      <c r="G218" s="42"/>
-      <c r="H218" s="42"/>
-      <c r="I218" s="42"/>
-      <c r="J218" s="42"/>
-      <c r="K218" s="42"/>
-      <c r="L218" s="42"/>
-      <c r="M218" s="42"/>
-      <c r="N218" s="42"/>
+      <c r="A218" s="43"/>
+      <c r="B218" s="43"/>
+      <c r="C218" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="D218" s="42"/>
+      <c r="E218" s="43"/>
+      <c r="F218" s="43"/>
+      <c r="G218" s="43"/>
+      <c r="H218" s="43"/>
+      <c r="I218" s="43"/>
+      <c r="J218" s="43"/>
+      <c r="K218" s="43"/>
+      <c r="L218" s="43"/>
+      <c r="M218" s="43"/>
+      <c r="N218" s="43"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="42"/>
-      <c r="B219" s="42"/>
-      <c r="C219" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="D219" s="41"/>
-      <c r="E219" s="42"/>
-      <c r="F219" s="42"/>
-      <c r="G219" s="42"/>
-      <c r="H219" s="42"/>
-      <c r="I219" s="42"/>
-      <c r="J219" s="42"/>
-      <c r="K219" s="42"/>
-      <c r="L219" s="42"/>
-      <c r="M219" s="42"/>
-      <c r="N219" s="42"/>
+      <c r="A219" s="43"/>
+      <c r="B219" s="43"/>
+      <c r="C219" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="D219" s="42"/>
+      <c r="E219" s="43"/>
+      <c r="F219" s="43"/>
+      <c r="G219" s="43"/>
+      <c r="H219" s="43"/>
+      <c r="I219" s="43"/>
+      <c r="J219" s="43"/>
+      <c r="K219" s="43"/>
+      <c r="L219" s="43"/>
+      <c r="M219" s="43"/>
+      <c r="N219" s="43"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="42"/>
-      <c r="B220" s="42"/>
-      <c r="C220" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="D220" s="41"/>
-      <c r="E220" s="42"/>
-      <c r="F220" s="42"/>
-      <c r="G220" s="42"/>
-      <c r="H220" s="42"/>
-      <c r="I220" s="42"/>
-      <c r="J220" s="42"/>
-      <c r="K220" s="42"/>
-      <c r="L220" s="42"/>
-      <c r="M220" s="42"/>
-      <c r="N220" s="42"/>
+      <c r="A220" s="43"/>
+      <c r="B220" s="43"/>
+      <c r="C220" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="D220" s="42"/>
+      <c r="E220" s="43"/>
+      <c r="F220" s="43"/>
+      <c r="G220" s="43"/>
+      <c r="H220" s="43"/>
+      <c r="I220" s="43"/>
+      <c r="J220" s="43"/>
+      <c r="K220" s="43"/>
+      <c r="L220" s="43"/>
+      <c r="M220" s="43"/>
+      <c r="N220" s="43"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="42"/>
-      <c r="B221" s="42"/>
-      <c r="C221" s="42" t="s">
-        <v>487</v>
-      </c>
-      <c r="D221" s="41"/>
-      <c r="E221" s="42"/>
-      <c r="F221" s="42"/>
-      <c r="G221" s="42"/>
-      <c r="H221" s="42"/>
-      <c r="I221" s="42"/>
-      <c r="J221" s="42"/>
-      <c r="K221" s="42"/>
-      <c r="L221" s="42"/>
-      <c r="M221" s="42"/>
-      <c r="N221" s="42"/>
+      <c r="A221" s="43"/>
+      <c r="B221" s="43"/>
+      <c r="C221" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="D221" s="42"/>
+      <c r="E221" s="43"/>
+      <c r="F221" s="43"/>
+      <c r="G221" s="43"/>
+      <c r="H221" s="43"/>
+      <c r="I221" s="43"/>
+      <c r="J221" s="43"/>
+      <c r="K221" s="43"/>
+      <c r="L221" s="43"/>
+      <c r="M221" s="43"/>
+      <c r="N221" s="43"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="42"/>
-      <c r="B222" s="42"/>
-      <c r="C222" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="D222" s="41"/>
-      <c r="E222" s="42"/>
-      <c r="F222" s="42"/>
-      <c r="G222" s="42"/>
-      <c r="H222" s="42"/>
-      <c r="I222" s="42"/>
-      <c r="J222" s="42"/>
-      <c r="K222" s="42"/>
-      <c r="L222" s="42"/>
-      <c r="M222" s="42"/>
-      <c r="N222" s="42"/>
+      <c r="A222" s="43"/>
+      <c r="B222" s="43"/>
+      <c r="C222" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="D222" s="42"/>
+      <c r="E222" s="43"/>
+      <c r="F222" s="43"/>
+      <c r="G222" s="43"/>
+      <c r="H222" s="43"/>
+      <c r="I222" s="43"/>
+      <c r="J222" s="43"/>
+      <c r="K222" s="43"/>
+      <c r="L222" s="43"/>
+      <c r="M222" s="43"/>
+      <c r="N222" s="43"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="42"/>
-      <c r="B223" s="42"/>
-      <c r="C223" s="42" t="s">
-        <v>489</v>
-      </c>
-      <c r="D223" s="41"/>
-      <c r="E223" s="42"/>
-      <c r="F223" s="42"/>
-      <c r="G223" s="42"/>
-      <c r="H223" s="42"/>
-      <c r="I223" s="42"/>
-      <c r="J223" s="42"/>
-      <c r="K223" s="42"/>
-      <c r="L223" s="42"/>
-      <c r="M223" s="42"/>
-      <c r="N223" s="42"/>
+      <c r="A223" s="43"/>
+      <c r="B223" s="43"/>
+      <c r="C223" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="D223" s="42"/>
+      <c r="E223" s="43"/>
+      <c r="F223" s="43"/>
+      <c r="G223" s="43"/>
+      <c r="H223" s="43"/>
+      <c r="I223" s="43"/>
+      <c r="J223" s="43"/>
+      <c r="K223" s="43"/>
+      <c r="L223" s="43"/>
+      <c r="M223" s="43"/>
+      <c r="N223" s="43"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="42"/>
-      <c r="B224" s="42"/>
-      <c r="C224" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="D224" s="41"/>
-      <c r="E224" s="42"/>
-      <c r="F224" s="42"/>
-      <c r="G224" s="42"/>
-      <c r="H224" s="42"/>
-      <c r="I224" s="42"/>
-      <c r="J224" s="42"/>
-      <c r="K224" s="42"/>
-      <c r="L224" s="42"/>
-      <c r="M224" s="42"/>
-      <c r="N224" s="42"/>
+      <c r="A224" s="43"/>
+      <c r="B224" s="43"/>
+      <c r="C224" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="D224" s="42"/>
+      <c r="E224" s="43"/>
+      <c r="F224" s="43"/>
+      <c r="G224" s="43"/>
+      <c r="H224" s="43"/>
+      <c r="I224" s="43"/>
+      <c r="J224" s="43"/>
+      <c r="K224" s="43"/>
+      <c r="L224" s="43"/>
+      <c r="M224" s="43"/>
+      <c r="N224" s="43"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="42"/>
-      <c r="B225" s="42"/>
-      <c r="C225" s="42" t="s">
-        <v>491</v>
-      </c>
-      <c r="D225" s="41"/>
-      <c r="E225" s="42"/>
-      <c r="F225" s="42"/>
-      <c r="G225" s="42"/>
-      <c r="H225" s="42"/>
-      <c r="I225" s="42"/>
-      <c r="J225" s="42"/>
-      <c r="K225" s="42"/>
-      <c r="L225" s="42"/>
-      <c r="M225" s="42"/>
-      <c r="N225" s="42"/>
+      <c r="A225" s="43"/>
+      <c r="B225" s="43"/>
+      <c r="C225" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="D225" s="42"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="43"/>
+      <c r="G225" s="43"/>
+      <c r="H225" s="43"/>
+      <c r="I225" s="43"/>
+      <c r="J225" s="43"/>
+      <c r="K225" s="43"/>
+      <c r="L225" s="43"/>
+      <c r="M225" s="43"/>
+      <c r="N225" s="43"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="42"/>
-      <c r="B226" s="42"/>
-      <c r="C226" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="D226" s="41"/>
-      <c r="E226" s="42"/>
-      <c r="F226" s="42"/>
-      <c r="G226" s="42"/>
-      <c r="H226" s="42"/>
-      <c r="I226" s="42"/>
-      <c r="J226" s="42"/>
-      <c r="K226" s="42"/>
-      <c r="L226" s="42"/>
-      <c r="M226" s="42"/>
-      <c r="N226" s="42"/>
+      <c r="A226" s="43"/>
+      <c r="B226" s="43"/>
+      <c r="C226" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="D226" s="42"/>
+      <c r="E226" s="43"/>
+      <c r="F226" s="43"/>
+      <c r="G226" s="43"/>
+      <c r="H226" s="43"/>
+      <c r="I226" s="43"/>
+      <c r="J226" s="43"/>
+      <c r="K226" s="43"/>
+      <c r="L226" s="43"/>
+      <c r="M226" s="43"/>
+      <c r="N226" s="43"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="42"/>
-      <c r="B227" s="42"/>
-      <c r="C227" s="42" t="s">
-        <v>493</v>
-      </c>
-      <c r="D227" s="41"/>
-      <c r="E227" s="42"/>
-      <c r="F227" s="42"/>
-      <c r="G227" s="42"/>
-      <c r="H227" s="42"/>
-      <c r="I227" s="42"/>
-      <c r="J227" s="42"/>
-      <c r="K227" s="42"/>
-      <c r="L227" s="42"/>
-      <c r="M227" s="42"/>
-      <c r="N227" s="42"/>
+      <c r="A227" s="43"/>
+      <c r="B227" s="43"/>
+      <c r="C227" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="D227" s="42"/>
+      <c r="E227" s="43"/>
+      <c r="F227" s="43"/>
+      <c r="G227" s="43"/>
+      <c r="H227" s="43"/>
+      <c r="I227" s="43"/>
+      <c r="J227" s="43"/>
+      <c r="K227" s="43"/>
+      <c r="L227" s="43"/>
+      <c r="M227" s="43"/>
+      <c r="N227" s="43"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="42"/>
-      <c r="B228" s="42"/>
-      <c r="C228" s="42" t="s">
-        <v>494</v>
-      </c>
-      <c r="D228" s="41"/>
-      <c r="E228" s="42"/>
-      <c r="F228" s="42"/>
-      <c r="G228" s="42"/>
-      <c r="H228" s="42"/>
-      <c r="I228" s="42"/>
-      <c r="J228" s="42"/>
-      <c r="K228" s="42"/>
-      <c r="L228" s="42"/>
-      <c r="M228" s="42"/>
-      <c r="N228" s="42"/>
+      <c r="A228" s="43"/>
+      <c r="B228" s="43"/>
+      <c r="C228" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="D228" s="42"/>
+      <c r="E228" s="43"/>
+      <c r="F228" s="43"/>
+      <c r="G228" s="43"/>
+      <c r="H228" s="43"/>
+      <c r="I228" s="43"/>
+      <c r="J228" s="43"/>
+      <c r="K228" s="43"/>
+      <c r="L228" s="43"/>
+      <c r="M228" s="43"/>
+      <c r="N228" s="43"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="42"/>
-      <c r="B229" s="42"/>
-      <c r="C229" s="42" t="s">
-        <v>495</v>
-      </c>
-      <c r="D229" s="41"/>
-      <c r="E229" s="42"/>
-      <c r="F229" s="42"/>
-      <c r="G229" s="42"/>
-      <c r="H229" s="42"/>
-      <c r="I229" s="42"/>
-      <c r="J229" s="42"/>
-      <c r="K229" s="42"/>
-      <c r="L229" s="42"/>
-      <c r="M229" s="42"/>
-      <c r="N229" s="42"/>
+      <c r="A229" s="43"/>
+      <c r="B229" s="43"/>
+      <c r="C229" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="D229" s="42"/>
+      <c r="E229" s="43"/>
+      <c r="F229" s="43"/>
+      <c r="G229" s="43"/>
+      <c r="H229" s="43"/>
+      <c r="I229" s="43"/>
+      <c r="J229" s="43"/>
+      <c r="K229" s="43"/>
+      <c r="L229" s="43"/>
+      <c r="M229" s="43"/>
+      <c r="N229" s="43"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="42"/>
-      <c r="B230" s="42"/>
-      <c r="C230" s="42" t="s">
-        <v>496</v>
-      </c>
-      <c r="D230" s="41"/>
-      <c r="E230" s="42"/>
-      <c r="F230" s="42"/>
-      <c r="G230" s="42"/>
-      <c r="H230" s="42"/>
-      <c r="I230" s="42"/>
-      <c r="J230" s="42"/>
-      <c r="K230" s="42"/>
-      <c r="L230" s="42"/>
-      <c r="M230" s="42"/>
-      <c r="N230" s="42"/>
+      <c r="A230" s="43"/>
+      <c r="B230" s="43"/>
+      <c r="C230" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="D230" s="42"/>
+      <c r="E230" s="43"/>
+      <c r="F230" s="43"/>
+      <c r="G230" s="43"/>
+      <c r="H230" s="43"/>
+      <c r="I230" s="43"/>
+      <c r="J230" s="43"/>
+      <c r="K230" s="43"/>
+      <c r="L230" s="43"/>
+      <c r="M230" s="43"/>
+      <c r="N230" s="43"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="42"/>
-      <c r="B231" s="42"/>
-      <c r="C231" s="42" t="s">
-        <v>497</v>
-      </c>
-      <c r="D231" s="41"/>
-      <c r="E231" s="42"/>
-      <c r="F231" s="42"/>
-      <c r="G231" s="42"/>
-      <c r="H231" s="42"/>
-      <c r="I231" s="42"/>
-      <c r="J231" s="42"/>
-      <c r="K231" s="42"/>
-      <c r="L231" s="42"/>
-      <c r="M231" s="42"/>
-      <c r="N231" s="42"/>
+      <c r="A231" s="43"/>
+      <c r="B231" s="43"/>
+      <c r="C231" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="D231" s="42"/>
+      <c r="E231" s="43"/>
+      <c r="F231" s="43"/>
+      <c r="G231" s="43"/>
+      <c r="H231" s="43"/>
+      <c r="I231" s="43"/>
+      <c r="J231" s="43"/>
+      <c r="K231" s="43"/>
+      <c r="L231" s="43"/>
+      <c r="M231" s="43"/>
+      <c r="N231" s="43"/>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="42"/>
-      <c r="B232" s="42"/>
-      <c r="C232" s="42" t="s">
-        <v>498</v>
-      </c>
-      <c r="D232" s="41"/>
-      <c r="E232" s="42"/>
-      <c r="F232" s="42"/>
-      <c r="G232" s="42"/>
-      <c r="H232" s="42"/>
-      <c r="I232" s="42"/>
-      <c r="J232" s="42"/>
-      <c r="K232" s="42"/>
-      <c r="L232" s="42"/>
-      <c r="M232" s="42"/>
-      <c r="N232" s="42"/>
+      <c r="A232" s="43"/>
+      <c r="B232" s="43"/>
+      <c r="C232" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="D232" s="42"/>
+      <c r="E232" s="43"/>
+      <c r="F232" s="43"/>
+      <c r="G232" s="43"/>
+      <c r="H232" s="43"/>
+      <c r="I232" s="43"/>
+      <c r="J232" s="43"/>
+      <c r="K232" s="43"/>
+      <c r="L232" s="43"/>
+      <c r="M232" s="43"/>
+      <c r="N232" s="43"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="42"/>
-      <c r="B233" s="42"/>
-      <c r="C233" s="42" t="s">
-        <v>499</v>
-      </c>
-      <c r="D233" s="41"/>
-      <c r="E233" s="42"/>
-      <c r="F233" s="42"/>
-      <c r="G233" s="42"/>
-      <c r="H233" s="42"/>
-      <c r="I233" s="42"/>
-      <c r="J233" s="42"/>
-      <c r="K233" s="42"/>
-      <c r="L233" s="42"/>
-      <c r="M233" s="42"/>
-      <c r="N233" s="42"/>
+      <c r="A233" s="43"/>
+      <c r="B233" s="43"/>
+      <c r="C233" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="D233" s="42"/>
+      <c r="E233" s="43"/>
+      <c r="F233" s="43"/>
+      <c r="G233" s="43"/>
+      <c r="H233" s="43"/>
+      <c r="I233" s="43"/>
+      <c r="J233" s="43"/>
+      <c r="K233" s="43"/>
+      <c r="L233" s="43"/>
+      <c r="M233" s="43"/>
+      <c r="N233" s="43"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="42"/>
-      <c r="B234" s="42"/>
-      <c r="C234" s="42" t="s">
-        <v>500</v>
-      </c>
-      <c r="D234" s="41"/>
-      <c r="E234" s="42"/>
-      <c r="F234" s="42"/>
-      <c r="G234" s="42"/>
-      <c r="H234" s="42"/>
-      <c r="I234" s="42"/>
-      <c r="J234" s="42"/>
-      <c r="K234" s="42"/>
-      <c r="L234" s="42"/>
-      <c r="M234" s="42"/>
-      <c r="N234" s="42"/>
+      <c r="A234" s="43"/>
+      <c r="B234" s="43"/>
+      <c r="C234" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="D234" s="42"/>
+      <c r="E234" s="43"/>
+      <c r="F234" s="43"/>
+      <c r="G234" s="43"/>
+      <c r="H234" s="43"/>
+      <c r="I234" s="43"/>
+      <c r="J234" s="43"/>
+      <c r="K234" s="43"/>
+      <c r="L234" s="43"/>
+      <c r="M234" s="43"/>
+      <c r="N234" s="43"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="42"/>
-      <c r="B235" s="42"/>
-      <c r="C235" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="D235" s="41"/>
-      <c r="E235" s="42"/>
-      <c r="F235" s="42"/>
-      <c r="G235" s="42"/>
-      <c r="H235" s="42"/>
-      <c r="I235" s="42"/>
-      <c r="J235" s="42"/>
-      <c r="K235" s="42"/>
-      <c r="L235" s="42"/>
-      <c r="M235" s="42"/>
-      <c r="N235" s="42"/>
+      <c r="A235" s="43"/>
+      <c r="B235" s="43"/>
+      <c r="C235" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="D235" s="42"/>
+      <c r="E235" s="43"/>
+      <c r="F235" s="43"/>
+      <c r="G235" s="43"/>
+      <c r="H235" s="43"/>
+      <c r="I235" s="43"/>
+      <c r="J235" s="43"/>
+      <c r="K235" s="43"/>
+      <c r="L235" s="43"/>
+      <c r="M235" s="43"/>
+      <c r="N235" s="43"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="42"/>
-      <c r="B236" s="42"/>
-      <c r="C236" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="D236" s="41"/>
-      <c r="E236" s="42"/>
-      <c r="F236" s="42"/>
-      <c r="G236" s="42"/>
-      <c r="H236" s="42"/>
-      <c r="I236" s="42"/>
-      <c r="J236" s="42"/>
-      <c r="K236" s="42"/>
-      <c r="L236" s="42"/>
-      <c r="M236" s="42"/>
-      <c r="N236" s="42"/>
+      <c r="A236" s="43"/>
+      <c r="B236" s="43"/>
+      <c r="C236" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="D236" s="42"/>
+      <c r="E236" s="43"/>
+      <c r="F236" s="43"/>
+      <c r="G236" s="43"/>
+      <c r="H236" s="43"/>
+      <c r="I236" s="43"/>
+      <c r="J236" s="43"/>
+      <c r="K236" s="43"/>
+      <c r="L236" s="43"/>
+      <c r="M236" s="43"/>
+      <c r="N236" s="43"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="42"/>
-      <c r="B237" s="42"/>
-      <c r="C237" s="42" t="s">
-        <v>503</v>
-      </c>
-      <c r="D237" s="41"/>
-      <c r="E237" s="42"/>
-      <c r="F237" s="42"/>
-      <c r="G237" s="42"/>
-      <c r="H237" s="42"/>
-      <c r="I237" s="42"/>
-      <c r="J237" s="42"/>
-      <c r="K237" s="42"/>
-      <c r="L237" s="42"/>
-      <c r="M237" s="42"/>
-      <c r="N237" s="42"/>
+      <c r="A237" s="43"/>
+      <c r="B237" s="43"/>
+      <c r="C237" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="D237" s="42"/>
+      <c r="E237" s="43"/>
+      <c r="F237" s="43"/>
+      <c r="G237" s="43"/>
+      <c r="H237" s="43"/>
+      <c r="I237" s="43"/>
+      <c r="J237" s="43"/>
+      <c r="K237" s="43"/>
+      <c r="L237" s="43"/>
+      <c r="M237" s="43"/>
+      <c r="N237" s="43"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="42"/>
-      <c r="B238" s="42"/>
-      <c r="C238" s="42" t="s">
-        <v>504</v>
-      </c>
-      <c r="D238" s="41"/>
-      <c r="E238" s="42"/>
-      <c r="F238" s="42"/>
-      <c r="G238" s="42"/>
-      <c r="H238" s="42"/>
-      <c r="I238" s="42"/>
-      <c r="J238" s="42"/>
-      <c r="K238" s="42"/>
-      <c r="L238" s="42"/>
-      <c r="M238" s="42"/>
-      <c r="N238" s="42"/>
+      <c r="A238" s="43"/>
+      <c r="B238" s="43"/>
+      <c r="C238" s="43" t="s">
+        <v>505</v>
+      </c>
+      <c r="D238" s="42"/>
+      <c r="E238" s="43"/>
+      <c r="F238" s="43"/>
+      <c r="G238" s="43"/>
+      <c r="H238" s="43"/>
+      <c r="I238" s="43"/>
+      <c r="J238" s="43"/>
+      <c r="K238" s="43"/>
+      <c r="L238" s="43"/>
+      <c r="M238" s="43"/>
+      <c r="N238" s="43"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="42"/>
-      <c r="B239" s="42"/>
-      <c r="C239" s="42" t="s">
-        <v>505</v>
-      </c>
-      <c r="D239" s="41"/>
-      <c r="E239" s="42"/>
-      <c r="F239" s="42"/>
-      <c r="G239" s="42"/>
-      <c r="H239" s="42"/>
-      <c r="I239" s="42"/>
-      <c r="J239" s="42"/>
-      <c r="K239" s="42"/>
-      <c r="L239" s="42"/>
-      <c r="M239" s="42"/>
-      <c r="N239" s="42"/>
+      <c r="A239" s="43"/>
+      <c r="B239" s="43"/>
+      <c r="C239" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="D239" s="42"/>
+      <c r="E239" s="43"/>
+      <c r="F239" s="43"/>
+      <c r="G239" s="43"/>
+      <c r="H239" s="43"/>
+      <c r="I239" s="43"/>
+      <c r="J239" s="43"/>
+      <c r="K239" s="43"/>
+      <c r="L239" s="43"/>
+      <c r="M239" s="43"/>
+      <c r="N239" s="43"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="42"/>
-      <c r="B240" s="42"/>
-      <c r="C240" s="42" t="s">
-        <v>506</v>
-      </c>
-      <c r="D240" s="41"/>
-      <c r="E240" s="42"/>
-      <c r="F240" s="42"/>
-      <c r="G240" s="42"/>
-      <c r="H240" s="42"/>
-      <c r="I240" s="42"/>
-      <c r="J240" s="42"/>
-      <c r="K240" s="42"/>
-      <c r="L240" s="42"/>
-      <c r="M240" s="42"/>
-      <c r="N240" s="42"/>
+      <c r="A240" s="43"/>
+      <c r="B240" s="43"/>
+      <c r="C240" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="D240" s="42"/>
+      <c r="E240" s="43"/>
+      <c r="F240" s="43"/>
+      <c r="G240" s="43"/>
+      <c r="H240" s="43"/>
+      <c r="I240" s="43"/>
+      <c r="J240" s="43"/>
+      <c r="K240" s="43"/>
+      <c r="L240" s="43"/>
+      <c r="M240" s="43"/>
+      <c r="N240" s="43"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="42"/>
-      <c r="B241" s="42"/>
-      <c r="C241" s="42" t="s">
-        <v>507</v>
-      </c>
-      <c r="D241" s="41"/>
-      <c r="E241" s="42"/>
-      <c r="F241" s="42"/>
-      <c r="G241" s="42"/>
-      <c r="H241" s="42"/>
-      <c r="I241" s="42"/>
-      <c r="J241" s="42"/>
-      <c r="K241" s="42"/>
-      <c r="L241" s="42"/>
-      <c r="M241" s="42"/>
-      <c r="N241" s="42"/>
+      <c r="A241" s="43"/>
+      <c r="B241" s="43"/>
+      <c r="C241" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="D241" s="42"/>
+      <c r="E241" s="43"/>
+      <c r="F241" s="43"/>
+      <c r="G241" s="43"/>
+      <c r="H241" s="43"/>
+      <c r="I241" s="43"/>
+      <c r="J241" s="43"/>
+      <c r="K241" s="43"/>
+      <c r="L241" s="43"/>
+      <c r="M241" s="43"/>
+      <c r="N241" s="43"/>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="42"/>
-      <c r="B242" s="42"/>
-      <c r="C242" s="42" t="s">
-        <v>508</v>
-      </c>
-      <c r="D242" s="41"/>
-      <c r="E242" s="42"/>
-      <c r="F242" s="42"/>
-      <c r="G242" s="42"/>
-      <c r="H242" s="42"/>
-      <c r="I242" s="42"/>
-      <c r="J242" s="42"/>
-      <c r="K242" s="42"/>
-      <c r="L242" s="42"/>
-      <c r="M242" s="42"/>
-      <c r="N242" s="42"/>
+      <c r="A242" s="43"/>
+      <c r="B242" s="43"/>
+      <c r="C242" s="43" t="s">
+        <v>509</v>
+      </c>
+      <c r="D242" s="42"/>
+      <c r="E242" s="43"/>
+      <c r="F242" s="43"/>
+      <c r="G242" s="43"/>
+      <c r="H242" s="43"/>
+      <c r="I242" s="43"/>
+      <c r="J242" s="43"/>
+      <c r="K242" s="43"/>
+      <c r="L242" s="43"/>
+      <c r="M242" s="43"/>
+      <c r="N242" s="43"/>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="42"/>
-      <c r="B243" s="42"/>
-      <c r="C243" s="42" t="s">
-        <v>509</v>
-      </c>
-      <c r="D243" s="41"/>
-      <c r="E243" s="42"/>
-      <c r="F243" s="42"/>
-      <c r="G243" s="42"/>
-      <c r="H243" s="42"/>
-      <c r="I243" s="42"/>
-      <c r="J243" s="42"/>
-      <c r="K243" s="42"/>
-      <c r="L243" s="42"/>
-      <c r="M243" s="42"/>
-      <c r="N243" s="42"/>
+      <c r="A243" s="43"/>
+      <c r="B243" s="43"/>
+      <c r="C243" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="D243" s="42"/>
+      <c r="E243" s="43"/>
+      <c r="F243" s="43"/>
+      <c r="G243" s="43"/>
+      <c r="H243" s="43"/>
+      <c r="I243" s="43"/>
+      <c r="J243" s="43"/>
+      <c r="K243" s="43"/>
+      <c r="L243" s="43"/>
+      <c r="M243" s="43"/>
+      <c r="N243" s="43"/>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="42"/>
-      <c r="B244" s="42"/>
-      <c r="C244" s="42" t="s">
-        <v>510</v>
-      </c>
-      <c r="D244" s="41"/>
-      <c r="E244" s="42"/>
-      <c r="F244" s="42"/>
-      <c r="G244" s="42"/>
-      <c r="H244" s="42"/>
-      <c r="I244" s="42"/>
-      <c r="J244" s="42"/>
-      <c r="K244" s="42"/>
-      <c r="L244" s="42"/>
-      <c r="M244" s="42"/>
-      <c r="N244" s="42"/>
+      <c r="A244" s="43"/>
+      <c r="B244" s="43"/>
+      <c r="C244" s="43" t="s">
+        <v>511</v>
+      </c>
+      <c r="D244" s="42"/>
+      <c r="E244" s="43"/>
+      <c r="F244" s="43"/>
+      <c r="G244" s="43"/>
+      <c r="H244" s="43"/>
+      <c r="I244" s="43"/>
+      <c r="J244" s="43"/>
+      <c r="K244" s="43"/>
+      <c r="L244" s="43"/>
+      <c r="M244" s="43"/>
+      <c r="N244" s="43"/>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="42"/>
-      <c r="B245" s="42"/>
-      <c r="C245" s="42" t="s">
-        <v>511</v>
-      </c>
-      <c r="D245" s="41"/>
-      <c r="E245" s="42"/>
-      <c r="F245" s="42"/>
-      <c r="G245" s="42"/>
-      <c r="H245" s="42"/>
-      <c r="I245" s="42"/>
-      <c r="J245" s="42"/>
-      <c r="K245" s="42"/>
-      <c r="L245" s="42"/>
-      <c r="M245" s="42"/>
-      <c r="N245" s="42"/>
+      <c r="A245" s="43"/>
+      <c r="B245" s="43"/>
+      <c r="C245" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="D245" s="42"/>
+      <c r="E245" s="43"/>
+      <c r="F245" s="43"/>
+      <c r="G245" s="43"/>
+      <c r="H245" s="43"/>
+      <c r="I245" s="43"/>
+      <c r="J245" s="43"/>
+      <c r="K245" s="43"/>
+      <c r="L245" s="43"/>
+      <c r="M245" s="43"/>
+      <c r="N245" s="43"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="42"/>
-      <c r="B246" s="42"/>
-      <c r="C246" s="42" t="s">
-        <v>512</v>
-      </c>
-      <c r="D246" s="41"/>
-      <c r="E246" s="42"/>
-      <c r="F246" s="42"/>
-      <c r="G246" s="42"/>
-      <c r="H246" s="42"/>
-      <c r="I246" s="42"/>
-      <c r="J246" s="42"/>
-      <c r="K246" s="42"/>
-      <c r="L246" s="42"/>
-      <c r="M246" s="42"/>
-      <c r="N246" s="42"/>
+      <c r="A246" s="43"/>
+      <c r="B246" s="43"/>
+      <c r="C246" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="D246" s="42"/>
+      <c r="E246" s="43"/>
+      <c r="F246" s="43"/>
+      <c r="G246" s="43"/>
+      <c r="H246" s="43"/>
+      <c r="I246" s="43"/>
+      <c r="J246" s="43"/>
+      <c r="K246" s="43"/>
+      <c r="L246" s="43"/>
+      <c r="M246" s="43"/>
+      <c r="N246" s="43"/>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="42"/>
-      <c r="B247" s="42"/>
-      <c r="C247" s="42" t="s">
-        <v>513</v>
-      </c>
-      <c r="D247" s="41"/>
-      <c r="E247" s="42"/>
-      <c r="F247" s="42"/>
-      <c r="G247" s="42"/>
-      <c r="H247" s="42"/>
-      <c r="I247" s="42"/>
-      <c r="J247" s="42"/>
-      <c r="K247" s="42"/>
-      <c r="L247" s="42"/>
-      <c r="M247" s="42"/>
-      <c r="N247" s="42"/>
+      <c r="A247" s="43"/>
+      <c r="B247" s="43"/>
+      <c r="C247" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="D247" s="42"/>
+      <c r="E247" s="43"/>
+      <c r="F247" s="43"/>
+      <c r="G247" s="43"/>
+      <c r="H247" s="43"/>
+      <c r="I247" s="43"/>
+      <c r="J247" s="43"/>
+      <c r="K247" s="43"/>
+      <c r="L247" s="43"/>
+      <c r="M247" s="43"/>
+      <c r="N247" s="43"/>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="42"/>
-      <c r="B248" s="42"/>
-      <c r="C248" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="D248" s="41"/>
-      <c r="E248" s="42"/>
-      <c r="F248" s="42"/>
-      <c r="G248" s="42"/>
-      <c r="H248" s="42"/>
-      <c r="I248" s="42"/>
-      <c r="J248" s="42"/>
-      <c r="K248" s="42"/>
-      <c r="L248" s="42"/>
-      <c r="M248" s="42"/>
-      <c r="N248" s="42"/>
+      <c r="A248" s="43"/>
+      <c r="B248" s="43"/>
+      <c r="C248" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="D248" s="42"/>
+      <c r="E248" s="43"/>
+      <c r="F248" s="43"/>
+      <c r="G248" s="43"/>
+      <c r="H248" s="43"/>
+      <c r="I248" s="43"/>
+      <c r="J248" s="43"/>
+      <c r="K248" s="43"/>
+      <c r="L248" s="43"/>
+      <c r="M248" s="43"/>
+      <c r="N248" s="43"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="42"/>
-      <c r="B249" s="42"/>
-      <c r="C249" s="42" t="s">
+      <c r="A249" s="43"/>
+      <c r="B249" s="43"/>
+      <c r="C249" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="D249" s="42"/>
+      <c r="E249" s="43"/>
+      <c r="F249" s="43"/>
+      <c r="G249" s="43"/>
+      <c r="H249" s="43"/>
+      <c r="I249" s="43"/>
+      <c r="J249" s="43"/>
+      <c r="K249" s="43"/>
+      <c r="L249" s="43"/>
+      <c r="M249" s="43"/>
+      <c r="N249" s="43"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A250" s="43"/>
+      <c r="B250" s="43"/>
+      <c r="C250" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D250" s="42"/>
+      <c r="E250" s="43"/>
+      <c r="F250" s="43"/>
+      <c r="G250" s="43"/>
+      <c r="H250" s="43"/>
+      <c r="I250" s="43"/>
+      <c r="J250" s="43"/>
+      <c r="K250" s="43"/>
+      <c r="L250" s="43"/>
+      <c r="M250" s="43"/>
+      <c r="N250" s="43"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A251" s="43"/>
+      <c r="B251" s="43"/>
+      <c r="C251" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="D251" s="42"/>
+      <c r="E251" s="43"/>
+      <c r="F251" s="43"/>
+      <c r="G251" s="43"/>
+      <c r="H251" s="43"/>
+      <c r="I251" s="43"/>
+      <c r="J251" s="43"/>
+      <c r="K251" s="43"/>
+      <c r="L251" s="43"/>
+      <c r="M251" s="43"/>
+      <c r="N251" s="43"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A252" s="43"/>
+      <c r="B252" s="43"/>
+      <c r="C252" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="D252" s="42"/>
+      <c r="E252" s="43"/>
+      <c r="F252" s="43"/>
+      <c r="G252" s="43"/>
+      <c r="H252" s="43"/>
+      <c r="I252" s="43"/>
+      <c r="J252" s="43"/>
+      <c r="K252" s="43"/>
+      <c r="L252" s="43"/>
+      <c r="M252" s="43"/>
+      <c r="N252" s="43"/>
+    </row>
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A253" s="43"/>
+      <c r="B253" s="43"/>
+      <c r="C253" s="43" t="s">
         <v>515</v>
       </c>
-      <c r="D249" s="41"/>
-      <c r="E249" s="42"/>
-      <c r="F249" s="42"/>
-      <c r="G249" s="42"/>
-      <c r="H249" s="42"/>
-      <c r="I249" s="42"/>
-      <c r="J249" s="42"/>
-      <c r="K249" s="42"/>
-      <c r="L249" s="42"/>
-      <c r="M249" s="42"/>
-      <c r="N249" s="42"/>
-    </row>
-    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="42"/>
-      <c r="B250" s="42"/>
-      <c r="C250" s="42" t="s">
+      <c r="D253" s="42"/>
+      <c r="E253" s="43"/>
+      <c r="F253" s="43"/>
+      <c r="G253" s="43"/>
+      <c r="H253" s="43"/>
+      <c r="I253" s="43"/>
+      <c r="J253" s="43"/>
+      <c r="K253" s="43"/>
+      <c r="L253" s="43"/>
+      <c r="M253" s="43"/>
+      <c r="N253" s="43"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A254" s="43"/>
+      <c r="B254" s="43"/>
+      <c r="C254" s="43" t="s">
         <v>516</v>
       </c>
-      <c r="D250" s="41"/>
-      <c r="E250" s="42"/>
-      <c r="F250" s="42"/>
-      <c r="G250" s="42"/>
-      <c r="H250" s="42"/>
-      <c r="I250" s="42"/>
-      <c r="J250" s="42"/>
-      <c r="K250" s="42"/>
-      <c r="L250" s="42"/>
-      <c r="M250" s="42"/>
-      <c r="N250" s="42"/>
-    </row>
-    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="42"/>
-      <c r="B251" s="42"/>
-      <c r="C251" s="42" t="s">
+      <c r="D254" s="42"/>
+      <c r="E254" s="43"/>
+      <c r="F254" s="43"/>
+      <c r="G254" s="43"/>
+      <c r="H254" s="43"/>
+      <c r="I254" s="43"/>
+      <c r="J254" s="43"/>
+      <c r="K254" s="43"/>
+      <c r="L254" s="43"/>
+      <c r="M254" s="43"/>
+      <c r="N254" s="43"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A255" s="43"/>
+      <c r="B255" s="45"/>
+      <c r="C255" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="D255" s="42"/>
+      <c r="E255" s="43"/>
+      <c r="F255" s="43"/>
+      <c r="G255" s="43"/>
+      <c r="H255" s="43"/>
+      <c r="I255" s="43"/>
+      <c r="J255" s="43"/>
+      <c r="K255" s="43"/>
+      <c r="L255" s="43"/>
+      <c r="M255" s="43"/>
+      <c r="N255" s="43"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A256" s="43"/>
+      <c r="B256" s="45"/>
+      <c r="C256" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="D251" s="41"/>
-      <c r="E251" s="42"/>
-      <c r="F251" s="42"/>
-      <c r="G251" s="42"/>
-      <c r="H251" s="42"/>
-      <c r="I251" s="42"/>
-      <c r="J251" s="42"/>
-      <c r="K251" s="42"/>
-      <c r="L251" s="42"/>
-      <c r="M251" s="42"/>
-      <c r="N251" s="42"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="42"/>
-      <c r="B252" s="42"/>
-      <c r="C252" s="42" t="s">
-        <v>518</v>
-      </c>
-      <c r="D252" s="41"/>
-      <c r="E252" s="42"/>
-      <c r="F252" s="42"/>
-      <c r="G252" s="42"/>
-      <c r="H252" s="42"/>
-      <c r="I252" s="42"/>
-      <c r="J252" s="42"/>
-      <c r="K252" s="42"/>
-      <c r="L252" s="42"/>
-      <c r="M252" s="42"/>
-      <c r="N252" s="42"/>
-    </row>
-    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="42"/>
-      <c r="B253" s="42"/>
-      <c r="C253" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="D253" s="41"/>
-      <c r="E253" s="42"/>
-      <c r="F253" s="42"/>
-      <c r="G253" s="42"/>
-      <c r="H253" s="42"/>
-      <c r="I253" s="42"/>
-      <c r="J253" s="42"/>
-      <c r="K253" s="42"/>
-      <c r="L253" s="42"/>
-      <c r="M253" s="42"/>
-      <c r="N253" s="42"/>
-    </row>
-    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="42"/>
-      <c r="B254" s="42"/>
-      <c r="C254" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="D254" s="41"/>
-      <c r="E254" s="42"/>
-      <c r="F254" s="42"/>
-      <c r="G254" s="42"/>
-      <c r="H254" s="42"/>
-      <c r="I254" s="42"/>
-      <c r="J254" s="42"/>
-      <c r="K254" s="42"/>
-      <c r="L254" s="42"/>
-      <c r="M254" s="42"/>
-      <c r="N254" s="42"/>
-    </row>
-    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="42"/>
-      <c r="B255" s="44"/>
-      <c r="C255" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="D255" s="41"/>
-      <c r="E255" s="42"/>
-      <c r="F255" s="42"/>
-      <c r="G255" s="42"/>
-      <c r="H255" s="42"/>
-      <c r="I255" s="42"/>
-      <c r="J255" s="42"/>
-      <c r="K255" s="42"/>
-      <c r="L255" s="42"/>
-      <c r="M255" s="42"/>
-      <c r="N255" s="42"/>
-    </row>
-    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="42"/>
-      <c r="B256" s="44"/>
-      <c r="C256" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="D256" s="41"/>
-      <c r="E256" s="42"/>
-      <c r="F256" s="42"/>
-      <c r="G256" s="42"/>
-      <c r="I256" s="42"/>
-      <c r="J256" s="42"/>
-      <c r="K256" s="42"/>
-      <c r="L256" s="42"/>
-      <c r="M256" s="42"/>
-      <c r="N256" s="42"/>
+      <c r="D256" s="42"/>
+      <c r="E256" s="43"/>
+      <c r="F256" s="43"/>
+      <c r="G256" s="43"/>
+      <c r="I256" s="43"/>
+      <c r="J256" s="43"/>
+      <c r="K256" s="43"/>
+      <c r="L256" s="43"/>
+      <c r="M256" s="43"/>
+      <c r="N256" s="43"/>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/libs/ui/src/lib/assets/templates/import-movie-template-admin.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-movie-template-admin.xlsx
@@ -89,10 +89,10 @@
     <t xml:space="preserve">List of available Genres below</t>
   </si>
   <si>
-    <t xml:space="preserve">List of available Producers roles ranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of available Crew roles ranges</t>
+    <t xml:space="preserve">List of available Producers roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of available Crew roles</t>
   </si>
   <si>
     <t xml:space="preserve">List of available Budget ranges</t>
@@ -1624,7 +1624,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1651,14 +1651,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1666,7 +1666,7 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1675,13 +1675,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1689,7 +1689,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1697,7 +1697,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1713,14 +1713,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFE2EFD9"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1728,15 +1728,8 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2004,10 +1997,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2040,6 +2029,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2060,32 +2053,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2112,15 +2109,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2132,7 +2125,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2223,9 +2216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1268640</xdr:colOff>
+      <xdr:colOff>1268280</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>316440</xdr:rowOff>
+      <xdr:rowOff>316080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2235,7 +2228,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11850840" cy="12946320"/>
+          <a:ext cx="11850480" cy="12945960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2268,9 +2261,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1268640</xdr:colOff>
+      <xdr:colOff>1268280</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>316440</xdr:rowOff>
+      <xdr:rowOff>316080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2280,7 +2273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11850840" cy="12946320"/>
+          <a:ext cx="11850480" cy="12945960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2313,9 +2306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1268640</xdr:colOff>
+      <xdr:colOff>1268280</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>316440</xdr:rowOff>
+      <xdr:rowOff>316080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2325,7 +2318,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11850840" cy="12946320"/>
+          <a:ext cx="11850480" cy="12945960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2360,11 +2353,11 @@
   <dimension ref="A1:AT1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AL5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AL1" activeCellId="0" sqref="AL1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AQ18" activeCellId="0" sqref="AQ18"/>
+      <selection pane="bottomRight" activeCell="AN14" activeCellId="0" sqref="A1:AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2467,7 +2460,7 @@
       <c r="Y2" s="11"/>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="12"/>
+      <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>
@@ -2482,18 +2475,18 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="17"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="3"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -2509,7 +2502,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
-      <c r="AB3" s="12"/>
+      <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11"/>
       <c r="AE3" s="11"/>
@@ -2524,20 +2517,20 @@
       <c r="AN3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="17"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="3"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -2553,7 +2546,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
-      <c r="AB4" s="12"/>
+      <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
@@ -2568,20 +2561,20 @@
       <c r="AN4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="3"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -2597,7 +2590,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
-      <c r="AB5" s="12"/>
+      <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
@@ -2612,20 +2605,20 @@
       <c r="AN5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="3"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -2641,7 +2634,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
-      <c r="AB6" s="12"/>
+      <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
@@ -2656,20 +2649,20 @@
       <c r="AN6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="3"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -2685,7 +2678,7 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
-      <c r="AB7" s="12"/>
+      <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
@@ -2700,20 +2693,20 @@
       <c r="AN7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -2892,95 +2885,95 @@
       <c r="AT11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="26" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="26" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="26" t="s">
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="26" t="s">
+      <c r="T12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="26" t="s">
+      <c r="U12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="V12" s="27" t="s">
+      <c r="V12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="W12" s="27" t="s">
+      <c r="W12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="26" t="s">
+      <c r="X12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="Y12" s="27" t="s">
+      <c r="Y12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="27" t="s">
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AC12" s="27" t="s">
+      <c r="AC12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AD12" s="27" t="s">
+      <c r="AD12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AE12" s="27" t="s">
+      <c r="AE12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="4"/>
@@ -2988,23 +2981,23 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="28"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="30"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
@@ -3012,130 +3005,130 @@
       <c r="AN13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="P14" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="36" t="s">
+      <c r="Q14" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="34" t="s">
+      <c r="R14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="36" t="s">
+      <c r="S14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="T14" s="36" t="s">
+      <c r="T14" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="36" t="s">
+      <c r="U14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="V14" s="36" t="s">
+      <c r="V14" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="36" t="s">
+      <c r="W14" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="X14" s="36" t="s">
+      <c r="X14" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Y14" s="36" t="s">
+      <c r="Y14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Z14" s="36" t="s">
+      <c r="Z14" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AA14" s="36" t="s">
+      <c r="AA14" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AB14" s="36" t="s">
+      <c r="AB14" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="AC14" s="36" t="s">
+      <c r="AC14" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="AD14" s="36" t="s">
+      <c r="AD14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" s="36" t="s">
+      <c r="AE14" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="AF14" s="33" t="s">
+      <c r="AF14" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AG14" s="34" t="s">
+      <c r="AG14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AH14" s="37" t="s">
+      <c r="AH14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AI14" s="37" t="s">
+      <c r="AI14" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AJ14" s="37" t="s">
+      <c r="AJ14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AK14" s="37" t="s">
+      <c r="AK14" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AL14" s="37" t="s">
+      <c r="AL14" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AM14" s="37" t="s">
+      <c r="AM14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AN14" s="37" t="s">
+      <c r="AN14" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AO14" s="38" t="s">
+      <c r="AO14" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="AP14" s="38" t="s">
+      <c r="AP14" s="39" t="s">
         <v>70</v>
       </c>
       <c r="AQ14" s="39" t="s">
@@ -4148,6 +4141,68 @@
     <mergeCell ref="AF11:AN11"/>
     <mergeCell ref="AO11:AT11"/>
   </mergeCells>
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D13" type="list">
+      <formula1>'Pre-defined lists'!$F$2:$F$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E13" type="list">
+      <formula1>'Pre-defined lists'!$G$2:$G$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G13 W13 Y13" type="list">
+      <formula1>'Pre-defined lists'!$C$3:$C$254</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H13" type="list">
+      <formula1>'Pre-defined lists'!$I$2:$I$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I13" type="list">
+      <formula1>'Pre-defined lists'!$B$2:$B$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J13 AE13" type="list">
+      <formula1>'Pre-defined lists'!$E$2:$E$85</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K13" type="list">
+      <formula1>'Pre-defined lists'!$A$2:$A$20</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S13" type="list">
+      <formula1>'Pre-defined lists'!$J$2:$J$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T13" type="list">
+      <formula1>'Pre-defined lists'!$K$2:$K$15</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U13" type="list">
+      <formula1>'Pre-defined lists'!$H$2:$H$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V13" type="list">
+      <formula1>'Pre-defined lists'!$L$2:$L$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X13" type="list">
+      <formula1>'Pre-defined lists'!$D$2:$D$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AB13" type="list">
+      <formula1>'Pre-defined lists'!$M$2:$M$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AC13" type="list">
+      <formula1>'Pre-defined lists'!$O$2:$O$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AD13" type="list">
+      <formula1>'Pre-defined lists'!$N$2:$N$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4167,7 +4222,7 @@
   <dimension ref="A1:N257"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="A1:AN14 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
